--- a/GATEWAY/A1#111#KWELXX/KWEL/CADUAMB/9/report-checklist.xlsx
+++ b/GATEWAY/A1#111#KWELXX/KWEL/CADUAMB/9/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="497">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -482,6 +482,13 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">Precondizioni:
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025-11-04T14:10:10.0000000+00:00</t>
   </si>
   <si>
@@ -1571,13 +1578,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-04T14:11:04.0000000+00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d238cb9172dbb6068dd54fff4a13f2ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.aba3a1813c24c93cf77c3622cbbdffe37bc523d686ce8c0f902d82a61fbaf5ec.12755c36f7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-11-10T11:33:54.0000000+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d7f66eae1ca74ca6ae43afb26996c2df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.aba3a1813c24c93cf77c3622cbbdffe37bc523d686ce8c0f902d82a61fbaf5ec.061a061247^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1744,13 +1751,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-04T14:09:56.0000000+00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2a57ee618bf7e4aa96b9de631c07a64e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.1212378fa2ece7be882592738760df591495d973ecf0a3d667dc469eaff2915c.2ec8056877^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-11-10T10:58:51.0000000+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a590758ca27f6501330fab6d04f15aef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.1212378fa2ece7be882592738760df591495d973ecf0a3d667dc469eaff2915c.a010c1f6b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -1895,7 +1902,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1974,6 +1981,14 @@
     </font>
     <font>
       <b val="true"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2172,7 +2187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2329,6 +2344,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2337,7 +2356,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4817,11 +4836,11 @@
   <dimension ref="A1:Z752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F130" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A167" activeCellId="0" sqref="A167"/>
-      <selection pane="bottomRight" activeCell="G167" activeCellId="0" sqref="G167"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A130" activeCellId="0" sqref="A130"/>
+      <selection pane="bottomRight" activeCell="G166" activeCellId="0" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5618,17 +5637,17 @@
       <c r="D22" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>79</v>
+      <c r="E22" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="F22" s="30" t="n">
         <v>45965</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>63</v>
@@ -5645,7 +5664,7 @@
         <v>64</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P22" s="31" t="s">
         <v>66</v>
@@ -5677,7 +5696,7 @@
         <v>68</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>79</v>
@@ -5686,10 +5705,10 @@
         <v>45965</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I23" s="38" t="s">
         <v>63</v>
@@ -5706,7 +5725,7 @@
         <v>64</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>66</v>
@@ -5738,7 +5757,7 @@
         <v>72</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>79</v>
@@ -5775,7 +5794,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>79</v>
@@ -5812,7 +5831,7 @@
         <v>76</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>79</v>
@@ -5849,10 +5868,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
@@ -5888,10 +5907,10 @@
         <v>55</v>
       </c>
       <c r="D28" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="28" t="s">
         <v>94</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>93</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
@@ -5927,10 +5946,10 @@
         <v>57</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
@@ -5966,10 +5985,10 @@
         <v>59</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F30" s="30" t="n">
         <v>45965</v>
@@ -5989,7 +6008,7 @@
         <v>64</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P30" s="31" t="s">
         <v>64</v>
@@ -6001,7 +6020,7 @@
         <v>64</v>
       </c>
       <c r="S30" s="31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T30" s="31"/>
       <c r="U30" s="32"/>
@@ -6021,10 +6040,10 @@
         <v>68</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F31" s="30" t="n">
         <v>45965</v>
@@ -6044,7 +6063,7 @@
         <v>64</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P31" s="31" t="s">
         <v>64</v>
@@ -6056,7 +6075,7 @@
         <v>64</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T31" s="31"/>
       <c r="U31" s="32"/>
@@ -6076,10 +6095,10 @@
         <v>72</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
@@ -6115,10 +6134,10 @@
         <v>74</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
@@ -6154,10 +6173,10 @@
         <v>76</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
@@ -6193,10 +6212,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
@@ -6230,10 +6249,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
@@ -6267,10 +6286,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
@@ -6304,10 +6323,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
@@ -6341,10 +6360,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
@@ -6378,10 +6397,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
@@ -6415,10 +6434,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
@@ -6452,10 +6471,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
@@ -6489,10 +6508,10 @@
         <v>55</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
@@ -6526,10 +6545,10 @@
         <v>55</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
@@ -6563,10 +6582,10 @@
         <v>55</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
@@ -6600,10 +6619,10 @@
         <v>55</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
@@ -6637,10 +6656,10 @@
         <v>55</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
@@ -6674,10 +6693,10 @@
         <v>55</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
@@ -6711,10 +6730,10 @@
         <v>55</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
@@ -6748,10 +6767,10 @@
         <v>55</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="30"/>
@@ -6785,10 +6804,10 @@
         <v>55</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
@@ -6822,10 +6841,10 @@
         <v>55</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F52" s="30"/>
       <c r="G52" s="30"/>
@@ -6859,10 +6878,10 @@
         <v>59</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F53" s="30"/>
       <c r="G53" s="37"/>
@@ -6872,7 +6891,7 @@
         <v>66</v>
       </c>
       <c r="K53" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
@@ -6900,22 +6919,22 @@
         <v>59</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F54" s="30" t="n">
         <v>45965</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J54" s="31" t="s">
         <v>64</v>
@@ -6929,7 +6948,7 @@
         <v>64</v>
       </c>
       <c r="O54" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P54" s="31" t="s">
         <v>64</v>
@@ -6941,7 +6960,7 @@
         <v>64</v>
       </c>
       <c r="S54" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T54" s="31"/>
       <c r="U54" s="32"/>
@@ -6961,22 +6980,22 @@
         <v>59</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F55" s="30" t="n">
         <v>45965</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J55" s="31" t="s">
         <v>64</v>
@@ -6990,7 +7009,7 @@
         <v>64</v>
       </c>
       <c r="O55" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P55" s="31" t="s">
         <v>64</v>
@@ -7002,7 +7021,7 @@
         <v>64</v>
       </c>
       <c r="S55" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T55" s="31"/>
       <c r="U55" s="32"/>
@@ -7022,10 +7041,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F56" s="30"/>
       <c r="G56" s="37"/>
@@ -7035,7 +7054,7 @@
         <v>66</v>
       </c>
       <c r="K56" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L56" s="31"/>
       <c r="M56" s="31"/>
@@ -7063,10 +7082,10 @@
         <v>59</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="37"/>
@@ -7076,7 +7095,7 @@
         <v>66</v>
       </c>
       <c r="K57" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L57" s="31"/>
       <c r="M57" s="31"/>
@@ -7104,10 +7123,10 @@
         <v>59</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="37"/>
@@ -7117,7 +7136,7 @@
         <v>66</v>
       </c>
       <c r="K58" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L58" s="31"/>
       <c r="M58" s="31"/>
@@ -7145,10 +7164,10 @@
         <v>59</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="37"/>
@@ -7158,7 +7177,7 @@
         <v>66</v>
       </c>
       <c r="K59" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L59" s="31"/>
       <c r="M59" s="31"/>
@@ -7186,22 +7205,22 @@
         <v>59</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F60" s="30" t="n">
         <v>45965</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J60" s="31" t="s">
         <v>64</v>
@@ -7215,7 +7234,7 @@
         <v>64</v>
       </c>
       <c r="O60" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P60" s="31" t="s">
         <v>64</v>
@@ -7227,7 +7246,7 @@
         <v>64</v>
       </c>
       <c r="S60" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T60" s="31"/>
       <c r="U60" s="32"/>
@@ -7247,22 +7266,22 @@
         <v>59</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F61" s="30" t="n">
         <v>45965</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J61" s="31" t="s">
         <v>64</v>
@@ -7276,7 +7295,7 @@
         <v>64</v>
       </c>
       <c r="O61" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P61" s="31" t="s">
         <v>64</v>
@@ -7288,7 +7307,7 @@
         <v>64</v>
       </c>
       <c r="S61" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T61" s="31"/>
       <c r="U61" s="32"/>
@@ -7308,22 +7327,22 @@
         <v>59</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F62" s="30" t="n">
         <v>45965</v>
       </c>
       <c r="G62" s="37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J62" s="31" t="s">
         <v>64</v>
@@ -7337,7 +7356,7 @@
         <v>64</v>
       </c>
       <c r="O62" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P62" s="31" t="s">
         <v>64</v>
@@ -7349,7 +7368,7 @@
         <v>64</v>
       </c>
       <c r="S62" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T62" s="31"/>
       <c r="U62" s="32"/>
@@ -7369,10 +7388,10 @@
         <v>59</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
@@ -7382,7 +7401,7 @@
         <v>66</v>
       </c>
       <c r="K63" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L63" s="31"/>
       <c r="M63" s="31"/>
@@ -7410,10 +7429,10 @@
         <v>59</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F64" s="30"/>
       <c r="G64" s="30"/>
@@ -7423,7 +7442,7 @@
         <v>66</v>
       </c>
       <c r="K64" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L64" s="31"/>
       <c r="M64" s="31"/>
@@ -7451,10 +7470,10 @@
         <v>59</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
@@ -7464,7 +7483,7 @@
         <v>66</v>
       </c>
       <c r="K65" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L65" s="31"/>
       <c r="M65" s="31"/>
@@ -7492,10 +7511,10 @@
         <v>59</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F66" s="30"/>
       <c r="G66" s="30"/>
@@ -7505,7 +7524,7 @@
         <v>66</v>
       </c>
       <c r="K66" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
@@ -7533,10 +7552,10 @@
         <v>59</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
@@ -7546,7 +7565,7 @@
         <v>66</v>
       </c>
       <c r="K67" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
@@ -7574,22 +7593,22 @@
         <v>59</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F68" s="30" t="n">
         <v>45965</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J68" s="31" t="s">
         <v>64</v>
@@ -7603,7 +7622,7 @@
         <v>64</v>
       </c>
       <c r="O68" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P68" s="31" t="s">
         <v>64</v>
@@ -7615,7 +7634,7 @@
         <v>64</v>
       </c>
       <c r="S68" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T68" s="31"/>
       <c r="U68" s="32"/>
@@ -7635,10 +7654,10 @@
         <v>72</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
@@ -7672,10 +7691,10 @@
         <v>72</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F70" s="30"/>
       <c r="G70" s="30"/>
@@ -7709,10 +7728,10 @@
         <v>72</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F71" s="30"/>
       <c r="G71" s="30"/>
@@ -7746,10 +7765,10 @@
         <v>72</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F72" s="30"/>
       <c r="G72" s="30"/>
@@ -7783,10 +7802,10 @@
         <v>72</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F73" s="30"/>
       <c r="G73" s="30"/>
@@ -7820,10 +7839,10 @@
         <v>72</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F74" s="30"/>
       <c r="G74" s="30"/>
@@ -7857,10 +7876,10 @@
         <v>72</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F75" s="30"/>
       <c r="G75" s="30"/>
@@ -7894,10 +7913,10 @@
         <v>72</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F76" s="30"/>
       <c r="G76" s="30"/>
@@ -7931,10 +7950,10 @@
         <v>72</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F77" s="30"/>
       <c r="G77" s="30"/>
@@ -7968,10 +7987,10 @@
         <v>72</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F78" s="30"/>
       <c r="G78" s="30"/>
@@ -8005,10 +8024,10 @@
         <v>72</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="30"/>
@@ -8042,10 +8061,10 @@
         <v>74</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="30"/>
@@ -8079,10 +8098,10 @@
         <v>74</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F81" s="30"/>
       <c r="G81" s="30"/>
@@ -8116,10 +8135,10 @@
         <v>74</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F82" s="30"/>
       <c r="G82" s="30"/>
@@ -8153,10 +8172,10 @@
         <v>74</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F83" s="30"/>
       <c r="G83" s="30"/>
@@ -8190,10 +8209,10 @@
         <v>74</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F84" s="30"/>
       <c r="G84" s="30"/>
@@ -8227,10 +8246,10 @@
         <v>74</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E85" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F85" s="30"/>
       <c r="G85" s="30"/>
@@ -8264,10 +8283,10 @@
         <v>74</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F86" s="30"/>
       <c r="G86" s="30"/>
@@ -8301,10 +8320,10 @@
         <v>74</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F87" s="30"/>
       <c r="G87" s="30"/>
@@ -8338,10 +8357,10 @@
         <v>74</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F88" s="30"/>
       <c r="G88" s="30"/>
@@ -8375,10 +8394,10 @@
         <v>74</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F89" s="30"/>
       <c r="G89" s="30"/>
@@ -8412,10 +8431,10 @@
         <v>74</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
@@ -8449,10 +8468,10 @@
         <v>74</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F91" s="30"/>
       <c r="G91" s="30"/>
@@ -8486,10 +8505,10 @@
         <v>74</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E92" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F92" s="30"/>
       <c r="G92" s="30"/>
@@ -8523,10 +8542,10 @@
         <v>76</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F93" s="30"/>
       <c r="G93" s="30"/>
@@ -8560,10 +8579,10 @@
         <v>76</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F94" s="30"/>
       <c r="G94" s="30"/>
@@ -8597,10 +8616,10 @@
         <v>76</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F95" s="30"/>
       <c r="G95" s="30"/>
@@ -8634,10 +8653,10 @@
         <v>76</v>
       </c>
       <c r="D96" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F96" s="30"/>
       <c r="G96" s="30"/>
@@ -8671,10 +8690,10 @@
         <v>76</v>
       </c>
       <c r="D97" s="27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
@@ -8708,10 +8727,10 @@
         <v>76</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F98" s="30"/>
       <c r="G98" s="30"/>
@@ -8745,10 +8764,10 @@
         <v>76</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F99" s="30"/>
       <c r="G99" s="30"/>
@@ -8782,10 +8801,10 @@
         <v>76</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F100" s="30"/>
       <c r="G100" s="30"/>
@@ -8819,10 +8838,10 @@
         <v>76</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E101" s="28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F101" s="30"/>
       <c r="G101" s="30"/>
@@ -8856,10 +8875,10 @@
         <v>76</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F102" s="30"/>
       <c r="G102" s="30"/>
@@ -8893,10 +8912,10 @@
         <v>76</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E103" s="28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F103" s="30"/>
       <c r="G103" s="30"/>
@@ -8930,10 +8949,10 @@
         <v>76</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F104" s="30"/>
       <c r="G104" s="30"/>
@@ -8967,10 +8986,10 @@
         <v>76</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E105" s="28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F105" s="30"/>
       <c r="G105" s="30"/>
@@ -9004,10 +9023,10 @@
         <v>76</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E106" s="28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F106" s="30"/>
       <c r="G106" s="30"/>
@@ -9041,10 +9060,10 @@
         <v>76</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E107" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F107" s="30"/>
       <c r="G107" s="30"/>
@@ -9078,10 +9097,10 @@
         <v>76</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E108" s="28" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F108" s="30"/>
       <c r="G108" s="30"/>
@@ -9115,10 +9134,10 @@
         <v>76</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E109" s="28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F109" s="30"/>
       <c r="G109" s="30"/>
@@ -9152,10 +9171,10 @@
         <v>76</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E110" s="28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F110" s="30"/>
       <c r="G110" s="30"/>
@@ -9189,10 +9208,10 @@
         <v>76</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E111" s="28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F111" s="30"/>
       <c r="G111" s="30"/>
@@ -9226,10 +9245,10 @@
         <v>76</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E112" s="28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F112" s="30"/>
       <c r="G112" s="30"/>
@@ -9263,10 +9282,10 @@
         <v>76</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E113" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F113" s="30"/>
       <c r="G113" s="30"/>
@@ -9300,10 +9319,10 @@
         <v>76</v>
       </c>
       <c r="D114" s="27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E114" s="28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F114" s="30"/>
       <c r="G114" s="30"/>
@@ -9337,10 +9356,10 @@
         <v>76</v>
       </c>
       <c r="D115" s="27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E115" s="28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F115" s="30"/>
       <c r="G115" s="30"/>
@@ -9374,10 +9393,10 @@
         <v>68</v>
       </c>
       <c r="D116" s="27" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E116" s="28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F116" s="30"/>
       <c r="G116" s="37"/>
@@ -9387,7 +9406,7 @@
         <v>66</v>
       </c>
       <c r="K116" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L116" s="31"/>
       <c r="M116" s="31"/>
@@ -9415,22 +9434,22 @@
         <v>68</v>
       </c>
       <c r="D117" s="27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E117" s="28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F117" s="30" t="n">
         <v>45965</v>
       </c>
       <c r="G117" s="37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H117" s="37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J117" s="31" t="s">
         <v>64</v>
@@ -9444,7 +9463,7 @@
         <v>64</v>
       </c>
       <c r="O117" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P117" s="31" t="s">
         <v>64</v>
@@ -9456,7 +9475,7 @@
         <v>64</v>
       </c>
       <c r="S117" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T117" s="31"/>
       <c r="U117" s="32"/>
@@ -9476,22 +9495,22 @@
         <v>68</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E118" s="28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F118" s="30" t="n">
         <v>45965</v>
       </c>
       <c r="G118" s="37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H118" s="37" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J118" s="31" t="s">
         <v>64</v>
@@ -9505,7 +9524,7 @@
         <v>64</v>
       </c>
       <c r="O118" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P118" s="31" t="s">
         <v>64</v>
@@ -9517,7 +9536,7 @@
         <v>64</v>
       </c>
       <c r="S118" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T118" s="31"/>
       <c r="U118" s="32"/>
@@ -9537,10 +9556,10 @@
         <v>68</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E119" s="28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F119" s="30"/>
       <c r="G119" s="30"/>
@@ -9550,7 +9569,7 @@
         <v>66</v>
       </c>
       <c r="K119" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L119" s="31"/>
       <c r="M119" s="31"/>
@@ -9578,10 +9597,10 @@
         <v>68</v>
       </c>
       <c r="D120" s="27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E120" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F120" s="30"/>
       <c r="G120" s="30"/>
@@ -9591,7 +9610,7 @@
         <v>66</v>
       </c>
       <c r="K120" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L120" s="31"/>
       <c r="M120" s="31"/>
@@ -9619,10 +9638,10 @@
         <v>68</v>
       </c>
       <c r="D121" s="27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E121" s="28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F121" s="30"/>
       <c r="G121" s="30"/>
@@ -9632,7 +9651,7 @@
         <v>66</v>
       </c>
       <c r="K121" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L121" s="31"/>
       <c r="M121" s="31"/>
@@ -9660,22 +9679,22 @@
         <v>68</v>
       </c>
       <c r="D122" s="27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E122" s="28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F122" s="30" t="n">
         <v>45965</v>
       </c>
       <c r="G122" s="37" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J122" s="31" t="s">
         <v>64</v>
@@ -9689,7 +9708,7 @@
         <v>64</v>
       </c>
       <c r="O122" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P122" s="31" t="s">
         <v>64</v>
@@ -9701,7 +9720,7 @@
         <v>64</v>
       </c>
       <c r="S122" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T122" s="31"/>
       <c r="U122" s="32"/>
@@ -9721,22 +9740,22 @@
         <v>68</v>
       </c>
       <c r="D123" s="27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F123" s="30" t="n">
         <v>45965</v>
       </c>
       <c r="G123" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H123" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J123" s="31" t="s">
         <v>64</v>
@@ -9750,7 +9769,7 @@
         <v>64</v>
       </c>
       <c r="O123" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P123" s="31" t="s">
         <v>64</v>
@@ -9762,7 +9781,7 @@
         <v>64</v>
       </c>
       <c r="S123" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T123" s="31"/>
       <c r="U123" s="32"/>
@@ -9782,10 +9801,10 @@
         <v>68</v>
       </c>
       <c r="D124" s="27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E124" s="28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F124" s="30"/>
       <c r="G124" s="30"/>
@@ -9795,7 +9814,7 @@
         <v>66</v>
       </c>
       <c r="K124" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L124" s="31"/>
       <c r="M124" s="31"/>
@@ -9823,10 +9842,10 @@
         <v>68</v>
       </c>
       <c r="D125" s="27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E125" s="28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F125" s="30"/>
       <c r="G125" s="30"/>
@@ -9836,7 +9855,7 @@
         <v>66</v>
       </c>
       <c r="K125" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L125" s="31"/>
       <c r="M125" s="31"/>
@@ -9864,10 +9883,10 @@
         <v>68</v>
       </c>
       <c r="D126" s="27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E126" s="28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F126" s="30"/>
       <c r="G126" s="30"/>
@@ -9877,7 +9896,7 @@
         <v>66</v>
       </c>
       <c r="K126" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L126" s="31"/>
       <c r="M126" s="31"/>
@@ -9905,10 +9924,10 @@
         <v>68</v>
       </c>
       <c r="D127" s="27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F127" s="30"/>
       <c r="G127" s="30"/>
@@ -9918,7 +9937,7 @@
         <v>66</v>
       </c>
       <c r="K127" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L127" s="31"/>
       <c r="M127" s="31"/>
@@ -9946,10 +9965,10 @@
         <v>68</v>
       </c>
       <c r="D128" s="27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E128" s="28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F128" s="30"/>
       <c r="G128" s="30"/>
@@ -9959,7 +9978,7 @@
         <v>66</v>
       </c>
       <c r="K128" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L128" s="31"/>
       <c r="M128" s="31"/>
@@ -9987,10 +10006,10 @@
         <v>68</v>
       </c>
       <c r="D129" s="27" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E129" s="28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F129" s="30"/>
       <c r="G129" s="30"/>
@@ -10000,7 +10019,7 @@
         <v>66</v>
       </c>
       <c r="K129" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L129" s="31"/>
       <c r="M129" s="31"/>
@@ -10028,10 +10047,10 @@
         <v>68</v>
       </c>
       <c r="D130" s="27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E130" s="28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F130" s="30"/>
       <c r="G130" s="30"/>
@@ -10041,7 +10060,7 @@
         <v>66</v>
       </c>
       <c r="K130" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L130" s="31"/>
       <c r="M130" s="31"/>
@@ -10069,10 +10088,10 @@
         <v>57</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F131" s="30"/>
       <c r="G131" s="30"/>
@@ -10106,10 +10125,10 @@
         <v>57</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E132" s="28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F132" s="30"/>
       <c r="G132" s="30"/>
@@ -10143,10 +10162,10 @@
         <v>57</v>
       </c>
       <c r="D133" s="27" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F133" s="30"/>
       <c r="G133" s="30"/>
@@ -10180,10 +10199,10 @@
         <v>57</v>
       </c>
       <c r="D134" s="27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E134" s="28" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F134" s="30"/>
       <c r="G134" s="30"/>
@@ -10217,10 +10236,10 @@
         <v>57</v>
       </c>
       <c r="D135" s="27" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E135" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F135" s="30"/>
       <c r="G135" s="30"/>
@@ -10254,10 +10273,10 @@
         <v>57</v>
       </c>
       <c r="D136" s="27" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E136" s="28" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F136" s="30"/>
       <c r="G136" s="30"/>
@@ -10291,10 +10310,10 @@
         <v>57</v>
       </c>
       <c r="D137" s="27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E137" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F137" s="30"/>
       <c r="G137" s="30"/>
@@ -10328,10 +10347,10 @@
         <v>57</v>
       </c>
       <c r="D138" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E138" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F138" s="30"/>
       <c r="G138" s="30"/>
@@ -10365,10 +10384,10 @@
         <v>57</v>
       </c>
       <c r="D139" s="27" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F139" s="30"/>
       <c r="G139" s="30"/>
@@ -10402,10 +10421,10 @@
         <v>57</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E140" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F140" s="30"/>
       <c r="G140" s="30"/>
@@ -10439,10 +10458,10 @@
         <v>57</v>
       </c>
       <c r="D141" s="27" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E141" s="28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F141" s="30"/>
       <c r="G141" s="30"/>
@@ -10476,10 +10495,10 @@
         <v>57</v>
       </c>
       <c r="D142" s="27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E142" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F142" s="30"/>
       <c r="G142" s="30"/>
@@ -10513,10 +10532,10 @@
         <v>57</v>
       </c>
       <c r="D143" s="27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E143" s="28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F143" s="30"/>
       <c r="G143" s="30"/>
@@ -10550,10 +10569,10 @@
         <v>57</v>
       </c>
       <c r="D144" s="27" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E144" s="28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F144" s="30"/>
       <c r="G144" s="30"/>
@@ -10587,10 +10606,10 @@
         <v>57</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E145" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F145" s="30"/>
       <c r="G145" s="30"/>
@@ -10624,10 +10643,10 @@
         <v>48</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E146" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F146" s="30"/>
       <c r="G146" s="30"/>
@@ -10661,10 +10680,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E147" s="28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F147" s="30"/>
       <c r="G147" s="30"/>
@@ -10695,13 +10714,13 @@
         <v>47</v>
       </c>
       <c r="C148" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E148" s="28" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F148" s="30"/>
       <c r="G148" s="30"/>
@@ -10732,13 +10751,13 @@
         <v>47</v>
       </c>
       <c r="C149" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D149" s="27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E149" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F149" s="30"/>
       <c r="G149" s="30"/>
@@ -10769,13 +10788,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E150" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F150" s="30"/>
       <c r="G150" s="30"/>
@@ -10806,10 +10825,10 @@
         <v>47</v>
       </c>
       <c r="C151" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D151" s="27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E151" s="35" t="s">
         <v>53</v>
@@ -10843,10 +10862,10 @@
         <v>47</v>
       </c>
       <c r="C152" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E152" s="35" t="s">
         <v>79</v>
@@ -10880,13 +10899,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F153" s="30"/>
       <c r="G153" s="30"/>
@@ -10917,13 +10936,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D154" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E154" s="28" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F154" s="30"/>
       <c r="G154" s="30"/>
@@ -10954,13 +10973,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D155" s="27" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E155" s="28" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F155" s="30"/>
       <c r="G155" s="30"/>
@@ -10991,13 +11010,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D156" s="27" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E156" s="28" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F156" s="30"/>
       <c r="G156" s="30"/>
@@ -11028,13 +11047,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D157" s="27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E157" s="28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F157" s="30"/>
       <c r="G157" s="30"/>
@@ -11065,13 +11084,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D158" s="27" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E158" s="28" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F158" s="30"/>
       <c r="G158" s="30"/>
@@ -11102,13 +11121,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D159" s="27" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E159" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F159" s="30"/>
       <c r="G159" s="30"/>
@@ -11139,13 +11158,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D160" s="27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E160" s="28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F160" s="30"/>
       <c r="G160" s="30"/>
@@ -11176,13 +11195,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D161" s="27" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E161" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F161" s="30"/>
       <c r="G161" s="30"/>
@@ -11213,13 +11232,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D162" s="27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E162" s="28" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F162" s="30"/>
       <c r="G162" s="30"/>
@@ -11250,13 +11269,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D163" s="27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E163" s="28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F163" s="30"/>
       <c r="G163" s="30"/>
@@ -11290,10 +11309,10 @@
         <v>57</v>
       </c>
       <c r="D164" s="27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E164" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F164" s="30"/>
       <c r="G164" s="30"/>
@@ -11327,10 +11346,10 @@
         <v>57</v>
       </c>
       <c r="D165" s="27" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E165" s="28" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F165" s="30"/>
       <c r="G165" s="30"/>
@@ -11364,22 +11383,22 @@
         <v>68</v>
       </c>
       <c r="D166" s="27" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E166" s="28" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F166" s="30" t="n">
-        <v>45965</v>
+        <v>45971</v>
       </c>
       <c r="G166" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I166" s="38" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J166" s="31" t="s">
         <v>64</v>
@@ -11411,10 +11430,10 @@
         <v>68</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E167" s="28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F167" s="30"/>
       <c r="G167" s="30"/>
@@ -11424,7 +11443,7 @@
         <v>66</v>
       </c>
       <c r="K167" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L167" s="31"/>
       <c r="M167" s="31"/>
@@ -11452,10 +11471,10 @@
         <v>55</v>
       </c>
       <c r="D168" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E168" s="28" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F168" s="30"/>
       <c r="G168" s="30"/>
@@ -11489,10 +11508,10 @@
         <v>55</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E169" s="28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F169" s="30"/>
       <c r="G169" s="30"/>
@@ -11526,10 +11545,10 @@
         <v>48</v>
       </c>
       <c r="D170" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E170" s="28" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F170" s="30"/>
       <c r="G170" s="30"/>
@@ -11563,10 +11582,10 @@
         <v>76</v>
       </c>
       <c r="D171" s="27" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E171" s="28" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F171" s="30"/>
       <c r="G171" s="30"/>
@@ -11600,10 +11619,10 @@
         <v>76</v>
       </c>
       <c r="D172" s="27" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E172" s="28" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F172" s="30"/>
       <c r="G172" s="30"/>
@@ -11637,10 +11656,10 @@
         <v>74</v>
       </c>
       <c r="D173" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E173" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F173" s="30"/>
       <c r="G173" s="30"/>
@@ -11674,10 +11693,10 @@
         <v>74</v>
       </c>
       <c r="D174" s="27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E174" s="28" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F174" s="30"/>
       <c r="G174" s="30"/>
@@ -11711,10 +11730,10 @@
         <v>72</v>
       </c>
       <c r="D175" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E175" s="28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F175" s="30"/>
       <c r="G175" s="30"/>
@@ -11748,10 +11767,10 @@
         <v>72</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E176" s="28" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F176" s="30"/>
       <c r="G176" s="30"/>
@@ -11782,13 +11801,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D177" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E177" s="28" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F177" s="30"/>
       <c r="G177" s="30"/>
@@ -11822,10 +11841,10 @@
         <v>68</v>
       </c>
       <c r="D178" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E178" s="28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F178" s="27"/>
       <c r="G178" s="27"/>
@@ -11835,7 +11854,7 @@
         <v>66</v>
       </c>
       <c r="K178" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L178" s="27"/>
       <c r="M178" s="31"/>
@@ -11863,22 +11882,22 @@
         <v>59</v>
       </c>
       <c r="D179" s="27" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E179" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F179" s="30" t="n">
         <v>45965</v>
       </c>
       <c r="G179" s="27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H179" s="27" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I179" s="27" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J179" s="31" t="s">
         <v>64</v>
@@ -11892,7 +11911,7 @@
         <v>64</v>
       </c>
       <c r="O179" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P179" s="31" t="s">
         <v>64</v>
@@ -11904,7 +11923,7 @@
         <v>64</v>
       </c>
       <c r="S179" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T179" s="31"/>
       <c r="U179" s="27"/>
@@ -11924,10 +11943,10 @@
         <v>76</v>
       </c>
       <c r="D180" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E180" s="28" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F180" s="27"/>
       <c r="G180" s="27"/>
@@ -11961,10 +11980,10 @@
         <v>72</v>
       </c>
       <c r="D181" s="27" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E181" s="28" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F181" s="27"/>
       <c r="G181" s="27"/>
@@ -11998,10 +12017,10 @@
         <v>74</v>
       </c>
       <c r="D182" s="27" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E182" s="28" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F182" s="27"/>
       <c r="G182" s="27"/>
@@ -12035,10 +12054,10 @@
         <v>48</v>
       </c>
       <c r="D183" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E183" s="28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F183" s="27"/>
       <c r="G183" s="27"/>
@@ -12072,10 +12091,10 @@
         <v>55</v>
       </c>
       <c r="D184" s="27" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E184" s="28" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F184" s="27"/>
       <c r="G184" s="27"/>
@@ -12109,10 +12128,10 @@
         <v>68</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E185" s="28" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F185" s="27"/>
       <c r="G185" s="27"/>
@@ -12122,7 +12141,7 @@
         <v>66</v>
       </c>
       <c r="K185" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L185" s="27"/>
       <c r="M185" s="31"/>
@@ -12150,10 +12169,10 @@
         <v>57</v>
       </c>
       <c r="D186" s="27" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E186" s="28" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F186" s="27"/>
       <c r="G186" s="27"/>
@@ -12184,13 +12203,13 @@
         <v>47</v>
       </c>
       <c r="C187" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D187" s="27" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E187" s="28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F187" s="27"/>
       <c r="G187" s="27"/>
@@ -12224,22 +12243,22 @@
         <v>59</v>
       </c>
       <c r="D188" s="27" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E188" s="28" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F188" s="30" t="n">
-        <v>45965</v>
+        <v>45971</v>
       </c>
       <c r="G188" s="37" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H188" s="37" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I188" s="38" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J188" s="31" t="s">
         <v>64</v>
@@ -12271,10 +12290,10 @@
         <v>59</v>
       </c>
       <c r="D189" s="27" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E189" s="28" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F189" s="30"/>
       <c r="G189" s="30"/>
@@ -12284,7 +12303,7 @@
         <v>66</v>
       </c>
       <c r="K189" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L189" s="31"/>
       <c r="M189" s="31"/>
@@ -12312,10 +12331,10 @@
         <v>48</v>
       </c>
       <c r="D190" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E190" s="28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F190" s="30"/>
       <c r="G190" s="30"/>
@@ -12349,10 +12368,10 @@
         <v>59</v>
       </c>
       <c r="D191" s="27" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E191" s="28" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F191" s="30"/>
       <c r="G191" s="30"/>
@@ -12362,7 +12381,7 @@
         <v>66</v>
       </c>
       <c r="K191" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L191" s="31"/>
       <c r="M191" s="31"/>
@@ -12390,10 +12409,10 @@
         <v>68</v>
       </c>
       <c r="D192" s="27" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E192" s="28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F192" s="30"/>
       <c r="G192" s="30"/>
@@ -12403,7 +12422,7 @@
         <v>66</v>
       </c>
       <c r="K192" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L192" s="31"/>
       <c r="M192" s="31"/>
@@ -16468,6 +16487,9 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId2" display="Precondizioni:&#10;Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.&#10;&#10;Descrizione di Business del caso di test: &#10;Viene richiamato il servizio di validazione &quot;https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation&quot; con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.&#10; &#10;Al fine di rendere non valido il token è necessario valorizzare il campo &quot;action_id&quot; con la stringa &quot;TEST&quot; (valore non ammesso)."/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -16475,8 +16497,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -16497,43 +16519,43 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>461</v>
+      <c r="A1" s="40" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>179</v>
+      <c r="A2" s="40" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>462</v>
+      <c r="A3" s="40" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>463</v>
+      <c r="A4" s="40" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
-        <v>464</v>
+      <c r="A5" s="40" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
-        <v>465</v>
+      <c r="A6" s="40" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
-        <v>141</v>
+      <c r="A7" s="40" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
-        <v>466</v>
+      <c r="A8" s="40" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17564,3133 +17586,3133 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
-        <v>467</v>
+      <c r="A1" s="41" t="s">
+        <v>468</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="F1" s="41" t="s">
         <v>470</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="42" t="s">
         <v>471</v>
       </c>
+      <c r="G1" s="43" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>474</v>
       </c>
+      <c r="D2" s="45" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="D3" s="44" t="s">
+      <c r="B3" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>476</v>
       </c>
+      <c r="D3" s="45" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>477</v>
-      </c>
-      <c r="D4" s="45" t="s">
+      <c r="B4" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>478</v>
       </c>
+      <c r="D4" s="46" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="D5" s="44" t="s">
+      <c r="B5" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>480</v>
       </c>
+      <c r="D5" s="45" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>481</v>
-      </c>
-      <c r="D6" s="45" t="s">
+      <c r="B6" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>482</v>
       </c>
+      <c r="D6" s="46" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="D7" s="45" t="s">
+      <c r="B7" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>484</v>
       </c>
+      <c r="D7" s="46" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>485</v>
-      </c>
-      <c r="D8" s="45" t="s">
+      <c r="B8" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>486</v>
       </c>
+      <c r="D8" s="46" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>487</v>
-      </c>
-      <c r="D9" s="45" t="s">
+      <c r="B9" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>488</v>
       </c>
+      <c r="D9" s="46" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43" t="s">
-        <v>489</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="C10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="B10" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>491</v>
       </c>
+      <c r="D10" s="45" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="s">
-        <v>363</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>492</v>
-      </c>
-      <c r="D11" s="45" t="s">
+      <c r="A11" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" s="45" t="s">
         <v>493</v>
       </c>
+      <c r="D11" s="46" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="A12" s="40"/>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="40"/>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39"/>
+      <c r="A16" s="40"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39"/>
+      <c r="A17" s="40"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39"/>
+      <c r="A18" s="40"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39"/>
+      <c r="A19" s="40"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39"/>
+      <c r="A20" s="40"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39"/>
+      <c r="A21" s="40"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39"/>
+      <c r="A22" s="40"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39"/>
+      <c r="A23" s="40"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39"/>
+      <c r="A24" s="40"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="39"/>
+      <c r="A25" s="40"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="39"/>
+      <c r="A27" s="40"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="39"/>
+      <c r="A28" s="40"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="39"/>
+      <c r="A29" s="40"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="39"/>
+      <c r="A31" s="40"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39"/>
+      <c r="A32" s="40"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="39"/>
+      <c r="A33" s="40"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="39"/>
+      <c r="A34" s="40"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39"/>
+      <c r="A35" s="40"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="39"/>
+      <c r="A36" s="40"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="39"/>
+      <c r="A37" s="40"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="39"/>
+      <c r="A38" s="40"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="39"/>
+      <c r="A39" s="40"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="39"/>
+      <c r="A40" s="40"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="39"/>
+      <c r="A41" s="40"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="39"/>
+      <c r="A42" s="40"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="39"/>
+      <c r="A43" s="40"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="39"/>
+      <c r="A44" s="40"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="39"/>
+      <c r="A45" s="40"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="39"/>
+      <c r="A46" s="40"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="39"/>
+      <c r="A47" s="40"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="39"/>
+      <c r="A48" s="40"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="39"/>
+      <c r="A49" s="40"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="39"/>
+      <c r="A50" s="40"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="39"/>
+      <c r="A51" s="40"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="39"/>
+      <c r="A52" s="40"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="39"/>
+      <c r="A53" s="40"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="39"/>
+      <c r="A54" s="40"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="39"/>
+      <c r="A55" s="40"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="39"/>
+      <c r="A56" s="40"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="39"/>
+      <c r="A57" s="40"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="39"/>
+      <c r="A58" s="40"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="39"/>
+      <c r="A59" s="40"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="39"/>
+      <c r="A60" s="40"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="39"/>
+      <c r="A61" s="40"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="39"/>
+      <c r="A62" s="40"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="39"/>
+      <c r="A63" s="40"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="39"/>
+      <c r="A64" s="40"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="39"/>
+      <c r="A65" s="40"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="39"/>
+      <c r="A66" s="40"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="39"/>
+      <c r="A67" s="40"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="39"/>
+      <c r="A68" s="40"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="39"/>
+      <c r="A69" s="40"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="39"/>
+      <c r="A70" s="40"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="39"/>
+      <c r="A71" s="40"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="39"/>
+      <c r="A72" s="40"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="39"/>
+      <c r="A73" s="40"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="39"/>
+      <c r="A74" s="40"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="39"/>
+      <c r="A75" s="40"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="39"/>
+      <c r="A76" s="40"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="39"/>
+      <c r="A77" s="40"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="39"/>
+      <c r="A78" s="40"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="39"/>
+      <c r="A79" s="40"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="39"/>
+      <c r="A80" s="40"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="39"/>
+      <c r="A81" s="40"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="39"/>
+      <c r="A82" s="40"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="39"/>
+      <c r="A83" s="40"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="39"/>
+      <c r="A84" s="40"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="39"/>
+      <c r="A85" s="40"/>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="39"/>
+      <c r="A86" s="40"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="39"/>
+      <c r="A87" s="40"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="39"/>
+      <c r="A88" s="40"/>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="39"/>
+      <c r="A89" s="40"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="39"/>
+      <c r="A90" s="40"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="39"/>
+      <c r="A91" s="40"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="39"/>
+      <c r="A92" s="40"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="39"/>
+      <c r="A93" s="40"/>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="39"/>
+      <c r="A94" s="40"/>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="39"/>
+      <c r="A95" s="40"/>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="39"/>
+      <c r="A96" s="40"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="39"/>
+      <c r="A97" s="40"/>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="39"/>
+      <c r="A98" s="40"/>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="39"/>
+      <c r="A99" s="40"/>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="39"/>
+      <c r="A100" s="40"/>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="39"/>
+      <c r="A101" s="40"/>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="39"/>
+      <c r="A102" s="40"/>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="39"/>
+      <c r="A103" s="40"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="39"/>
+      <c r="A104" s="40"/>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="39"/>
+      <c r="A105" s="40"/>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="39"/>
+      <c r="A106" s="40"/>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="39"/>
+      <c r="A107" s="40"/>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="39"/>
+      <c r="A108" s="40"/>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="39"/>
+      <c r="A109" s="40"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="39"/>
+      <c r="A110" s="40"/>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="39"/>
+      <c r="A111" s="40"/>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="39"/>
+      <c r="A112" s="40"/>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="39"/>
+      <c r="A113" s="40"/>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="39"/>
+      <c r="A114" s="40"/>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="39"/>
+      <c r="A115" s="40"/>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="39"/>
+      <c r="A116" s="40"/>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="39"/>
+      <c r="A117" s="40"/>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="39"/>
+      <c r="A118" s="40"/>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="39"/>
+      <c r="A119" s="40"/>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="39"/>
+      <c r="A120" s="40"/>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="39"/>
+      <c r="A121" s="40"/>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="39"/>
+      <c r="A122" s="40"/>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="39"/>
+      <c r="A123" s="40"/>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="39"/>
+      <c r="A124" s="40"/>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="39"/>
+      <c r="A125" s="40"/>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="39"/>
+      <c r="A126" s="40"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="39"/>
+      <c r="A127" s="40"/>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="39"/>
+      <c r="A128" s="40"/>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="39"/>
+      <c r="A129" s="40"/>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="39"/>
+      <c r="A130" s="40"/>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="39"/>
+      <c r="A131" s="40"/>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="39"/>
+      <c r="A132" s="40"/>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="39"/>
+      <c r="A133" s="40"/>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="39"/>
+      <c r="A134" s="40"/>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="39"/>
+      <c r="A135" s="40"/>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="39"/>
+      <c r="A136" s="40"/>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="39"/>
+      <c r="A137" s="40"/>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="39"/>
+      <c r="A138" s="40"/>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="39"/>
+      <c r="A139" s="40"/>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="39"/>
+      <c r="A140" s="40"/>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="39"/>
+      <c r="A141" s="40"/>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="39"/>
+      <c r="A142" s="40"/>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="39"/>
+      <c r="A143" s="40"/>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="39"/>
+      <c r="A144" s="40"/>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="39"/>
+      <c r="A145" s="40"/>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="39"/>
+      <c r="A146" s="40"/>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="39"/>
+      <c r="A147" s="40"/>
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="39"/>
+      <c r="A148" s="40"/>
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="39"/>
+      <c r="A149" s="40"/>
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="39"/>
+      <c r="A150" s="40"/>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="39"/>
+      <c r="A151" s="40"/>
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="39"/>
+      <c r="A152" s="40"/>
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="39"/>
+      <c r="A153" s="40"/>
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="39"/>
+      <c r="A154" s="40"/>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="39"/>
+      <c r="A155" s="40"/>
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="39"/>
+      <c r="A156" s="40"/>
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="39"/>
+      <c r="A157" s="40"/>
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="39"/>
+      <c r="A158" s="40"/>
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="39"/>
+      <c r="A159" s="40"/>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="39"/>
+      <c r="A160" s="40"/>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="39"/>
+      <c r="A161" s="40"/>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="39"/>
+      <c r="A162" s="40"/>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="39"/>
+      <c r="A163" s="40"/>
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="39"/>
+      <c r="A164" s="40"/>
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="39"/>
+      <c r="A165" s="40"/>
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="39"/>
+      <c r="A166" s="40"/>
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="39"/>
+      <c r="A167" s="40"/>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="39"/>
+      <c r="A168" s="40"/>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="39"/>
+      <c r="A169" s="40"/>
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="39"/>
+      <c r="A170" s="40"/>
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="39"/>
+      <c r="A171" s="40"/>
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="39"/>
+      <c r="A172" s="40"/>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="39"/>
+      <c r="A173" s="40"/>
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="39"/>
+      <c r="A174" s="40"/>
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="39"/>
+      <c r="A175" s="40"/>
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="39"/>
+      <c r="A176" s="40"/>
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="39"/>
+      <c r="A177" s="40"/>
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="39"/>
+      <c r="A178" s="40"/>
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="39"/>
+      <c r="A179" s="40"/>
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="39"/>
+      <c r="A180" s="40"/>
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="39"/>
+      <c r="A181" s="40"/>
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="39"/>
+      <c r="A182" s="40"/>
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="39"/>
+      <c r="A183" s="40"/>
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="39"/>
+      <c r="A184" s="40"/>
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="39"/>
+      <c r="A185" s="40"/>
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="39"/>
+      <c r="A186" s="40"/>
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="39"/>
+      <c r="A187" s="40"/>
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="39"/>
+      <c r="A188" s="40"/>
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="39"/>
+      <c r="A189" s="40"/>
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="39"/>
+      <c r="A190" s="40"/>
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="39"/>
+      <c r="A191" s="40"/>
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="39"/>
+      <c r="A192" s="40"/>
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="39"/>
+      <c r="A193" s="40"/>
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="39"/>
+      <c r="A194" s="40"/>
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="39"/>
+      <c r="A195" s="40"/>
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="39"/>
+      <c r="A196" s="40"/>
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="39"/>
+      <c r="A197" s="40"/>
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="39"/>
+      <c r="A198" s="40"/>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="39"/>
+      <c r="A199" s="40"/>
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="39"/>
+      <c r="A200" s="40"/>
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="39"/>
+      <c r="A201" s="40"/>
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="39"/>
+      <c r="A202" s="40"/>
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="39"/>
+      <c r="A203" s="40"/>
     </row>
     <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="39"/>
+      <c r="A204" s="40"/>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="39"/>
+      <c r="A205" s="40"/>
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="39"/>
+      <c r="A206" s="40"/>
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="39"/>
+      <c r="A207" s="40"/>
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="39"/>
+      <c r="A208" s="40"/>
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="39"/>
+      <c r="A209" s="40"/>
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="39"/>
+      <c r="A210" s="40"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="39"/>
+      <c r="A211" s="40"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="39"/>
+      <c r="A212" s="40"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="39"/>
+      <c r="A213" s="40"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="39"/>
+      <c r="A214" s="40"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="39"/>
+      <c r="A215" s="40"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="39"/>
+      <c r="A216" s="40"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="39"/>
+      <c r="A217" s="40"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="39"/>
+      <c r="A218" s="40"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="39"/>
+      <c r="A219" s="40"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="39"/>
+      <c r="A220" s="40"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="39"/>
+      <c r="A221" s="40"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="39"/>
+      <c r="A222" s="40"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="39"/>
+      <c r="A223" s="40"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="39"/>
+      <c r="A224" s="40"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="39"/>
+      <c r="A225" s="40"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="39"/>
+      <c r="A226" s="40"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="39"/>
+      <c r="A227" s="40"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="39"/>
+      <c r="A228" s="40"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="39"/>
+      <c r="A229" s="40"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="39"/>
+      <c r="A230" s="40"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="39"/>
+      <c r="A231" s="40"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="39"/>
+      <c r="A232" s="40"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="39"/>
+      <c r="A233" s="40"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="39"/>
+      <c r="A234" s="40"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="39"/>
+      <c r="A235" s="40"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="39"/>
+      <c r="A236" s="40"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="39"/>
+      <c r="A237" s="40"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="39"/>
+      <c r="A238" s="40"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="39"/>
+      <c r="A239" s="40"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="39"/>
+      <c r="A240" s="40"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="39"/>
+      <c r="A241" s="40"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="39"/>
+      <c r="A242" s="40"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="39"/>
+      <c r="A243" s="40"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="39"/>
+      <c r="A244" s="40"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="39"/>
+      <c r="A245" s="40"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="39"/>
+      <c r="A246" s="40"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="39"/>
+      <c r="A247" s="40"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="39"/>
+      <c r="A248" s="40"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="39"/>
+      <c r="A249" s="40"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="39"/>
+      <c r="A250" s="40"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="39"/>
+      <c r="A251" s="40"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="39"/>
+      <c r="A252" s="40"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="39"/>
+      <c r="A253" s="40"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="39"/>
+      <c r="A254" s="40"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="39"/>
+      <c r="A255" s="40"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="39"/>
+      <c r="A256" s="40"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="39"/>
+      <c r="A257" s="40"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="39"/>
+      <c r="A258" s="40"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="39"/>
+      <c r="A259" s="40"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="39"/>
+      <c r="A260" s="40"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="39"/>
+      <c r="A261" s="40"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="39"/>
+      <c r="A262" s="40"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="39"/>
+      <c r="A263" s="40"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="39"/>
+      <c r="A264" s="40"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="39"/>
+      <c r="A265" s="40"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="39"/>
+      <c r="A266" s="40"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A267" s="39"/>
+      <c r="A267" s="40"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A268" s="39"/>
+      <c r="A268" s="40"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="39"/>
+      <c r="A269" s="40"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A270" s="39"/>
+      <c r="A270" s="40"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="39"/>
+      <c r="A271" s="40"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="39"/>
+      <c r="A272" s="40"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="39"/>
+      <c r="A273" s="40"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="39"/>
+      <c r="A274" s="40"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="39"/>
+      <c r="A275" s="40"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="39"/>
+      <c r="A276" s="40"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A277" s="39"/>
+      <c r="A277" s="40"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A278" s="39"/>
+      <c r="A278" s="40"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A279" s="39"/>
+      <c r="A279" s="40"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A280" s="39"/>
+      <c r="A280" s="40"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A281" s="39"/>
+      <c r="A281" s="40"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A282" s="39"/>
+      <c r="A282" s="40"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A283" s="39"/>
+      <c r="A283" s="40"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A284" s="39"/>
+      <c r="A284" s="40"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A285" s="39"/>
+      <c r="A285" s="40"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A286" s="39"/>
+      <c r="A286" s="40"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A287" s="39"/>
+      <c r="A287" s="40"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A288" s="39"/>
+      <c r="A288" s="40"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A289" s="39"/>
+      <c r="A289" s="40"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="39"/>
+      <c r="A290" s="40"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A291" s="39"/>
+      <c r="A291" s="40"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A292" s="39"/>
+      <c r="A292" s="40"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A293" s="39"/>
+      <c r="A293" s="40"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A294" s="39"/>
+      <c r="A294" s="40"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="39"/>
+      <c r="A295" s="40"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A296" s="39"/>
+      <c r="A296" s="40"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A297" s="39"/>
+      <c r="A297" s="40"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A298" s="39"/>
+      <c r="A298" s="40"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="39"/>
+      <c r="A299" s="40"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A300" s="39"/>
+      <c r="A300" s="40"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A301" s="39"/>
+      <c r="A301" s="40"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A302" s="39"/>
+      <c r="A302" s="40"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A303" s="39"/>
+      <c r="A303" s="40"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A304" s="39"/>
+      <c r="A304" s="40"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A305" s="39"/>
+      <c r="A305" s="40"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A306" s="39"/>
+      <c r="A306" s="40"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A307" s="39"/>
+      <c r="A307" s="40"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A308" s="39"/>
+      <c r="A308" s="40"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A309" s="39"/>
+      <c r="A309" s="40"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="39"/>
+      <c r="A310" s="40"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="39"/>
+      <c r="A311" s="40"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A312" s="39"/>
+      <c r="A312" s="40"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="39"/>
+      <c r="A313" s="40"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A314" s="39"/>
+      <c r="A314" s="40"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A315" s="39"/>
+      <c r="A315" s="40"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A316" s="39"/>
+      <c r="A316" s="40"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A317" s="39"/>
+      <c r="A317" s="40"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="39"/>
+      <c r="A318" s="40"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A319" s="39"/>
+      <c r="A319" s="40"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A320" s="39"/>
+      <c r="A320" s="40"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A321" s="39"/>
+      <c r="A321" s="40"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="39"/>
+      <c r="A322" s="40"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A323" s="39"/>
+      <c r="A323" s="40"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A324" s="39"/>
+      <c r="A324" s="40"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A325" s="39"/>
+      <c r="A325" s="40"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A326" s="39"/>
+      <c r="A326" s="40"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A327" s="39"/>
+      <c r="A327" s="40"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="39"/>
+      <c r="A328" s="40"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A329" s="39"/>
+      <c r="A329" s="40"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A330" s="39"/>
+      <c r="A330" s="40"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A331" s="39"/>
+      <c r="A331" s="40"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A332" s="39"/>
+      <c r="A332" s="40"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A333" s="39"/>
+      <c r="A333" s="40"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A334" s="39"/>
+      <c r="A334" s="40"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A335" s="39"/>
+      <c r="A335" s="40"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A336" s="39"/>
+      <c r="A336" s="40"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A337" s="39"/>
+      <c r="A337" s="40"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A338" s="39"/>
+      <c r="A338" s="40"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A339" s="39"/>
+      <c r="A339" s="40"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A340" s="39"/>
+      <c r="A340" s="40"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A341" s="39"/>
+      <c r="A341" s="40"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A342" s="39"/>
+      <c r="A342" s="40"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A343" s="39"/>
+      <c r="A343" s="40"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A344" s="39"/>
+      <c r="A344" s="40"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A345" s="39"/>
+      <c r="A345" s="40"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A346" s="39"/>
+      <c r="A346" s="40"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A347" s="39"/>
+      <c r="A347" s="40"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A348" s="39"/>
+      <c r="A348" s="40"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A349" s="39"/>
+      <c r="A349" s="40"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A350" s="39"/>
+      <c r="A350" s="40"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A351" s="39"/>
+      <c r="A351" s="40"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="39"/>
+      <c r="A352" s="40"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A353" s="39"/>
+      <c r="A353" s="40"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A354" s="39"/>
+      <c r="A354" s="40"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A355" s="39"/>
+      <c r="A355" s="40"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A356" s="39"/>
+      <c r="A356" s="40"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A357" s="39"/>
+      <c r="A357" s="40"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A358" s="39"/>
+      <c r="A358" s="40"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A359" s="39"/>
+      <c r="A359" s="40"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A360" s="39"/>
+      <c r="A360" s="40"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A361" s="39"/>
+      <c r="A361" s="40"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A362" s="39"/>
+      <c r="A362" s="40"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A363" s="39"/>
+      <c r="A363" s="40"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A364" s="39"/>
+      <c r="A364" s="40"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A365" s="39"/>
+      <c r="A365" s="40"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A366" s="39"/>
+      <c r="A366" s="40"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A367" s="39"/>
+      <c r="A367" s="40"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A368" s="39"/>
+      <c r="A368" s="40"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A369" s="39"/>
+      <c r="A369" s="40"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A370" s="39"/>
+      <c r="A370" s="40"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A371" s="39"/>
+      <c r="A371" s="40"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A372" s="39"/>
+      <c r="A372" s="40"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A373" s="39"/>
+      <c r="A373" s="40"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A374" s="39"/>
+      <c r="A374" s="40"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A375" s="39"/>
+      <c r="A375" s="40"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A376" s="39"/>
+      <c r="A376" s="40"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A377" s="39"/>
+      <c r="A377" s="40"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A378" s="39"/>
+      <c r="A378" s="40"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A379" s="39"/>
+      <c r="A379" s="40"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A380" s="39"/>
+      <c r="A380" s="40"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A381" s="39"/>
+      <c r="A381" s="40"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A382" s="39"/>
+      <c r="A382" s="40"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A383" s="39"/>
+      <c r="A383" s="40"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A384" s="39"/>
+      <c r="A384" s="40"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A385" s="39"/>
+      <c r="A385" s="40"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A386" s="39"/>
+      <c r="A386" s="40"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A387" s="39"/>
+      <c r="A387" s="40"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A388" s="39"/>
+      <c r="A388" s="40"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="39"/>
+      <c r="A389" s="40"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A390" s="39"/>
+      <c r="A390" s="40"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A391" s="39"/>
+      <c r="A391" s="40"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A392" s="39"/>
+      <c r="A392" s="40"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A393" s="39"/>
+      <c r="A393" s="40"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A394" s="39"/>
+      <c r="A394" s="40"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A395" s="39"/>
+      <c r="A395" s="40"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A396" s="39"/>
+      <c r="A396" s="40"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A397" s="39"/>
+      <c r="A397" s="40"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A398" s="39"/>
+      <c r="A398" s="40"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A399" s="39"/>
+      <c r="A399" s="40"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A400" s="39"/>
+      <c r="A400" s="40"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A401" s="39"/>
+      <c r="A401" s="40"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A402" s="39"/>
+      <c r="A402" s="40"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A403" s="39"/>
+      <c r="A403" s="40"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A404" s="39"/>
+      <c r="A404" s="40"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A405" s="39"/>
+      <c r="A405" s="40"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A406" s="39"/>
+      <c r="A406" s="40"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A407" s="39"/>
+      <c r="A407" s="40"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A408" s="39"/>
+      <c r="A408" s="40"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A409" s="39"/>
+      <c r="A409" s="40"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A410" s="39"/>
+      <c r="A410" s="40"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A411" s="39"/>
+      <c r="A411" s="40"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A412" s="39"/>
+      <c r="A412" s="40"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A413" s="39"/>
+      <c r="A413" s="40"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A414" s="39"/>
+      <c r="A414" s="40"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A415" s="39"/>
+      <c r="A415" s="40"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A416" s="39"/>
+      <c r="A416" s="40"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A417" s="39"/>
+      <c r="A417" s="40"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A418" s="39"/>
+      <c r="A418" s="40"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A419" s="39"/>
+      <c r="A419" s="40"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A420" s="39"/>
+      <c r="A420" s="40"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A421" s="39"/>
+      <c r="A421" s="40"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A422" s="39"/>
+      <c r="A422" s="40"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A423" s="39"/>
+      <c r="A423" s="40"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A424" s="39"/>
+      <c r="A424" s="40"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A425" s="39"/>
+      <c r="A425" s="40"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A426" s="39"/>
+      <c r="A426" s="40"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A427" s="39"/>
+      <c r="A427" s="40"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A428" s="39"/>
+      <c r="A428" s="40"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A429" s="39"/>
+      <c r="A429" s="40"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A430" s="39"/>
+      <c r="A430" s="40"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A431" s="39"/>
+      <c r="A431" s="40"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A432" s="39"/>
+      <c r="A432" s="40"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A433" s="39"/>
+      <c r="A433" s="40"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A434" s="39"/>
+      <c r="A434" s="40"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A435" s="39"/>
+      <c r="A435" s="40"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A436" s="39"/>
+      <c r="A436" s="40"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A437" s="39"/>
+      <c r="A437" s="40"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A438" s="39"/>
+      <c r="A438" s="40"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A439" s="39"/>
+      <c r="A439" s="40"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A440" s="39"/>
+      <c r="A440" s="40"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A441" s="39"/>
+      <c r="A441" s="40"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A442" s="39"/>
+      <c r="A442" s="40"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A443" s="39"/>
+      <c r="A443" s="40"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A444" s="39"/>
+      <c r="A444" s="40"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A445" s="39"/>
+      <c r="A445" s="40"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A446" s="39"/>
+      <c r="A446" s="40"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A447" s="39"/>
+      <c r="A447" s="40"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A448" s="39"/>
+      <c r="A448" s="40"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A449" s="39"/>
+      <c r="A449" s="40"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A450" s="39"/>
+      <c r="A450" s="40"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A451" s="39"/>
+      <c r="A451" s="40"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A452" s="39"/>
+      <c r="A452" s="40"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A453" s="39"/>
+      <c r="A453" s="40"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A454" s="39"/>
+      <c r="A454" s="40"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A455" s="39"/>
+      <c r="A455" s="40"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A456" s="39"/>
+      <c r="A456" s="40"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A457" s="39"/>
+      <c r="A457" s="40"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A458" s="39"/>
+      <c r="A458" s="40"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A459" s="39"/>
+      <c r="A459" s="40"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A460" s="39"/>
+      <c r="A460" s="40"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A461" s="39"/>
+      <c r="A461" s="40"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A462" s="39"/>
+      <c r="A462" s="40"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A463" s="39"/>
+      <c r="A463" s="40"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A464" s="39"/>
+      <c r="A464" s="40"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A465" s="39"/>
+      <c r="A465" s="40"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A466" s="39"/>
+      <c r="A466" s="40"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A467" s="39"/>
+      <c r="A467" s="40"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A468" s="39"/>
+      <c r="A468" s="40"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A469" s="39"/>
+      <c r="A469" s="40"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A470" s="39"/>
+      <c r="A470" s="40"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A471" s="39"/>
+      <c r="A471" s="40"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A472" s="39"/>
+      <c r="A472" s="40"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A473" s="39"/>
+      <c r="A473" s="40"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A474" s="39"/>
+      <c r="A474" s="40"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A475" s="39"/>
+      <c r="A475" s="40"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A476" s="39"/>
+      <c r="A476" s="40"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A477" s="39"/>
+      <c r="A477" s="40"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A478" s="39"/>
+      <c r="A478" s="40"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A479" s="39"/>
+      <c r="A479" s="40"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A480" s="39"/>
+      <c r="A480" s="40"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A481" s="39"/>
+      <c r="A481" s="40"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A482" s="39"/>
+      <c r="A482" s="40"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A483" s="39"/>
+      <c r="A483" s="40"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A484" s="39"/>
+      <c r="A484" s="40"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A485" s="39"/>
+      <c r="A485" s="40"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A486" s="39"/>
+      <c r="A486" s="40"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A487" s="39"/>
+      <c r="A487" s="40"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A488" s="39"/>
+      <c r="A488" s="40"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A489" s="39"/>
+      <c r="A489" s="40"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A490" s="39"/>
+      <c r="A490" s="40"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A491" s="39"/>
+      <c r="A491" s="40"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A492" s="39"/>
+      <c r="A492" s="40"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A493" s="39"/>
+      <c r="A493" s="40"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A494" s="39"/>
+      <c r="A494" s="40"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A495" s="39"/>
+      <c r="A495" s="40"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A496" s="39"/>
+      <c r="A496" s="40"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A497" s="39"/>
+      <c r="A497" s="40"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A498" s="39"/>
+      <c r="A498" s="40"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A499" s="39"/>
+      <c r="A499" s="40"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A500" s="39"/>
+      <c r="A500" s="40"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A501" s="39"/>
+      <c r="A501" s="40"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A502" s="39"/>
+      <c r="A502" s="40"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A503" s="39"/>
+      <c r="A503" s="40"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A504" s="39"/>
+      <c r="A504" s="40"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A505" s="39"/>
+      <c r="A505" s="40"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A506" s="39"/>
+      <c r="A506" s="40"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A507" s="39"/>
+      <c r="A507" s="40"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A508" s="39"/>
+      <c r="A508" s="40"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A509" s="39"/>
+      <c r="A509" s="40"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A510" s="39"/>
+      <c r="A510" s="40"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A511" s="39"/>
+      <c r="A511" s="40"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A512" s="39"/>
+      <c r="A512" s="40"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A513" s="39"/>
+      <c r="A513" s="40"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A514" s="39"/>
+      <c r="A514" s="40"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A515" s="39"/>
+      <c r="A515" s="40"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A516" s="39"/>
+      <c r="A516" s="40"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A517" s="39"/>
+      <c r="A517" s="40"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A518" s="39"/>
+      <c r="A518" s="40"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A519" s="39"/>
+      <c r="A519" s="40"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A520" s="39"/>
+      <c r="A520" s="40"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A521" s="39"/>
+      <c r="A521" s="40"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A522" s="39"/>
+      <c r="A522" s="40"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A523" s="39"/>
+      <c r="A523" s="40"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A524" s="39"/>
+      <c r="A524" s="40"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A525" s="39"/>
+      <c r="A525" s="40"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A526" s="39"/>
+      <c r="A526" s="40"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A527" s="39"/>
+      <c r="A527" s="40"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A528" s="39"/>
+      <c r="A528" s="40"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A529" s="39"/>
+      <c r="A529" s="40"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A530" s="39"/>
+      <c r="A530" s="40"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A531" s="39"/>
+      <c r="A531" s="40"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A532" s="39"/>
+      <c r="A532" s="40"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A533" s="39"/>
+      <c r="A533" s="40"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A534" s="39"/>
+      <c r="A534" s="40"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A535" s="39"/>
+      <c r="A535" s="40"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A536" s="39"/>
+      <c r="A536" s="40"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A537" s="39"/>
+      <c r="A537" s="40"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A538" s="39"/>
+      <c r="A538" s="40"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A539" s="39"/>
+      <c r="A539" s="40"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A540" s="39"/>
+      <c r="A540" s="40"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A541" s="39"/>
+      <c r="A541" s="40"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A542" s="39"/>
+      <c r="A542" s="40"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A543" s="39"/>
+      <c r="A543" s="40"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A544" s="39"/>
+      <c r="A544" s="40"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A545" s="39"/>
+      <c r="A545" s="40"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A546" s="39"/>
+      <c r="A546" s="40"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A547" s="39"/>
+      <c r="A547" s="40"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A548" s="39"/>
+      <c r="A548" s="40"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A549" s="39"/>
+      <c r="A549" s="40"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A550" s="39"/>
+      <c r="A550" s="40"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A551" s="39"/>
+      <c r="A551" s="40"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A552" s="39"/>
+      <c r="A552" s="40"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A553" s="39"/>
+      <c r="A553" s="40"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A554" s="39"/>
+      <c r="A554" s="40"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A555" s="39"/>
+      <c r="A555" s="40"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A556" s="39"/>
+      <c r="A556" s="40"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A557" s="39"/>
+      <c r="A557" s="40"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A558" s="39"/>
+      <c r="A558" s="40"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A559" s="39"/>
+      <c r="A559" s="40"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A560" s="39"/>
+      <c r="A560" s="40"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A561" s="39"/>
+      <c r="A561" s="40"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A562" s="39"/>
+      <c r="A562" s="40"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A563" s="39"/>
+      <c r="A563" s="40"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A564" s="39"/>
+      <c r="A564" s="40"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A565" s="39"/>
+      <c r="A565" s="40"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A566" s="39"/>
+      <c r="A566" s="40"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A567" s="39"/>
+      <c r="A567" s="40"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A568" s="39"/>
+      <c r="A568" s="40"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A569" s="39"/>
+      <c r="A569" s="40"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A570" s="39"/>
+      <c r="A570" s="40"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A571" s="39"/>
+      <c r="A571" s="40"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A572" s="39"/>
+      <c r="A572" s="40"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A573" s="39"/>
+      <c r="A573" s="40"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A574" s="39"/>
+      <c r="A574" s="40"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A575" s="39"/>
+      <c r="A575" s="40"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A576" s="39"/>
+      <c r="A576" s="40"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A577" s="39"/>
+      <c r="A577" s="40"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A578" s="39"/>
+      <c r="A578" s="40"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A579" s="39"/>
+      <c r="A579" s="40"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A580" s="39"/>
+      <c r="A580" s="40"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A581" s="39"/>
+      <c r="A581" s="40"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A582" s="39"/>
+      <c r="A582" s="40"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A583" s="39"/>
+      <c r="A583" s="40"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A584" s="39"/>
+      <c r="A584" s="40"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A585" s="39"/>
+      <c r="A585" s="40"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A586" s="39"/>
+      <c r="A586" s="40"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A587" s="39"/>
+      <c r="A587" s="40"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A588" s="39"/>
+      <c r="A588" s="40"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A589" s="39"/>
+      <c r="A589" s="40"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A590" s="39"/>
+      <c r="A590" s="40"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A591" s="39"/>
+      <c r="A591" s="40"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A592" s="39"/>
+      <c r="A592" s="40"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A593" s="39"/>
+      <c r="A593" s="40"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A594" s="39"/>
+      <c r="A594" s="40"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A595" s="39"/>
+      <c r="A595" s="40"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A596" s="39"/>
+      <c r="A596" s="40"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A597" s="39"/>
+      <c r="A597" s="40"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A598" s="39"/>
+      <c r="A598" s="40"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A599" s="39"/>
+      <c r="A599" s="40"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A600" s="39"/>
+      <c r="A600" s="40"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A601" s="39"/>
+      <c r="A601" s="40"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A602" s="39"/>
+      <c r="A602" s="40"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A603" s="39"/>
+      <c r="A603" s="40"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A604" s="39"/>
+      <c r="A604" s="40"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A605" s="39"/>
+      <c r="A605" s="40"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A606" s="39"/>
+      <c r="A606" s="40"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A607" s="39"/>
+      <c r="A607" s="40"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A608" s="39"/>
+      <c r="A608" s="40"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A609" s="39"/>
+      <c r="A609" s="40"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A610" s="39"/>
+      <c r="A610" s="40"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A611" s="39"/>
+      <c r="A611" s="40"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A612" s="39"/>
+      <c r="A612" s="40"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A613" s="39"/>
+      <c r="A613" s="40"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A614" s="39"/>
+      <c r="A614" s="40"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A615" s="39"/>
+      <c r="A615" s="40"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A616" s="39"/>
+      <c r="A616" s="40"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A617" s="39"/>
+      <c r="A617" s="40"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A618" s="39"/>
+      <c r="A618" s="40"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A619" s="39"/>
+      <c r="A619" s="40"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A620" s="39"/>
+      <c r="A620" s="40"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A621" s="39"/>
+      <c r="A621" s="40"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A622" s="39"/>
+      <c r="A622" s="40"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A623" s="39"/>
+      <c r="A623" s="40"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A624" s="39"/>
+      <c r="A624" s="40"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A625" s="39"/>
+      <c r="A625" s="40"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A626" s="39"/>
+      <c r="A626" s="40"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A627" s="39"/>
+      <c r="A627" s="40"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A628" s="39"/>
+      <c r="A628" s="40"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A629" s="39"/>
+      <c r="A629" s="40"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A630" s="39"/>
+      <c r="A630" s="40"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A631" s="39"/>
+      <c r="A631" s="40"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A632" s="39"/>
+      <c r="A632" s="40"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A633" s="39"/>
+      <c r="A633" s="40"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A634" s="39"/>
+      <c r="A634" s="40"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A635" s="39"/>
+      <c r="A635" s="40"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A636" s="39"/>
+      <c r="A636" s="40"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A637" s="39"/>
+      <c r="A637" s="40"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A638" s="39"/>
+      <c r="A638" s="40"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A639" s="39"/>
+      <c r="A639" s="40"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A640" s="39"/>
+      <c r="A640" s="40"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A641" s="39"/>
+      <c r="A641" s="40"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A642" s="39"/>
+      <c r="A642" s="40"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A643" s="39"/>
+      <c r="A643" s="40"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A644" s="39"/>
+      <c r="A644" s="40"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A645" s="39"/>
+      <c r="A645" s="40"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A646" s="39"/>
+      <c r="A646" s="40"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A647" s="39"/>
+      <c r="A647" s="40"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A648" s="39"/>
+      <c r="A648" s="40"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A649" s="39"/>
+      <c r="A649" s="40"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A650" s="39"/>
+      <c r="A650" s="40"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A651" s="39"/>
+      <c r="A651" s="40"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A652" s="39"/>
+      <c r="A652" s="40"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A653" s="39"/>
+      <c r="A653" s="40"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A654" s="39"/>
+      <c r="A654" s="40"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A655" s="39"/>
+      <c r="A655" s="40"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A656" s="39"/>
+      <c r="A656" s="40"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A657" s="39"/>
+      <c r="A657" s="40"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A658" s="39"/>
+      <c r="A658" s="40"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A659" s="39"/>
+      <c r="A659" s="40"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A660" s="39"/>
+      <c r="A660" s="40"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A661" s="39"/>
+      <c r="A661" s="40"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A662" s="39"/>
+      <c r="A662" s="40"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A663" s="39"/>
+      <c r="A663" s="40"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A664" s="39"/>
+      <c r="A664" s="40"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A665" s="39"/>
+      <c r="A665" s="40"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A666" s="39"/>
+      <c r="A666" s="40"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A667" s="39"/>
+      <c r="A667" s="40"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A668" s="39"/>
+      <c r="A668" s="40"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A669" s="39"/>
+      <c r="A669" s="40"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A670" s="39"/>
+      <c r="A670" s="40"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A671" s="39"/>
+      <c r="A671" s="40"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A672" s="39"/>
+      <c r="A672" s="40"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A673" s="39"/>
+      <c r="A673" s="40"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A674" s="39"/>
+      <c r="A674" s="40"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A675" s="39"/>
+      <c r="A675" s="40"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A676" s="39"/>
+      <c r="A676" s="40"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A677" s="39"/>
+      <c r="A677" s="40"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A678" s="39"/>
+      <c r="A678" s="40"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A679" s="39"/>
+      <c r="A679" s="40"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A680" s="39"/>
+      <c r="A680" s="40"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A681" s="39"/>
+      <c r="A681" s="40"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A682" s="39"/>
+      <c r="A682" s="40"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A683" s="39"/>
+      <c r="A683" s="40"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A684" s="39"/>
+      <c r="A684" s="40"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A685" s="39"/>
+      <c r="A685" s="40"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A686" s="39"/>
+      <c r="A686" s="40"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A687" s="39"/>
+      <c r="A687" s="40"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A688" s="39"/>
+      <c r="A688" s="40"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A689" s="39"/>
+      <c r="A689" s="40"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A690" s="39"/>
+      <c r="A690" s="40"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A691" s="39"/>
+      <c r="A691" s="40"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A692" s="39"/>
+      <c r="A692" s="40"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A693" s="39"/>
+      <c r="A693" s="40"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A694" s="39"/>
+      <c r="A694" s="40"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A695" s="39"/>
+      <c r="A695" s="40"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A696" s="39"/>
+      <c r="A696" s="40"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A697" s="39"/>
+      <c r="A697" s="40"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A698" s="39"/>
+      <c r="A698" s="40"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A699" s="39"/>
+      <c r="A699" s="40"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A700" s="39"/>
+      <c r="A700" s="40"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A701" s="39"/>
+      <c r="A701" s="40"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A702" s="39"/>
+      <c r="A702" s="40"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A703" s="39"/>
+      <c r="A703" s="40"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A704" s="39"/>
+      <c r="A704" s="40"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A705" s="39"/>
+      <c r="A705" s="40"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A706" s="39"/>
+      <c r="A706" s="40"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A707" s="39"/>
+      <c r="A707" s="40"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A708" s="39"/>
+      <c r="A708" s="40"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A709" s="39"/>
+      <c r="A709" s="40"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A710" s="39"/>
+      <c r="A710" s="40"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A711" s="39"/>
+      <c r="A711" s="40"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A712" s="39"/>
+      <c r="A712" s="40"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A713" s="39"/>
+      <c r="A713" s="40"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A714" s="39"/>
+      <c r="A714" s="40"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A715" s="39"/>
+      <c r="A715" s="40"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A716" s="39"/>
+      <c r="A716" s="40"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A717" s="39"/>
+      <c r="A717" s="40"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A718" s="39"/>
+      <c r="A718" s="40"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A719" s="39"/>
+      <c r="A719" s="40"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A720" s="39"/>
+      <c r="A720" s="40"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A721" s="39"/>
+      <c r="A721" s="40"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A722" s="39"/>
+      <c r="A722" s="40"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A723" s="39"/>
+      <c r="A723" s="40"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A724" s="39"/>
+      <c r="A724" s="40"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A725" s="39"/>
+      <c r="A725" s="40"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A726" s="39"/>
+      <c r="A726" s="40"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A727" s="39"/>
+      <c r="A727" s="40"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A728" s="39"/>
+      <c r="A728" s="40"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A729" s="39"/>
+      <c r="A729" s="40"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A730" s="39"/>
+      <c r="A730" s="40"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A731" s="39"/>
+      <c r="A731" s="40"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A732" s="39"/>
+      <c r="A732" s="40"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A733" s="39"/>
+      <c r="A733" s="40"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A734" s="39"/>
+      <c r="A734" s="40"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A735" s="39"/>
+      <c r="A735" s="40"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A736" s="39"/>
+      <c r="A736" s="40"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A737" s="39"/>
+      <c r="A737" s="40"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A738" s="39"/>
+      <c r="A738" s="40"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A739" s="39"/>
+      <c r="A739" s="40"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A740" s="39"/>
+      <c r="A740" s="40"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A741" s="39"/>
+      <c r="A741" s="40"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A742" s="39"/>
+      <c r="A742" s="40"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A743" s="39"/>
+      <c r="A743" s="40"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A744" s="39"/>
+      <c r="A744" s="40"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A745" s="39"/>
+      <c r="A745" s="40"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A746" s="39"/>
+      <c r="A746" s="40"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A747" s="39"/>
+      <c r="A747" s="40"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A748" s="39"/>
+      <c r="A748" s="40"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A749" s="39"/>
+      <c r="A749" s="40"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A750" s="39"/>
+      <c r="A750" s="40"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A751" s="39"/>
+      <c r="A751" s="40"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A752" s="39"/>
+      <c r="A752" s="40"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A753" s="39"/>
+      <c r="A753" s="40"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A754" s="39"/>
+      <c r="A754" s="40"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A755" s="39"/>
+      <c r="A755" s="40"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A756" s="39"/>
+      <c r="A756" s="40"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A757" s="39"/>
+      <c r="A757" s="40"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A758" s="39"/>
+      <c r="A758" s="40"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A759" s="39"/>
+      <c r="A759" s="40"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A760" s="39"/>
+      <c r="A760" s="40"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A761" s="39"/>
+      <c r="A761" s="40"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A762" s="39"/>
+      <c r="A762" s="40"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A763" s="39"/>
+      <c r="A763" s="40"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A764" s="39"/>
+      <c r="A764" s="40"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A765" s="39"/>
+      <c r="A765" s="40"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A766" s="39"/>
+      <c r="A766" s="40"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A767" s="39"/>
+      <c r="A767" s="40"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A768" s="39"/>
+      <c r="A768" s="40"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A769" s="39"/>
+      <c r="A769" s="40"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A770" s="39"/>
+      <c r="A770" s="40"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A771" s="39"/>
+      <c r="A771" s="40"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A772" s="39"/>
+      <c r="A772" s="40"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A773" s="39"/>
+      <c r="A773" s="40"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A774" s="39"/>
+      <c r="A774" s="40"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A775" s="39"/>
+      <c r="A775" s="40"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A776" s="39"/>
+      <c r="A776" s="40"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A777" s="39"/>
+      <c r="A777" s="40"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A778" s="39"/>
+      <c r="A778" s="40"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A779" s="39"/>
+      <c r="A779" s="40"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A780" s="39"/>
+      <c r="A780" s="40"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A781" s="39"/>
+      <c r="A781" s="40"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A782" s="39"/>
+      <c r="A782" s="40"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A783" s="39"/>
+      <c r="A783" s="40"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A784" s="39"/>
+      <c r="A784" s="40"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A785" s="39"/>
+      <c r="A785" s="40"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A786" s="39"/>
+      <c r="A786" s="40"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A787" s="39"/>
+      <c r="A787" s="40"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A788" s="39"/>
+      <c r="A788" s="40"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A789" s="39"/>
+      <c r="A789" s="40"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A790" s="39"/>
+      <c r="A790" s="40"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A791" s="39"/>
+      <c r="A791" s="40"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A792" s="39"/>
+      <c r="A792" s="40"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A793" s="39"/>
+      <c r="A793" s="40"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A794" s="39"/>
+      <c r="A794" s="40"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A795" s="39"/>
+      <c r="A795" s="40"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A796" s="39"/>
+      <c r="A796" s="40"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A797" s="39"/>
+      <c r="A797" s="40"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A798" s="39"/>
+      <c r="A798" s="40"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A799" s="39"/>
+      <c r="A799" s="40"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A800" s="39"/>
+      <c r="A800" s="40"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A801" s="39"/>
+      <c r="A801" s="40"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A802" s="39"/>
+      <c r="A802" s="40"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A803" s="39"/>
+      <c r="A803" s="40"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A804" s="39"/>
+      <c r="A804" s="40"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A805" s="39"/>
+      <c r="A805" s="40"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A806" s="39"/>
+      <c r="A806" s="40"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A807" s="39"/>
+      <c r="A807" s="40"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A808" s="39"/>
+      <c r="A808" s="40"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A809" s="39"/>
+      <c r="A809" s="40"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A810" s="39"/>
+      <c r="A810" s="40"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A811" s="39"/>
+      <c r="A811" s="40"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A812" s="39"/>
+      <c r="A812" s="40"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A813" s="39"/>
+      <c r="A813" s="40"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A814" s="39"/>
+      <c r="A814" s="40"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A815" s="39"/>
+      <c r="A815" s="40"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A816" s="39"/>
+      <c r="A816" s="40"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A817" s="39"/>
+      <c r="A817" s="40"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A818" s="39"/>
+      <c r="A818" s="40"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A819" s="39"/>
+      <c r="A819" s="40"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A820" s="39"/>
+      <c r="A820" s="40"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A821" s="39"/>
+      <c r="A821" s="40"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A822" s="39"/>
+      <c r="A822" s="40"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A823" s="39"/>
+      <c r="A823" s="40"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A824" s="39"/>
+      <c r="A824" s="40"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A825" s="39"/>
+      <c r="A825" s="40"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A826" s="39"/>
+      <c r="A826" s="40"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A827" s="39"/>
+      <c r="A827" s="40"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A828" s="39"/>
+      <c r="A828" s="40"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A829" s="39"/>
+      <c r="A829" s="40"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A830" s="39"/>
+      <c r="A830" s="40"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A831" s="39"/>
+      <c r="A831" s="40"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A832" s="39"/>
+      <c r="A832" s="40"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A833" s="39"/>
+      <c r="A833" s="40"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A834" s="39"/>
+      <c r="A834" s="40"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A835" s="39"/>
+      <c r="A835" s="40"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A836" s="39"/>
+      <c r="A836" s="40"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A837" s="39"/>
+      <c r="A837" s="40"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A838" s="39"/>
+      <c r="A838" s="40"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A839" s="39"/>
+      <c r="A839" s="40"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A840" s="39"/>
+      <c r="A840" s="40"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A841" s="39"/>
+      <c r="A841" s="40"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A842" s="39"/>
+      <c r="A842" s="40"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A843" s="39"/>
+      <c r="A843" s="40"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A844" s="39"/>
+      <c r="A844" s="40"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A845" s="39"/>
+      <c r="A845" s="40"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A846" s="39"/>
+      <c r="A846" s="40"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A847" s="39"/>
+      <c r="A847" s="40"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A848" s="39"/>
+      <c r="A848" s="40"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A849" s="39"/>
+      <c r="A849" s="40"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A850" s="39"/>
+      <c r="A850" s="40"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A851" s="39"/>
+      <c r="A851" s="40"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A852" s="39"/>
+      <c r="A852" s="40"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A853" s="39"/>
+      <c r="A853" s="40"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A854" s="39"/>
+      <c r="A854" s="40"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A855" s="39"/>
+      <c r="A855" s="40"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A856" s="39"/>
+      <c r="A856" s="40"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A857" s="39"/>
+      <c r="A857" s="40"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A858" s="39"/>
+      <c r="A858" s="40"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A859" s="39"/>
+      <c r="A859" s="40"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A860" s="39"/>
+      <c r="A860" s="40"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A861" s="39"/>
+      <c r="A861" s="40"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A862" s="39"/>
+      <c r="A862" s="40"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A863" s="39"/>
+      <c r="A863" s="40"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A864" s="39"/>
+      <c r="A864" s="40"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A865" s="39"/>
+      <c r="A865" s="40"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A866" s="39"/>
+      <c r="A866" s="40"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A867" s="39"/>
+      <c r="A867" s="40"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A868" s="39"/>
+      <c r="A868" s="40"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A869" s="39"/>
+      <c r="A869" s="40"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A870" s="39"/>
+      <c r="A870" s="40"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A871" s="39"/>
+      <c r="A871" s="40"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A872" s="39"/>
+      <c r="A872" s="40"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A873" s="39"/>
+      <c r="A873" s="40"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A874" s="39"/>
+      <c r="A874" s="40"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A875" s="39"/>
+      <c r="A875" s="40"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A876" s="39"/>
+      <c r="A876" s="40"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A877" s="39"/>
+      <c r="A877" s="40"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A878" s="39"/>
+      <c r="A878" s="40"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A879" s="39"/>
+      <c r="A879" s="40"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A880" s="39"/>
+      <c r="A880" s="40"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A881" s="39"/>
+      <c r="A881" s="40"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A882" s="39"/>
+      <c r="A882" s="40"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A883" s="39"/>
+      <c r="A883" s="40"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A884" s="39"/>
+      <c r="A884" s="40"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A885" s="39"/>
+      <c r="A885" s="40"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A886" s="39"/>
+      <c r="A886" s="40"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A887" s="39"/>
+      <c r="A887" s="40"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A888" s="39"/>
+      <c r="A888" s="40"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A889" s="39"/>
+      <c r="A889" s="40"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A890" s="39"/>
+      <c r="A890" s="40"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A891" s="39"/>
+      <c r="A891" s="40"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A892" s="39"/>
+      <c r="A892" s="40"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A893" s="39"/>
+      <c r="A893" s="40"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A894" s="39"/>
+      <c r="A894" s="40"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A895" s="39"/>
+      <c r="A895" s="40"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A896" s="39"/>
+      <c r="A896" s="40"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A897" s="39"/>
+      <c r="A897" s="40"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A898" s="39"/>
+      <c r="A898" s="40"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A899" s="39"/>
+      <c r="A899" s="40"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A900" s="39"/>
+      <c r="A900" s="40"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A901" s="39"/>
+      <c r="A901" s="40"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A902" s="39"/>
+      <c r="A902" s="40"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A903" s="39"/>
+      <c r="A903" s="40"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A904" s="39"/>
+      <c r="A904" s="40"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A905" s="39"/>
+      <c r="A905" s="40"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A906" s="39"/>
+      <c r="A906" s="40"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A907" s="39"/>
+      <c r="A907" s="40"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A908" s="39"/>
+      <c r="A908" s="40"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A909" s="39"/>
+      <c r="A909" s="40"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A910" s="39"/>
+      <c r="A910" s="40"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A911" s="39"/>
+      <c r="A911" s="40"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A912" s="39"/>
+      <c r="A912" s="40"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A913" s="39"/>
+      <c r="A913" s="40"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A914" s="39"/>
+      <c r="A914" s="40"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A915" s="39"/>
+      <c r="A915" s="40"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A916" s="39"/>
+      <c r="A916" s="40"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A917" s="39"/>
+      <c r="A917" s="40"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A918" s="39"/>
+      <c r="A918" s="40"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A919" s="39"/>
+      <c r="A919" s="40"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A920" s="39"/>
+      <c r="A920" s="40"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A921" s="39"/>
+      <c r="A921" s="40"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A922" s="39"/>
+      <c r="A922" s="40"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A923" s="39"/>
+      <c r="A923" s="40"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A924" s="39"/>
+      <c r="A924" s="40"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A925" s="39"/>
+      <c r="A925" s="40"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A926" s="39"/>
+      <c r="A926" s="40"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A927" s="39"/>
+      <c r="A927" s="40"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A928" s="39"/>
+      <c r="A928" s="40"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A929" s="39"/>
+      <c r="A929" s="40"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A930" s="39"/>
+      <c r="A930" s="40"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A931" s="39"/>
+      <c r="A931" s="40"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A932" s="39"/>
+      <c r="A932" s="40"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A933" s="39"/>
+      <c r="A933" s="40"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A934" s="39"/>
+      <c r="A934" s="40"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A935" s="39"/>
+      <c r="A935" s="40"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A936" s="39"/>
+      <c r="A936" s="40"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A937" s="39"/>
+      <c r="A937" s="40"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A938" s="39"/>
+      <c r="A938" s="40"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A939" s="39"/>
+      <c r="A939" s="40"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A940" s="39"/>
+      <c r="A940" s="40"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A941" s="39"/>
+      <c r="A941" s="40"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A942" s="39"/>
+      <c r="A942" s="40"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A943" s="39"/>
+      <c r="A943" s="40"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A944" s="39"/>
+      <c r="A944" s="40"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A945" s="39"/>
+      <c r="A945" s="40"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A946" s="39"/>
+      <c r="A946" s="40"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A947" s="39"/>
+      <c r="A947" s="40"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A948" s="39"/>
+      <c r="A948" s="40"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A949" s="39"/>
+      <c r="A949" s="40"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A950" s="39"/>
+      <c r="A950" s="40"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A951" s="39"/>
+      <c r="A951" s="40"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A952" s="39"/>
+      <c r="A952" s="40"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A953" s="39"/>
+      <c r="A953" s="40"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A954" s="39"/>
+      <c r="A954" s="40"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A955" s="39"/>
+      <c r="A955" s="40"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A956" s="39"/>
+      <c r="A956" s="40"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A957" s="39"/>
+      <c r="A957" s="40"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A958" s="39"/>
+      <c r="A958" s="40"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A959" s="39"/>
+      <c r="A959" s="40"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A960" s="39"/>
+      <c r="A960" s="40"/>
     </row>
     <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="39"/>
+      <c r="A961" s="40"/>
     </row>
     <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="39"/>
+      <c r="A962" s="40"/>
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="39"/>
+      <c r="A963" s="40"/>
     </row>
     <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="39"/>
+      <c r="A964" s="40"/>
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="39"/>
+      <c r="A965" s="40"/>
     </row>
     <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="39"/>
+      <c r="A966" s="40"/>
     </row>
     <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="39"/>
+      <c r="A967" s="40"/>
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="39"/>
+      <c r="A968" s="40"/>
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="39"/>
+      <c r="A969" s="40"/>
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="39"/>
+      <c r="A970" s="40"/>
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="39"/>
+      <c r="A971" s="40"/>
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="39"/>
+      <c r="A972" s="40"/>
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="39"/>
+      <c r="A973" s="40"/>
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="39"/>
+      <c r="A974" s="40"/>
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="39"/>
+      <c r="A975" s="40"/>
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="39"/>
+      <c r="A976" s="40"/>
     </row>
     <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="39"/>
+      <c r="A977" s="40"/>
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="39"/>
+      <c r="A978" s="40"/>
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="39"/>
+      <c r="A979" s="40"/>
     </row>
     <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="39"/>
+      <c r="A980" s="40"/>
     </row>
     <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="39"/>
+      <c r="A981" s="40"/>
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="39"/>
+      <c r="A982" s="40"/>
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="39"/>
+      <c r="A983" s="40"/>
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="39"/>
+      <c r="A984" s="40"/>
     </row>
     <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="39"/>
+      <c r="A985" s="40"/>
     </row>
     <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="39"/>
+      <c r="A986" s="40"/>
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="39"/>
+      <c r="A987" s="40"/>
     </row>
     <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="39"/>
+      <c r="A988" s="40"/>
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="39"/>
+      <c r="A989" s="40"/>
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="39"/>
+      <c r="A990" s="40"/>
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="39"/>
+      <c r="A991" s="40"/>
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="39"/>
+      <c r="A992" s="40"/>
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="39"/>
+      <c r="A993" s="40"/>
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="39"/>
+      <c r="A994" s="40"/>
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="39"/>
+      <c r="A995" s="40"/>
     </row>
     <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="39"/>
+      <c r="A996" s="40"/>
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="39"/>
+      <c r="A997" s="40"/>
     </row>
     <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="39"/>
+      <c r="A998" s="40"/>
     </row>
     <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="39"/>
+      <c r="A999" s="40"/>
     </row>
     <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="39"/>
+      <c r="A1000" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10"/>
@@ -20724,32 +20746,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>495</v>
-      </c>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#KWELXX/KWEL/CADUAMB/9/report-checklist.xlsx
+++ b/GATEWAY/A1#111#KWELXX/KWEL/CADUAMB/9/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="496">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -482,13 +482,6 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">Precondizioni:
-Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
-Descrizione di Business del caso di test: 
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
-  </si>
-  <si>
     <t xml:space="preserve">2025-11-04T14:10:10.0000000+00:00</t>
   </si>
   <si>
@@ -1578,6 +1571,15 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-11-12T18:26:36.0000000+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e563f3be3e37dcaade6a78cc490f2f19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.aba3a1813c24c93cf77c3622cbbdffe37bc523d686ce8c0f902d82a61fbaf5ec.6a7105cc40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
   </si>
   <si>
@@ -1740,6 +1742,15 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-12T18:39:43.0000000+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dab2493d736ce8707806da7fb1677c73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.1212378fa2ece7be882592738760df591495d973ecf0a3d667dc469eaff2915c.dfe519d18c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -1884,7 +1895,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1963,14 +1974,6 @@
     </font>
     <font>
       <b val="true"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2169,7 +2172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2330,10 +2333,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2342,7 +2341,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2674,7 +2673,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="1" width="8.86"/>
@@ -3748,7 +3747,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="194.16"/>
@@ -4822,14 +4821,14 @@
   <dimension ref="A1:Z752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F188" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A167" activeCellId="0" sqref="A167"/>
-      <selection pane="bottomRight" activeCell="K188" activeCellId="0" sqref="K188"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A188" activeCellId="0" sqref="A188"/>
+      <selection pane="bottomRight" activeCell="I188" activeCellId="0" sqref="I188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.86"/>
@@ -5623,17 +5622,17 @@
       <c r="D22" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>83</v>
+      <c r="E22" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="F22" s="31" t="n">
         <v>45965</v>
       </c>
       <c r="G22" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="38" t="s">
         <v>84</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>85</v>
       </c>
       <c r="I22" s="39" t="s">
         <v>63</v>
@@ -5650,7 +5649,7 @@
         <v>64</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P22" s="32" t="s">
         <v>66</v>
@@ -5682,7 +5681,7 @@
         <v>68</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>79</v>
@@ -5691,10 +5690,10 @@
         <v>45965</v>
       </c>
       <c r="G23" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="38" t="s">
         <v>88</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>89</v>
       </c>
       <c r="I23" s="39" t="s">
         <v>63</v>
@@ -5711,7 +5710,7 @@
         <v>64</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>66</v>
@@ -5743,7 +5742,7 @@
         <v>72</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>79</v>
@@ -5780,7 +5779,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="36" t="s">
         <v>79</v>
@@ -5817,7 +5816,7 @@
         <v>76</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="36" t="s">
         <v>79</v>
@@ -5854,10 +5853,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>93</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>94</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -5893,10 +5892,10 @@
         <v>55</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
@@ -5932,10 +5931,10 @@
         <v>57</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -5971,10 +5970,10 @@
         <v>59</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" s="31" t="n">
         <v>45965</v>
@@ -5994,7 +5993,7 @@
         <v>64</v>
       </c>
       <c r="O30" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P30" s="32" t="s">
         <v>64</v>
@@ -6006,7 +6005,7 @@
         <v>64</v>
       </c>
       <c r="S30" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T30" s="32"/>
       <c r="U30" s="33"/>
@@ -6026,10 +6025,10 @@
         <v>68</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="31" t="n">
         <v>45965</v>
@@ -6049,7 +6048,7 @@
         <v>64</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P31" s="32" t="s">
         <v>64</v>
@@ -6061,7 +6060,7 @@
         <v>64</v>
       </c>
       <c r="S31" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T31" s="32"/>
       <c r="U31" s="33"/>
@@ -6081,10 +6080,10 @@
         <v>72</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
@@ -6120,10 +6119,10 @@
         <v>74</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
@@ -6159,10 +6158,10 @@
         <v>76</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
@@ -6198,10 +6197,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="29" t="s">
         <v>104</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>105</v>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
@@ -6235,10 +6234,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="29" t="s">
         <v>106</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>107</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
@@ -6272,10 +6271,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="29" t="s">
         <v>108</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>109</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -6309,10 +6308,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="29" t="s">
         <v>110</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>111</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
@@ -6346,10 +6345,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>112</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>113</v>
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
@@ -6383,10 +6382,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>114</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>115</v>
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="31"/>
@@ -6420,10 +6419,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="29" t="s">
         <v>116</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>117</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="31"/>
@@ -6457,10 +6456,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="29" t="s">
         <v>118</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>119</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
@@ -6494,10 +6493,10 @@
         <v>55</v>
       </c>
       <c r="D43" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="29" t="s">
         <v>120</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>121</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
@@ -6531,10 +6530,10 @@
         <v>55</v>
       </c>
       <c r="D44" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="29" t="s">
         <v>122</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>123</v>
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
@@ -6568,10 +6567,10 @@
         <v>55</v>
       </c>
       <c r="D45" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="29" t="s">
         <v>124</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>125</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
@@ -6605,10 +6604,10 @@
         <v>55</v>
       </c>
       <c r="D46" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="29" t="s">
         <v>126</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>127</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="31"/>
@@ -6642,10 +6641,10 @@
         <v>55</v>
       </c>
       <c r="D47" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="29" t="s">
         <v>128</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>129</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
@@ -6679,10 +6678,10 @@
         <v>55</v>
       </c>
       <c r="D48" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="29" t="s">
         <v>130</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>131</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
@@ -6716,10 +6715,10 @@
         <v>55</v>
       </c>
       <c r="D49" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="29" t="s">
         <v>132</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>133</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="31"/>
@@ -6753,10 +6752,10 @@
         <v>55</v>
       </c>
       <c r="D50" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="29" t="s">
         <v>134</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>135</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
@@ -6790,10 +6789,10 @@
         <v>55</v>
       </c>
       <c r="D51" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="29" t="s">
         <v>136</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>137</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
@@ -6827,10 +6826,10 @@
         <v>55</v>
       </c>
       <c r="D52" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="29" t="s">
         <v>138</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>139</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
@@ -6864,10 +6863,10 @@
         <v>59</v>
       </c>
       <c r="D53" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="29" t="s">
         <v>140</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>141</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="38"/>
@@ -6877,7 +6876,7 @@
         <v>66</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L53" s="32"/>
       <c r="M53" s="32"/>
@@ -6905,22 +6904,22 @@
         <v>59</v>
       </c>
       <c r="D54" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="29" t="s">
         <v>143</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>144</v>
       </c>
       <c r="F54" s="31" t="n">
         <v>45965</v>
       </c>
       <c r="G54" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="H54" s="38" t="s">
+      <c r="I54" s="39" t="s">
         <v>146</v>
-      </c>
-      <c r="I54" s="39" t="s">
-        <v>147</v>
       </c>
       <c r="J54" s="32" t="s">
         <v>64</v>
@@ -6934,7 +6933,7 @@
         <v>64</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P54" s="32" t="s">
         <v>64</v>
@@ -6946,7 +6945,7 @@
         <v>64</v>
       </c>
       <c r="S54" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T54" s="32"/>
       <c r="U54" s="33"/>
@@ -6966,22 +6965,22 @@
         <v>59</v>
       </c>
       <c r="D55" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>151</v>
       </c>
       <c r="F55" s="31" t="n">
         <v>45965</v>
       </c>
       <c r="G55" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="H55" s="38" t="s">
+      <c r="I55" s="39" t="s">
         <v>153</v>
-      </c>
-      <c r="I55" s="39" t="s">
-        <v>154</v>
       </c>
       <c r="J55" s="32" t="s">
         <v>64</v>
@@ -6995,7 +6994,7 @@
         <v>64</v>
       </c>
       <c r="O55" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P55" s="32" t="s">
         <v>64</v>
@@ -7007,7 +7006,7 @@
         <v>64</v>
       </c>
       <c r="S55" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T55" s="32"/>
       <c r="U55" s="33"/>
@@ -7027,10 +7026,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="29" t="s">
         <v>155</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>156</v>
       </c>
       <c r="F56" s="31"/>
       <c r="G56" s="38"/>
@@ -7040,7 +7039,7 @@
         <v>66</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L56" s="32"/>
       <c r="M56" s="32"/>
@@ -7068,10 +7067,10 @@
         <v>59</v>
       </c>
       <c r="D57" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="29" t="s">
         <v>157</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>158</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="38"/>
@@ -7081,7 +7080,7 @@
         <v>66</v>
       </c>
       <c r="K57" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L57" s="32"/>
       <c r="M57" s="32"/>
@@ -7109,10 +7108,10 @@
         <v>59</v>
       </c>
       <c r="D58" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="29" t="s">
         <v>159</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>160</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="38"/>
@@ -7122,7 +7121,7 @@
         <v>66</v>
       </c>
       <c r="K58" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L58" s="32"/>
       <c r="M58" s="32"/>
@@ -7150,10 +7149,10 @@
         <v>59</v>
       </c>
       <c r="D59" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="29" t="s">
         <v>161</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>162</v>
       </c>
       <c r="F59" s="31"/>
       <c r="G59" s="38"/>
@@ -7163,7 +7162,7 @@
         <v>66</v>
       </c>
       <c r="K59" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L59" s="32"/>
       <c r="M59" s="32"/>
@@ -7191,22 +7190,22 @@
         <v>59</v>
       </c>
       <c r="D60" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="29" t="s">
         <v>163</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>164</v>
       </c>
       <c r="F60" s="31" t="n">
         <v>45965</v>
       </c>
       <c r="G60" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="H60" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="H60" s="38" t="s">
+      <c r="I60" s="39" t="s">
         <v>166</v>
-      </c>
-      <c r="I60" s="39" t="s">
-        <v>167</v>
       </c>
       <c r="J60" s="32" t="s">
         <v>64</v>
@@ -7220,7 +7219,7 @@
         <v>64</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P60" s="32" t="s">
         <v>64</v>
@@ -7232,7 +7231,7 @@
         <v>64</v>
       </c>
       <c r="S60" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T60" s="32"/>
       <c r="U60" s="33"/>
@@ -7252,22 +7251,22 @@
         <v>59</v>
       </c>
       <c r="D61" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="29" t="s">
         <v>168</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>169</v>
       </c>
       <c r="F61" s="31" t="n">
         <v>45965</v>
       </c>
       <c r="G61" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="H61" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="H61" s="38" t="s">
+      <c r="I61" s="39" t="s">
         <v>171</v>
-      </c>
-      <c r="I61" s="39" t="s">
-        <v>172</v>
       </c>
       <c r="J61" s="32" t="s">
         <v>64</v>
@@ -7281,7 +7280,7 @@
         <v>64</v>
       </c>
       <c r="O61" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P61" s="32" t="s">
         <v>64</v>
@@ -7293,7 +7292,7 @@
         <v>64</v>
       </c>
       <c r="S61" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T61" s="32"/>
       <c r="U61" s="33"/>
@@ -7313,22 +7312,22 @@
         <v>59</v>
       </c>
       <c r="D62" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E62" s="29" t="s">
         <v>173</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>174</v>
       </c>
       <c r="F62" s="31" t="n">
         <v>45965</v>
       </c>
       <c r="G62" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="H62" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="H62" s="38" t="s">
+      <c r="I62" s="39" t="s">
         <v>176</v>
-      </c>
-      <c r="I62" s="39" t="s">
-        <v>177</v>
       </c>
       <c r="J62" s="32" t="s">
         <v>64</v>
@@ -7342,7 +7341,7 @@
         <v>64</v>
       </c>
       <c r="O62" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P62" s="32" t="s">
         <v>64</v>
@@ -7354,7 +7353,7 @@
         <v>64</v>
       </c>
       <c r="S62" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T62" s="32"/>
       <c r="U62" s="33"/>
@@ -7374,10 +7373,10 @@
         <v>59</v>
       </c>
       <c r="D63" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="29" t="s">
         <v>178</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>179</v>
       </c>
       <c r="F63" s="31"/>
       <c r="G63" s="31"/>
@@ -7387,7 +7386,7 @@
         <v>66</v>
       </c>
       <c r="K63" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L63" s="32"/>
       <c r="M63" s="32"/>
@@ -7415,10 +7414,10 @@
         <v>59</v>
       </c>
       <c r="D64" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>182</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
@@ -7428,7 +7427,7 @@
         <v>66</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L64" s="32"/>
       <c r="M64" s="32"/>
@@ -7456,10 +7455,10 @@
         <v>59</v>
       </c>
       <c r="D65" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="29" t="s">
         <v>183</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>184</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="31"/>
@@ -7469,7 +7468,7 @@
         <v>66</v>
       </c>
       <c r="K65" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L65" s="32"/>
       <c r="M65" s="32"/>
@@ -7497,10 +7496,10 @@
         <v>59</v>
       </c>
       <c r="D66" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>186</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
@@ -7510,7 +7509,7 @@
         <v>66</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L66" s="32"/>
       <c r="M66" s="32"/>
@@ -7538,10 +7537,10 @@
         <v>59</v>
       </c>
       <c r="D67" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="29" t="s">
         <v>187</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>188</v>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
@@ -7551,7 +7550,7 @@
         <v>66</v>
       </c>
       <c r="K67" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L67" s="32"/>
       <c r="M67" s="32"/>
@@ -7579,22 +7578,22 @@
         <v>59</v>
       </c>
       <c r="D68" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="29" t="s">
         <v>189</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>190</v>
       </c>
       <c r="F68" s="31" t="n">
         <v>45965</v>
       </c>
       <c r="G68" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="H68" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="H68" s="38" t="s">
+      <c r="I68" s="39" t="s">
         <v>192</v>
-      </c>
-      <c r="I68" s="39" t="s">
-        <v>193</v>
       </c>
       <c r="J68" s="32" t="s">
         <v>64</v>
@@ -7608,7 +7607,7 @@
         <v>64</v>
       </c>
       <c r="O68" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P68" s="32" t="s">
         <v>64</v>
@@ -7620,7 +7619,7 @@
         <v>64</v>
       </c>
       <c r="S68" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T68" s="32"/>
       <c r="U68" s="33"/>
@@ -7640,10 +7639,10 @@
         <v>72</v>
       </c>
       <c r="D69" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E69" s="29" t="s">
         <v>194</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>195</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="31"/>
@@ -7677,10 +7676,10 @@
         <v>72</v>
       </c>
       <c r="D70" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E70" s="29" t="s">
         <v>196</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>197</v>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="31"/>
@@ -7714,10 +7713,10 @@
         <v>72</v>
       </c>
       <c r="D71" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="29" t="s">
         <v>198</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>199</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="31"/>
@@ -7751,10 +7750,10 @@
         <v>72</v>
       </c>
       <c r="D72" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72" s="29" t="s">
         <v>200</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>201</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="31"/>
@@ -7788,10 +7787,10 @@
         <v>72</v>
       </c>
       <c r="D73" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E73" s="29" t="s">
         <v>202</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>203</v>
       </c>
       <c r="F73" s="31"/>
       <c r="G73" s="31"/>
@@ -7825,10 +7824,10 @@
         <v>72</v>
       </c>
       <c r="D74" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74" s="29" t="s">
         <v>204</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>205</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="31"/>
@@ -7862,10 +7861,10 @@
         <v>72</v>
       </c>
       <c r="D75" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="E75" s="29" t="s">
         <v>206</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>207</v>
       </c>
       <c r="F75" s="31"/>
       <c r="G75" s="31"/>
@@ -7899,10 +7898,10 @@
         <v>72</v>
       </c>
       <c r="D76" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E76" s="29" t="s">
         <v>208</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>209</v>
       </c>
       <c r="F76" s="31"/>
       <c r="G76" s="31"/>
@@ -7936,10 +7935,10 @@
         <v>72</v>
       </c>
       <c r="D77" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E77" s="29" t="s">
         <v>210</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>211</v>
       </c>
       <c r="F77" s="31"/>
       <c r="G77" s="31"/>
@@ -7973,10 +7972,10 @@
         <v>72</v>
       </c>
       <c r="D78" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E78" s="29" t="s">
         <v>212</v>
-      </c>
-      <c r="E78" s="29" t="s">
-        <v>213</v>
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="31"/>
@@ -8010,10 +8009,10 @@
         <v>72</v>
       </c>
       <c r="D79" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E79" s="29" t="s">
         <v>214</v>
-      </c>
-      <c r="E79" s="29" t="s">
-        <v>215</v>
       </c>
       <c r="F79" s="31"/>
       <c r="G79" s="31"/>
@@ -8047,10 +8046,10 @@
         <v>74</v>
       </c>
       <c r="D80" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" s="29" t="s">
         <v>216</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>217</v>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="31"/>
@@ -8084,10 +8083,10 @@
         <v>74</v>
       </c>
       <c r="D81" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E81" s="29" t="s">
         <v>218</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>219</v>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="31"/>
@@ -8121,10 +8120,10 @@
         <v>74</v>
       </c>
       <c r="D82" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" s="29" t="s">
         <v>220</v>
-      </c>
-      <c r="E82" s="29" t="s">
-        <v>221</v>
       </c>
       <c r="F82" s="31"/>
       <c r="G82" s="31"/>
@@ -8158,10 +8157,10 @@
         <v>74</v>
       </c>
       <c r="D83" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E83" s="29" t="s">
         <v>222</v>
-      </c>
-      <c r="E83" s="29" t="s">
-        <v>223</v>
       </c>
       <c r="F83" s="31"/>
       <c r="G83" s="31"/>
@@ -8195,10 +8194,10 @@
         <v>74</v>
       </c>
       <c r="D84" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E84" s="29" t="s">
         <v>224</v>
-      </c>
-      <c r="E84" s="29" t="s">
-        <v>225</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
@@ -8232,10 +8231,10 @@
         <v>74</v>
       </c>
       <c r="D85" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E85" s="29" t="s">
         <v>226</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>227</v>
       </c>
       <c r="F85" s="31"/>
       <c r="G85" s="31"/>
@@ -8269,10 +8268,10 @@
         <v>74</v>
       </c>
       <c r="D86" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" s="29" t="s">
         <v>228</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>229</v>
       </c>
       <c r="F86" s="31"/>
       <c r="G86" s="31"/>
@@ -8306,10 +8305,10 @@
         <v>74</v>
       </c>
       <c r="D87" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E87" s="29" t="s">
         <v>230</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>231</v>
       </c>
       <c r="F87" s="31"/>
       <c r="G87" s="31"/>
@@ -8343,10 +8342,10 @@
         <v>74</v>
       </c>
       <c r="D88" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E88" s="29" t="s">
         <v>232</v>
-      </c>
-      <c r="E88" s="29" t="s">
-        <v>233</v>
       </c>
       <c r="F88" s="31"/>
       <c r="G88" s="31"/>
@@ -8380,10 +8379,10 @@
         <v>74</v>
       </c>
       <c r="D89" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E89" s="29" t="s">
         <v>234</v>
-      </c>
-      <c r="E89" s="29" t="s">
-        <v>235</v>
       </c>
       <c r="F89" s="31"/>
       <c r="G89" s="31"/>
@@ -8417,10 +8416,10 @@
         <v>74</v>
       </c>
       <c r="D90" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="E90" s="29" t="s">
         <v>236</v>
-      </c>
-      <c r="E90" s="29" t="s">
-        <v>237</v>
       </c>
       <c r="F90" s="31"/>
       <c r="G90" s="31"/>
@@ -8454,10 +8453,10 @@
         <v>74</v>
       </c>
       <c r="D91" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="E91" s="29" t="s">
         <v>238</v>
-      </c>
-      <c r="E91" s="29" t="s">
-        <v>239</v>
       </c>
       <c r="F91" s="31"/>
       <c r="G91" s="31"/>
@@ -8491,10 +8490,10 @@
         <v>74</v>
       </c>
       <c r="D92" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="E92" s="29" t="s">
         <v>240</v>
-      </c>
-      <c r="E92" s="29" t="s">
-        <v>241</v>
       </c>
       <c r="F92" s="31"/>
       <c r="G92" s="31"/>
@@ -8528,10 +8527,10 @@
         <v>76</v>
       </c>
       <c r="D93" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="E93" s="29" t="s">
         <v>242</v>
-      </c>
-      <c r="E93" s="29" t="s">
-        <v>243</v>
       </c>
       <c r="F93" s="31"/>
       <c r="G93" s="31"/>
@@ -8565,10 +8564,10 @@
         <v>76</v>
       </c>
       <c r="D94" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E94" s="29" t="s">
         <v>244</v>
-      </c>
-      <c r="E94" s="29" t="s">
-        <v>245</v>
       </c>
       <c r="F94" s="31"/>
       <c r="G94" s="31"/>
@@ -8602,10 +8601,10 @@
         <v>76</v>
       </c>
       <c r="D95" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E95" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="E95" s="29" t="s">
-        <v>247</v>
       </c>
       <c r="F95" s="31"/>
       <c r="G95" s="31"/>
@@ -8639,10 +8638,10 @@
         <v>76</v>
       </c>
       <c r="D96" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="E96" s="29" t="s">
         <v>248</v>
-      </c>
-      <c r="E96" s="29" t="s">
-        <v>249</v>
       </c>
       <c r="F96" s="31"/>
       <c r="G96" s="31"/>
@@ -8676,10 +8675,10 @@
         <v>76</v>
       </c>
       <c r="D97" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E97" s="29" t="s">
         <v>250</v>
-      </c>
-      <c r="E97" s="29" t="s">
-        <v>251</v>
       </c>
       <c r="F97" s="31"/>
       <c r="G97" s="31"/>
@@ -8713,10 +8712,10 @@
         <v>76</v>
       </c>
       <c r="D98" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="E98" s="29" t="s">
         <v>252</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>253</v>
       </c>
       <c r="F98" s="31"/>
       <c r="G98" s="31"/>
@@ -8750,10 +8749,10 @@
         <v>76</v>
       </c>
       <c r="D99" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="E99" s="29" t="s">
         <v>254</v>
-      </c>
-      <c r="E99" s="29" t="s">
-        <v>255</v>
       </c>
       <c r="F99" s="31"/>
       <c r="G99" s="31"/>
@@ -8787,10 +8786,10 @@
         <v>76</v>
       </c>
       <c r="D100" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E100" s="29" t="s">
         <v>256</v>
-      </c>
-      <c r="E100" s="29" t="s">
-        <v>257</v>
       </c>
       <c r="F100" s="31"/>
       <c r="G100" s="31"/>
@@ -8824,10 +8823,10 @@
         <v>76</v>
       </c>
       <c r="D101" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E101" s="29" t="s">
         <v>258</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>259</v>
       </c>
       <c r="F101" s="31"/>
       <c r="G101" s="31"/>
@@ -8861,10 +8860,10 @@
         <v>76</v>
       </c>
       <c r="D102" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E102" s="29" t="s">
         <v>260</v>
-      </c>
-      <c r="E102" s="29" t="s">
-        <v>261</v>
       </c>
       <c r="F102" s="31"/>
       <c r="G102" s="31"/>
@@ -8898,10 +8897,10 @@
         <v>76</v>
       </c>
       <c r="D103" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="E103" s="29" t="s">
         <v>262</v>
-      </c>
-      <c r="E103" s="29" t="s">
-        <v>263</v>
       </c>
       <c r="F103" s="31"/>
       <c r="G103" s="31"/>
@@ -8935,10 +8934,10 @@
         <v>76</v>
       </c>
       <c r="D104" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E104" s="29" t="s">
         <v>264</v>
-      </c>
-      <c r="E104" s="29" t="s">
-        <v>265</v>
       </c>
       <c r="F104" s="31"/>
       <c r="G104" s="31"/>
@@ -8972,10 +8971,10 @@
         <v>76</v>
       </c>
       <c r="D105" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="E105" s="29" t="s">
         <v>266</v>
-      </c>
-      <c r="E105" s="29" t="s">
-        <v>267</v>
       </c>
       <c r="F105" s="31"/>
       <c r="G105" s="31"/>
@@ -9009,10 +9008,10 @@
         <v>76</v>
       </c>
       <c r="D106" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="E106" s="29" t="s">
         <v>268</v>
-      </c>
-      <c r="E106" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="F106" s="31"/>
       <c r="G106" s="31"/>
@@ -9046,10 +9045,10 @@
         <v>76</v>
       </c>
       <c r="D107" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E107" s="29" t="s">
         <v>270</v>
-      </c>
-      <c r="E107" s="29" t="s">
-        <v>271</v>
       </c>
       <c r="F107" s="31"/>
       <c r="G107" s="31"/>
@@ -9083,10 +9082,10 @@
         <v>76</v>
       </c>
       <c r="D108" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="E108" s="29" t="s">
         <v>272</v>
-      </c>
-      <c r="E108" s="29" t="s">
-        <v>273</v>
       </c>
       <c r="F108" s="31"/>
       <c r="G108" s="31"/>
@@ -9120,10 +9119,10 @@
         <v>76</v>
       </c>
       <c r="D109" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="E109" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="E109" s="29" t="s">
-        <v>275</v>
       </c>
       <c r="F109" s="31"/>
       <c r="G109" s="31"/>
@@ -9157,10 +9156,10 @@
         <v>76</v>
       </c>
       <c r="D110" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E110" s="29" t="s">
         <v>276</v>
-      </c>
-      <c r="E110" s="29" t="s">
-        <v>277</v>
       </c>
       <c r="F110" s="31"/>
       <c r="G110" s="31"/>
@@ -9194,10 +9193,10 @@
         <v>76</v>
       </c>
       <c r="D111" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="E111" s="29" t="s">
         <v>278</v>
-      </c>
-      <c r="E111" s="29" t="s">
-        <v>279</v>
       </c>
       <c r="F111" s="31"/>
       <c r="G111" s="31"/>
@@ -9231,10 +9230,10 @@
         <v>76</v>
       </c>
       <c r="D112" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="E112" s="29" t="s">
         <v>280</v>
-      </c>
-      <c r="E112" s="29" t="s">
-        <v>281</v>
       </c>
       <c r="F112" s="31"/>
       <c r="G112" s="31"/>
@@ -9268,10 +9267,10 @@
         <v>76</v>
       </c>
       <c r="D113" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="E113" s="29" t="s">
         <v>282</v>
-      </c>
-      <c r="E113" s="29" t="s">
-        <v>283</v>
       </c>
       <c r="F113" s="31"/>
       <c r="G113" s="31"/>
@@ -9305,10 +9304,10 @@
         <v>76</v>
       </c>
       <c r="D114" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E114" s="29" t="s">
         <v>284</v>
-      </c>
-      <c r="E114" s="29" t="s">
-        <v>285</v>
       </c>
       <c r="F114" s="31"/>
       <c r="G114" s="31"/>
@@ -9342,10 +9341,10 @@
         <v>76</v>
       </c>
       <c r="D115" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E115" s="29" t="s">
         <v>286</v>
-      </c>
-      <c r="E115" s="29" t="s">
-        <v>287</v>
       </c>
       <c r="F115" s="31"/>
       <c r="G115" s="31"/>
@@ -9379,10 +9378,10 @@
         <v>68</v>
       </c>
       <c r="D116" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="E116" s="29" t="s">
         <v>288</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>289</v>
       </c>
       <c r="F116" s="31"/>
       <c r="G116" s="38"/>
@@ -9392,7 +9391,7 @@
         <v>66</v>
       </c>
       <c r="K116" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L116" s="32"/>
       <c r="M116" s="32"/>
@@ -9420,22 +9419,22 @@
         <v>68</v>
       </c>
       <c r="D117" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E117" s="29" t="s">
         <v>290</v>
-      </c>
-      <c r="E117" s="29" t="s">
-        <v>291</v>
       </c>
       <c r="F117" s="31" t="n">
         <v>45965</v>
       </c>
       <c r="G117" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="H117" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="H117" s="38" t="s">
+      <c r="I117" s="39" t="s">
         <v>293</v>
-      </c>
-      <c r="I117" s="39" t="s">
-        <v>294</v>
       </c>
       <c r="J117" s="32" t="s">
         <v>64</v>
@@ -9449,7 +9448,7 @@
         <v>64</v>
       </c>
       <c r="O117" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P117" s="32" t="s">
         <v>64</v>
@@ -9461,7 +9460,7 @@
         <v>64</v>
       </c>
       <c r="S117" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T117" s="32"/>
       <c r="U117" s="33"/>
@@ -9481,22 +9480,22 @@
         <v>68</v>
       </c>
       <c r="D118" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="E118" s="29" t="s">
         <v>295</v>
-      </c>
-      <c r="E118" s="29" t="s">
-        <v>296</v>
       </c>
       <c r="F118" s="31" t="n">
         <v>45965</v>
       </c>
       <c r="G118" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="H118" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="H118" s="38" t="s">
+      <c r="I118" s="39" t="s">
         <v>298</v>
-      </c>
-      <c r="I118" s="39" t="s">
-        <v>299</v>
       </c>
       <c r="J118" s="32" t="s">
         <v>64</v>
@@ -9510,7 +9509,7 @@
         <v>64</v>
       </c>
       <c r="O118" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P118" s="32" t="s">
         <v>64</v>
@@ -9522,7 +9521,7 @@
         <v>64</v>
       </c>
       <c r="S118" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T118" s="32"/>
       <c r="U118" s="33"/>
@@ -9542,10 +9541,10 @@
         <v>68</v>
       </c>
       <c r="D119" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="E119" s="29" t="s">
         <v>300</v>
-      </c>
-      <c r="E119" s="29" t="s">
-        <v>301</v>
       </c>
       <c r="F119" s="31"/>
       <c r="G119" s="31"/>
@@ -9555,7 +9554,7 @@
         <v>66</v>
       </c>
       <c r="K119" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L119" s="32"/>
       <c r="M119" s="32"/>
@@ -9583,10 +9582,10 @@
         <v>68</v>
       </c>
       <c r="D120" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="E120" s="29" t="s">
         <v>302</v>
-      </c>
-      <c r="E120" s="29" t="s">
-        <v>303</v>
       </c>
       <c r="F120" s="31"/>
       <c r="G120" s="31"/>
@@ -9596,7 +9595,7 @@
         <v>66</v>
       </c>
       <c r="K120" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L120" s="32"/>
       <c r="M120" s="32"/>
@@ -9624,10 +9623,10 @@
         <v>68</v>
       </c>
       <c r="D121" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E121" s="29" t="s">
         <v>304</v>
-      </c>
-      <c r="E121" s="29" t="s">
-        <v>305</v>
       </c>
       <c r="F121" s="31"/>
       <c r="G121" s="31"/>
@@ -9637,7 +9636,7 @@
         <v>66</v>
       </c>
       <c r="K121" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L121" s="32"/>
       <c r="M121" s="32"/>
@@ -9665,22 +9664,22 @@
         <v>68</v>
       </c>
       <c r="D122" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="E122" s="29" t="s">
         <v>306</v>
-      </c>
-      <c r="E122" s="29" t="s">
-        <v>307</v>
       </c>
       <c r="F122" s="31" t="n">
         <v>45965</v>
       </c>
       <c r="G122" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="H122" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="H122" s="38" t="s">
+      <c r="I122" s="39" t="s">
         <v>309</v>
-      </c>
-      <c r="I122" s="39" t="s">
-        <v>310</v>
       </c>
       <c r="J122" s="32" t="s">
         <v>64</v>
@@ -9694,7 +9693,7 @@
         <v>64</v>
       </c>
       <c r="O122" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P122" s="32" t="s">
         <v>64</v>
@@ -9706,7 +9705,7 @@
         <v>64</v>
       </c>
       <c r="S122" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T122" s="32"/>
       <c r="U122" s="33"/>
@@ -9726,22 +9725,22 @@
         <v>68</v>
       </c>
       <c r="D123" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E123" s="29" t="s">
         <v>311</v>
-      </c>
-      <c r="E123" s="29" t="s">
-        <v>312</v>
       </c>
       <c r="F123" s="31" t="n">
         <v>45965</v>
       </c>
       <c r="G123" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="H123" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="H123" s="38" t="s">
+      <c r="I123" s="39" t="s">
         <v>314</v>
-      </c>
-      <c r="I123" s="39" t="s">
-        <v>315</v>
       </c>
       <c r="J123" s="32" t="s">
         <v>64</v>
@@ -9755,7 +9754,7 @@
         <v>64</v>
       </c>
       <c r="O123" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P123" s="32" t="s">
         <v>64</v>
@@ -9767,7 +9766,7 @@
         <v>64</v>
       </c>
       <c r="S123" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T123" s="32"/>
       <c r="U123" s="33"/>
@@ -9787,10 +9786,10 @@
         <v>68</v>
       </c>
       <c r="D124" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="E124" s="29" t="s">
         <v>316</v>
-      </c>
-      <c r="E124" s="29" t="s">
-        <v>317</v>
       </c>
       <c r="F124" s="31"/>
       <c r="G124" s="31"/>
@@ -9800,7 +9799,7 @@
         <v>66</v>
       </c>
       <c r="K124" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L124" s="32"/>
       <c r="M124" s="32"/>
@@ -9828,10 +9827,10 @@
         <v>68</v>
       </c>
       <c r="D125" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="E125" s="29" t="s">
         <v>318</v>
-      </c>
-      <c r="E125" s="29" t="s">
-        <v>319</v>
       </c>
       <c r="F125" s="31"/>
       <c r="G125" s="31"/>
@@ -9841,7 +9840,7 @@
         <v>66</v>
       </c>
       <c r="K125" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L125" s="32"/>
       <c r="M125" s="32"/>
@@ -9869,10 +9868,10 @@
         <v>68</v>
       </c>
       <c r="D126" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="E126" s="29" t="s">
         <v>320</v>
-      </c>
-      <c r="E126" s="29" t="s">
-        <v>321</v>
       </c>
       <c r="F126" s="31"/>
       <c r="G126" s="31"/>
@@ -9882,7 +9881,7 @@
         <v>66</v>
       </c>
       <c r="K126" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L126" s="32"/>
       <c r="M126" s="32"/>
@@ -9910,10 +9909,10 @@
         <v>68</v>
       </c>
       <c r="D127" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="E127" s="29" t="s">
         <v>322</v>
-      </c>
-      <c r="E127" s="29" t="s">
-        <v>323</v>
       </c>
       <c r="F127" s="31"/>
       <c r="G127" s="31"/>
@@ -9923,7 +9922,7 @@
         <v>66</v>
       </c>
       <c r="K127" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L127" s="32"/>
       <c r="M127" s="32"/>
@@ -9951,10 +9950,10 @@
         <v>68</v>
       </c>
       <c r="D128" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="E128" s="29" t="s">
         <v>324</v>
-      </c>
-      <c r="E128" s="29" t="s">
-        <v>325</v>
       </c>
       <c r="F128" s="31"/>
       <c r="G128" s="31"/>
@@ -9964,7 +9963,7 @@
         <v>66</v>
       </c>
       <c r="K128" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L128" s="32"/>
       <c r="M128" s="32"/>
@@ -9992,10 +9991,10 @@
         <v>68</v>
       </c>
       <c r="D129" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="E129" s="29" t="s">
         <v>326</v>
-      </c>
-      <c r="E129" s="29" t="s">
-        <v>327</v>
       </c>
       <c r="F129" s="31"/>
       <c r="G129" s="31"/>
@@ -10005,7 +10004,7 @@
         <v>66</v>
       </c>
       <c r="K129" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L129" s="32"/>
       <c r="M129" s="32"/>
@@ -10033,10 +10032,10 @@
         <v>68</v>
       </c>
       <c r="D130" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="E130" s="29" t="s">
         <v>328</v>
-      </c>
-      <c r="E130" s="29" t="s">
-        <v>329</v>
       </c>
       <c r="F130" s="31"/>
       <c r="G130" s="31"/>
@@ -10046,7 +10045,7 @@
         <v>66</v>
       </c>
       <c r="K130" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L130" s="32"/>
       <c r="M130" s="32"/>
@@ -10074,10 +10073,10 @@
         <v>57</v>
       </c>
       <c r="D131" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="E131" s="29" t="s">
         <v>330</v>
-      </c>
-      <c r="E131" s="29" t="s">
-        <v>331</v>
       </c>
       <c r="F131" s="31"/>
       <c r="G131" s="31"/>
@@ -10111,10 +10110,10 @@
         <v>57</v>
       </c>
       <c r="D132" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E132" s="29" t="s">
         <v>332</v>
-      </c>
-      <c r="E132" s="29" t="s">
-        <v>333</v>
       </c>
       <c r="F132" s="31"/>
       <c r="G132" s="31"/>
@@ -10148,10 +10147,10 @@
         <v>57</v>
       </c>
       <c r="D133" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="E133" s="29" t="s">
         <v>334</v>
-      </c>
-      <c r="E133" s="29" t="s">
-        <v>335</v>
       </c>
       <c r="F133" s="31"/>
       <c r="G133" s="31"/>
@@ -10185,10 +10184,10 @@
         <v>57</v>
       </c>
       <c r="D134" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="E134" s="29" t="s">
         <v>336</v>
-      </c>
-      <c r="E134" s="29" t="s">
-        <v>337</v>
       </c>
       <c r="F134" s="31"/>
       <c r="G134" s="31"/>
@@ -10222,10 +10221,10 @@
         <v>57</v>
       </c>
       <c r="D135" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="E135" s="29" t="s">
         <v>338</v>
-      </c>
-      <c r="E135" s="29" t="s">
-        <v>339</v>
       </c>
       <c r="F135" s="31"/>
       <c r="G135" s="31"/>
@@ -10259,10 +10258,10 @@
         <v>57</v>
       </c>
       <c r="D136" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="E136" s="29" t="s">
         <v>340</v>
-      </c>
-      <c r="E136" s="29" t="s">
-        <v>341</v>
       </c>
       <c r="F136" s="31"/>
       <c r="G136" s="31"/>
@@ -10296,10 +10295,10 @@
         <v>57</v>
       </c>
       <c r="D137" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="E137" s="29" t="s">
         <v>342</v>
-      </c>
-      <c r="E137" s="29" t="s">
-        <v>343</v>
       </c>
       <c r="F137" s="31"/>
       <c r="G137" s="31"/>
@@ -10333,10 +10332,10 @@
         <v>57</v>
       </c>
       <c r="D138" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="E138" s="29" t="s">
         <v>344</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>345</v>
       </c>
       <c r="F138" s="31"/>
       <c r="G138" s="31"/>
@@ -10370,10 +10369,10 @@
         <v>57</v>
       </c>
       <c r="D139" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E139" s="29" t="s">
         <v>346</v>
-      </c>
-      <c r="E139" s="29" t="s">
-        <v>347</v>
       </c>
       <c r="F139" s="31"/>
       <c r="G139" s="31"/>
@@ -10407,10 +10406,10 @@
         <v>57</v>
       </c>
       <c r="D140" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="E140" s="29" t="s">
         <v>348</v>
-      </c>
-      <c r="E140" s="29" t="s">
-        <v>349</v>
       </c>
       <c r="F140" s="31"/>
       <c r="G140" s="31"/>
@@ -10444,10 +10443,10 @@
         <v>57</v>
       </c>
       <c r="D141" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="E141" s="29" t="s">
         <v>350</v>
-      </c>
-      <c r="E141" s="29" t="s">
-        <v>351</v>
       </c>
       <c r="F141" s="31"/>
       <c r="G141" s="31"/>
@@ -10481,10 +10480,10 @@
         <v>57</v>
       </c>
       <c r="D142" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="E142" s="29" t="s">
         <v>352</v>
-      </c>
-      <c r="E142" s="29" t="s">
-        <v>353</v>
       </c>
       <c r="F142" s="31"/>
       <c r="G142" s="31"/>
@@ -10518,10 +10517,10 @@
         <v>57</v>
       </c>
       <c r="D143" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="E143" s="29" t="s">
         <v>354</v>
-      </c>
-      <c r="E143" s="29" t="s">
-        <v>355</v>
       </c>
       <c r="F143" s="31"/>
       <c r="G143" s="31"/>
@@ -10555,10 +10554,10 @@
         <v>57</v>
       </c>
       <c r="D144" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="E144" s="29" t="s">
         <v>356</v>
-      </c>
-      <c r="E144" s="29" t="s">
-        <v>357</v>
       </c>
       <c r="F144" s="31"/>
       <c r="G144" s="31"/>
@@ -10592,10 +10591,10 @@
         <v>57</v>
       </c>
       <c r="D145" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E145" s="29" t="s">
         <v>358</v>
-      </c>
-      <c r="E145" s="29" t="s">
-        <v>359</v>
       </c>
       <c r="F145" s="31"/>
       <c r="G145" s="31"/>
@@ -10629,10 +10628,10 @@
         <v>48</v>
       </c>
       <c r="D146" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="E146" s="29" t="s">
         <v>360</v>
-      </c>
-      <c r="E146" s="29" t="s">
-        <v>361</v>
       </c>
       <c r="F146" s="31"/>
       <c r="G146" s="31"/>
@@ -10666,10 +10665,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="E147" s="29" t="s">
         <v>362</v>
-      </c>
-      <c r="E147" s="29" t="s">
-        <v>363</v>
       </c>
       <c r="F147" s="31"/>
       <c r="G147" s="31"/>
@@ -10700,13 +10699,13 @@
         <v>47</v>
       </c>
       <c r="C148" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="D148" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="D148" s="28" t="s">
+      <c r="E148" s="29" t="s">
         <v>365</v>
-      </c>
-      <c r="E148" s="29" t="s">
-        <v>366</v>
       </c>
       <c r="F148" s="31"/>
       <c r="G148" s="31"/>
@@ -10737,13 +10736,13 @@
         <v>47</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D149" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="E149" s="29" t="s">
         <v>367</v>
-      </c>
-      <c r="E149" s="29" t="s">
-        <v>368</v>
       </c>
       <c r="F149" s="31"/>
       <c r="G149" s="31"/>
@@ -10774,13 +10773,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D150" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="E150" s="29" t="s">
         <v>369</v>
-      </c>
-      <c r="E150" s="29" t="s">
-        <v>370</v>
       </c>
       <c r="F150" s="31"/>
       <c r="G150" s="31"/>
@@ -10811,10 +10810,10 @@
         <v>47</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E151" s="36" t="s">
         <v>53</v>
@@ -10848,10 +10847,10 @@
         <v>47</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E152" s="36" t="s">
         <v>79</v>
@@ -10885,13 +10884,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D153" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="E153" s="29" t="s">
         <v>373</v>
-      </c>
-      <c r="E153" s="29" t="s">
-        <v>374</v>
       </c>
       <c r="F153" s="31"/>
       <c r="G153" s="31"/>
@@ -10922,13 +10921,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D154" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="E154" s="29" t="s">
         <v>375</v>
-      </c>
-      <c r="E154" s="29" t="s">
-        <v>376</v>
       </c>
       <c r="F154" s="31"/>
       <c r="G154" s="31"/>
@@ -10959,13 +10958,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D155" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="E155" s="29" t="s">
         <v>377</v>
-      </c>
-      <c r="E155" s="29" t="s">
-        <v>378</v>
       </c>
       <c r="F155" s="31"/>
       <c r="G155" s="31"/>
@@ -10996,13 +10995,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D156" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="E156" s="29" t="s">
         <v>379</v>
-      </c>
-      <c r="E156" s="29" t="s">
-        <v>380</v>
       </c>
       <c r="F156" s="31"/>
       <c r="G156" s="31"/>
@@ -11033,13 +11032,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D157" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="E157" s="29" t="s">
         <v>381</v>
-      </c>
-      <c r="E157" s="29" t="s">
-        <v>382</v>
       </c>
       <c r="F157" s="31"/>
       <c r="G157" s="31"/>
@@ -11070,13 +11069,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D158" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="E158" s="29" t="s">
         <v>383</v>
-      </c>
-      <c r="E158" s="29" t="s">
-        <v>384</v>
       </c>
       <c r="F158" s="31"/>
       <c r="G158" s="31"/>
@@ -11107,13 +11106,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D159" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="E159" s="29" t="s">
         <v>385</v>
-      </c>
-      <c r="E159" s="29" t="s">
-        <v>386</v>
       </c>
       <c r="F159" s="31"/>
       <c r="G159" s="31"/>
@@ -11144,13 +11143,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D160" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E160" s="29" t="s">
         <v>387</v>
-      </c>
-      <c r="E160" s="29" t="s">
-        <v>388</v>
       </c>
       <c r="F160" s="31"/>
       <c r="G160" s="31"/>
@@ -11181,13 +11180,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D161" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E161" s="29" t="s">
         <v>389</v>
-      </c>
-      <c r="E161" s="29" t="s">
-        <v>390</v>
       </c>
       <c r="F161" s="31"/>
       <c r="G161" s="31"/>
@@ -11218,13 +11217,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D162" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="E162" s="29" t="s">
         <v>391</v>
-      </c>
-      <c r="E162" s="29" t="s">
-        <v>392</v>
       </c>
       <c r="F162" s="31"/>
       <c r="G162" s="31"/>
@@ -11255,13 +11254,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D163" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="E163" s="29" t="s">
         <v>393</v>
-      </c>
-      <c r="E163" s="29" t="s">
-        <v>394</v>
       </c>
       <c r="F163" s="31"/>
       <c r="G163" s="31"/>
@@ -11295,10 +11294,10 @@
         <v>57</v>
       </c>
       <c r="D164" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="E164" s="29" t="s">
         <v>395</v>
-      </c>
-      <c r="E164" s="29" t="s">
-        <v>396</v>
       </c>
       <c r="F164" s="31"/>
       <c r="G164" s="31"/>
@@ -11332,10 +11331,10 @@
         <v>57</v>
       </c>
       <c r="D165" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="E165" s="29" t="s">
         <v>397</v>
-      </c>
-      <c r="E165" s="29" t="s">
-        <v>398</v>
       </c>
       <c r="F165" s="31"/>
       <c r="G165" s="31"/>
@@ -11369,21 +11368,27 @@
         <v>68</v>
       </c>
       <c r="D166" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="E166" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="E166" s="29" t="s">
+      <c r="F166" s="31" t="n">
+        <v>45973</v>
+      </c>
+      <c r="G166" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="F166" s="31"/>
-      <c r="G166" s="38"/>
-      <c r="H166" s="38"/>
-      <c r="I166" s="39"/>
+      <c r="H166" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="I166" s="39" t="s">
+        <v>402</v>
+      </c>
       <c r="J166" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="K166" s="32" t="s">
-        <v>180</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K166" s="32"/>
       <c r="L166" s="32"/>
       <c r="M166" s="32"/>
       <c r="N166" s="32"/>
@@ -11410,10 +11415,10 @@
         <v>68</v>
       </c>
       <c r="D167" s="28" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E167" s="29" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F167" s="31"/>
       <c r="G167" s="31"/>
@@ -11423,7 +11428,7 @@
         <v>66</v>
       </c>
       <c r="K167" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L167" s="32"/>
       <c r="M167" s="32"/>
@@ -11451,10 +11456,10 @@
         <v>55</v>
       </c>
       <c r="D168" s="28" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E168" s="29" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F168" s="31"/>
       <c r="G168" s="31"/>
@@ -11488,10 +11493,10 @@
         <v>55</v>
       </c>
       <c r="D169" s="28" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E169" s="29" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F169" s="31"/>
       <c r="G169" s="31"/>
@@ -11525,10 +11530,10 @@
         <v>48</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E170" s="29" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F170" s="31"/>
       <c r="G170" s="31"/>
@@ -11562,10 +11567,10 @@
         <v>76</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E171" s="29" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F171" s="31"/>
       <c r="G171" s="31"/>
@@ -11599,10 +11604,10 @@
         <v>76</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E172" s="29" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F172" s="31"/>
       <c r="G172" s="31"/>
@@ -11636,10 +11641,10 @@
         <v>74</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E173" s="29" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F173" s="31"/>
       <c r="G173" s="31"/>
@@ -11673,10 +11678,10 @@
         <v>74</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E174" s="29" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F174" s="31"/>
       <c r="G174" s="31"/>
@@ -11710,10 +11715,10 @@
         <v>72</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E175" s="29" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F175" s="31"/>
       <c r="G175" s="31"/>
@@ -11747,10 +11752,10 @@
         <v>72</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E176" s="29" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F176" s="31"/>
       <c r="G176" s="31"/>
@@ -11781,13 +11786,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E177" s="29" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F177" s="31"/>
       <c r="G177" s="31"/>
@@ -11821,10 +11826,10 @@
         <v>68</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E178" s="29" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F178" s="28"/>
       <c r="G178" s="28"/>
@@ -11834,7 +11839,7 @@
         <v>66</v>
       </c>
       <c r="K178" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L178" s="28"/>
       <c r="M178" s="32"/>
@@ -11862,22 +11867,22 @@
         <v>59</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E179" s="29" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F179" s="31" t="n">
         <v>45965</v>
       </c>
       <c r="G179" s="28" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H179" s="28" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I179" s="28" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J179" s="32" t="s">
         <v>64</v>
@@ -11891,7 +11896,7 @@
         <v>64</v>
       </c>
       <c r="O179" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P179" s="32" t="s">
         <v>64</v>
@@ -11903,7 +11908,7 @@
         <v>64</v>
       </c>
       <c r="S179" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T179" s="32"/>
       <c r="U179" s="28"/>
@@ -11923,10 +11928,10 @@
         <v>76</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E180" s="29" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F180" s="28"/>
       <c r="G180" s="28"/>
@@ -11960,10 +11965,10 @@
         <v>72</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E181" s="29" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F181" s="28"/>
       <c r="G181" s="28"/>
@@ -11997,10 +12002,10 @@
         <v>74</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E182" s="29" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F182" s="28"/>
       <c r="G182" s="28"/>
@@ -12034,10 +12039,10 @@
         <v>48</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E183" s="29" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F183" s="28"/>
       <c r="G183" s="28"/>
@@ -12071,10 +12076,10 @@
         <v>55</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E184" s="29" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F184" s="28"/>
       <c r="G184" s="28"/>
@@ -12108,10 +12113,10 @@
         <v>68</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E185" s="29" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F185" s="28"/>
       <c r="G185" s="28"/>
@@ -12121,7 +12126,7 @@
         <v>66</v>
       </c>
       <c r="K185" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L185" s="28"/>
       <c r="M185" s="32"/>
@@ -12149,10 +12154,10 @@
         <v>57</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E186" s="29" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F186" s="28"/>
       <c r="G186" s="28"/>
@@ -12183,13 +12188,13 @@
         <v>47</v>
       </c>
       <c r="C187" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E187" s="29" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F187" s="28"/>
       <c r="G187" s="28"/>
@@ -12223,21 +12228,27 @@
         <v>59</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E188" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="F188" s="31"/>
-      <c r="G188" s="38"/>
-      <c r="H188" s="38"/>
-      <c r="I188" s="39"/>
+        <v>449</v>
+      </c>
+      <c r="F188" s="31" t="n">
+        <v>45973</v>
+      </c>
+      <c r="G188" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="H188" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="I188" s="39" t="s">
+        <v>452</v>
+      </c>
       <c r="J188" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="K188" s="32" t="s">
-        <v>180</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K188" s="32"/>
       <c r="L188" s="32"/>
       <c r="M188" s="32"/>
       <c r="N188" s="32"/>
@@ -12264,10 +12275,10 @@
         <v>59</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="E189" s="29" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="F189" s="31"/>
       <c r="G189" s="31"/>
@@ -12277,7 +12288,7 @@
         <v>66</v>
       </c>
       <c r="K189" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L189" s="32"/>
       <c r="M189" s="32"/>
@@ -12305,10 +12316,10 @@
         <v>48</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E190" s="29" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="F190" s="31"/>
       <c r="G190" s="31"/>
@@ -12342,10 +12353,10 @@
         <v>59</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E191" s="29" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="F191" s="31"/>
       <c r="G191" s="31"/>
@@ -12355,7 +12366,7 @@
         <v>66</v>
       </c>
       <c r="K191" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L191" s="32"/>
       <c r="M191" s="32"/>
@@ -12383,10 +12394,10 @@
         <v>68</v>
       </c>
       <c r="D192" s="28" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E192" s="29" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="F192" s="31"/>
       <c r="G192" s="31"/>
@@ -12396,7 +12407,7 @@
         <v>66</v>
       </c>
       <c r="K192" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L192" s="32"/>
       <c r="M192" s="32"/>
@@ -16461,9 +16472,6 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E22" r:id="rId2" display="Precondizioni:&#10;Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.&#10;&#10;Descrizione di Business del caso di test: &#10;Viene richiamato il servizio di validazione &quot;https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation&quot; con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.&#10; &#10;Al fine di rendere non valido il token è necessario valorizzare il campo &quot;action_id&quot; con la stringa &quot;TEST&quot; (valore non ammesso)."/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -16471,8 +16479,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -16487,49 +16495,49 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="1" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
-        <v>456</v>
+      <c r="A1" s="40" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>180</v>
+      <c r="A2" s="40" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>457</v>
+      <c r="A3" s="40" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
-        <v>458</v>
+      <c r="A4" s="40" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
-        <v>459</v>
+      <c r="A5" s="40" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
-        <v>460</v>
+      <c r="A6" s="40" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
-        <v>142</v>
+      <c r="A7" s="40" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
-        <v>461</v>
+      <c r="A8" s="40" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17548,7 +17556,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.86"/>
@@ -17560,3133 +17568,3133 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
-        <v>462</v>
+      <c r="A1" s="41" t="s">
+        <v>467</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>465</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>466</v>
+        <v>469</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>468</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>469</v>
+      <c r="B2" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>471</v>
+      <c r="B3" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>473</v>
+      <c r="C4" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>474</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>475</v>
+      <c r="B5" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>476</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>477</v>
+      <c r="B6" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>478</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>479</v>
+      <c r="B7" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>481</v>
+      <c r="B8" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>482</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>483</v>
+      <c r="B9" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="45" t="s">
-        <v>484</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>485</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>486</v>
+      <c r="A10" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45" t="s">
-        <v>364</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>488</v>
+      <c r="A11" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>492</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="A12" s="40"/>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41"/>
-      <c r="D13" s="41"/>
+      <c r="A13" s="40"/>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41"/>
+      <c r="A14" s="40"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41"/>
+      <c r="A15" s="40"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41"/>
+      <c r="A16" s="40"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41"/>
+      <c r="A17" s="40"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41"/>
+      <c r="A18" s="40"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41"/>
+      <c r="A19" s="40"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41"/>
+      <c r="A20" s="40"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41"/>
+      <c r="A21" s="40"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="41"/>
+      <c r="A22" s="40"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41"/>
+      <c r="A23" s="40"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41"/>
+      <c r="A24" s="40"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41"/>
+      <c r="A25" s="40"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="41"/>
+      <c r="A26" s="40"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41"/>
+      <c r="A27" s="40"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="41"/>
+      <c r="A28" s="40"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41"/>
+      <c r="A29" s="40"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41"/>
+      <c r="A30" s="40"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="41"/>
+      <c r="A31" s="40"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="41"/>
+      <c r="A32" s="40"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41"/>
+      <c r="A33" s="40"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="41"/>
+      <c r="A34" s="40"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="41"/>
+      <c r="A35" s="40"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="41"/>
+      <c r="A36" s="40"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="41"/>
+      <c r="A37" s="40"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41"/>
+      <c r="A38" s="40"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="41"/>
+      <c r="A39" s="40"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="41"/>
+      <c r="A40" s="40"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="41"/>
+      <c r="A41" s="40"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="41"/>
+      <c r="A42" s="40"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="41"/>
+      <c r="A43" s="40"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="41"/>
+      <c r="A44" s="40"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="41"/>
+      <c r="A45" s="40"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="41"/>
+      <c r="A46" s="40"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="41"/>
+      <c r="A47" s="40"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="41"/>
+      <c r="A48" s="40"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="41"/>
+      <c r="A49" s="40"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="41"/>
+      <c r="A50" s="40"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="41"/>
+      <c r="A51" s="40"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="41"/>
+      <c r="A52" s="40"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="41"/>
+      <c r="A53" s="40"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="41"/>
+      <c r="A54" s="40"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="41"/>
+      <c r="A55" s="40"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41"/>
+      <c r="A56" s="40"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41"/>
+      <c r="A57" s="40"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="41"/>
+      <c r="A58" s="40"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="41"/>
+      <c r="A59" s="40"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="41"/>
+      <c r="A60" s="40"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="41"/>
+      <c r="A61" s="40"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="41"/>
+      <c r="A62" s="40"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="41"/>
+      <c r="A63" s="40"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="41"/>
+      <c r="A64" s="40"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="41"/>
+      <c r="A65" s="40"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="41"/>
+      <c r="A66" s="40"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="41"/>
+      <c r="A67" s="40"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="41"/>
+      <c r="A68" s="40"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="41"/>
+      <c r="A69" s="40"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="41"/>
+      <c r="A70" s="40"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="41"/>
+      <c r="A71" s="40"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="41"/>
+      <c r="A72" s="40"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="41"/>
+      <c r="A73" s="40"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="41"/>
+      <c r="A74" s="40"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="41"/>
+      <c r="A75" s="40"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="41"/>
+      <c r="A76" s="40"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="41"/>
+      <c r="A77" s="40"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="41"/>
+      <c r="A78" s="40"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="41"/>
+      <c r="A79" s="40"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="41"/>
+      <c r="A80" s="40"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="41"/>
+      <c r="A81" s="40"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="41"/>
+      <c r="A82" s="40"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="41"/>
+      <c r="A83" s="40"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="41"/>
+      <c r="A84" s="40"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="41"/>
+      <c r="A85" s="40"/>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="41"/>
+      <c r="A86" s="40"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="41"/>
+      <c r="A87" s="40"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="41"/>
+      <c r="A88" s="40"/>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="41"/>
+      <c r="A89" s="40"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="41"/>
+      <c r="A90" s="40"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="41"/>
+      <c r="A91" s="40"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="41"/>
+      <c r="A92" s="40"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="41"/>
+      <c r="A93" s="40"/>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="41"/>
+      <c r="A94" s="40"/>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="41"/>
+      <c r="A95" s="40"/>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="41"/>
+      <c r="A96" s="40"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="41"/>
+      <c r="A97" s="40"/>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="41"/>
+      <c r="A98" s="40"/>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="41"/>
+      <c r="A99" s="40"/>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="41"/>
+      <c r="A100" s="40"/>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="41"/>
+      <c r="A101" s="40"/>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="41"/>
+      <c r="A102" s="40"/>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="41"/>
+      <c r="A103" s="40"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="41"/>
+      <c r="A104" s="40"/>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="41"/>
+      <c r="A105" s="40"/>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="41"/>
+      <c r="A106" s="40"/>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="41"/>
+      <c r="A107" s="40"/>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="41"/>
+      <c r="A108" s="40"/>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="41"/>
+      <c r="A109" s="40"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="41"/>
+      <c r="A110" s="40"/>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="41"/>
+      <c r="A111" s="40"/>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="41"/>
+      <c r="A112" s="40"/>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="41"/>
+      <c r="A113" s="40"/>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="41"/>
+      <c r="A114" s="40"/>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="41"/>
+      <c r="A115" s="40"/>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="41"/>
+      <c r="A116" s="40"/>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="41"/>
+      <c r="A117" s="40"/>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="41"/>
+      <c r="A118" s="40"/>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="41"/>
+      <c r="A119" s="40"/>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="41"/>
+      <c r="A120" s="40"/>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="41"/>
+      <c r="A121" s="40"/>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="41"/>
+      <c r="A122" s="40"/>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="41"/>
+      <c r="A123" s="40"/>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="41"/>
+      <c r="A124" s="40"/>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="41"/>
+      <c r="A125" s="40"/>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="41"/>
+      <c r="A126" s="40"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="41"/>
+      <c r="A127" s="40"/>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="41"/>
+      <c r="A128" s="40"/>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="41"/>
+      <c r="A129" s="40"/>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="41"/>
+      <c r="A130" s="40"/>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="41"/>
+      <c r="A131" s="40"/>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="41"/>
+      <c r="A132" s="40"/>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="41"/>
+      <c r="A133" s="40"/>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="41"/>
+      <c r="A134" s="40"/>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="41"/>
+      <c r="A135" s="40"/>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="41"/>
+      <c r="A136" s="40"/>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="41"/>
+      <c r="A137" s="40"/>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="41"/>
+      <c r="A138" s="40"/>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="41"/>
+      <c r="A139" s="40"/>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="41"/>
+      <c r="A140" s="40"/>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="41"/>
+      <c r="A141" s="40"/>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="41"/>
+      <c r="A142" s="40"/>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="41"/>
+      <c r="A143" s="40"/>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="41"/>
+      <c r="A144" s="40"/>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="41"/>
+      <c r="A145" s="40"/>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="41"/>
+      <c r="A146" s="40"/>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="41"/>
+      <c r="A147" s="40"/>
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="41"/>
+      <c r="A148" s="40"/>
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="41"/>
+      <c r="A149" s="40"/>
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="41"/>
+      <c r="A150" s="40"/>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="41"/>
+      <c r="A151" s="40"/>
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="41"/>
+      <c r="A152" s="40"/>
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="41"/>
+      <c r="A153" s="40"/>
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="41"/>
+      <c r="A154" s="40"/>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="41"/>
+      <c r="A155" s="40"/>
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="41"/>
+      <c r="A156" s="40"/>
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="41"/>
+      <c r="A157" s="40"/>
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="41"/>
+      <c r="A158" s="40"/>
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="41"/>
+      <c r="A159" s="40"/>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="41"/>
+      <c r="A160" s="40"/>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="41"/>
+      <c r="A161" s="40"/>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="41"/>
+      <c r="A162" s="40"/>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="41"/>
+      <c r="A163" s="40"/>
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="41"/>
+      <c r="A164" s="40"/>
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="41"/>
+      <c r="A165" s="40"/>
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="41"/>
+      <c r="A166" s="40"/>
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="41"/>
+      <c r="A167" s="40"/>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="41"/>
+      <c r="A168" s="40"/>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="41"/>
+      <c r="A169" s="40"/>
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="41"/>
+      <c r="A170" s="40"/>
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="41"/>
+      <c r="A171" s="40"/>
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="41"/>
+      <c r="A172" s="40"/>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="41"/>
+      <c r="A173" s="40"/>
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="41"/>
+      <c r="A174" s="40"/>
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="41"/>
+      <c r="A175" s="40"/>
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="41"/>
+      <c r="A176" s="40"/>
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="41"/>
+      <c r="A177" s="40"/>
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="41"/>
+      <c r="A178" s="40"/>
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="41"/>
+      <c r="A179" s="40"/>
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="41"/>
+      <c r="A180" s="40"/>
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="41"/>
+      <c r="A181" s="40"/>
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="41"/>
+      <c r="A182" s="40"/>
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="41"/>
+      <c r="A183" s="40"/>
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="41"/>
+      <c r="A184" s="40"/>
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="41"/>
+      <c r="A185" s="40"/>
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="41"/>
+      <c r="A186" s="40"/>
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="41"/>
+      <c r="A187" s="40"/>
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="41"/>
+      <c r="A188" s="40"/>
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="41"/>
+      <c r="A189" s="40"/>
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="41"/>
+      <c r="A190" s="40"/>
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="41"/>
+      <c r="A191" s="40"/>
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="41"/>
+      <c r="A192" s="40"/>
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="41"/>
+      <c r="A193" s="40"/>
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="41"/>
+      <c r="A194" s="40"/>
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="41"/>
+      <c r="A195" s="40"/>
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="41"/>
+      <c r="A196" s="40"/>
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="41"/>
+      <c r="A197" s="40"/>
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="41"/>
+      <c r="A198" s="40"/>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="41"/>
+      <c r="A199" s="40"/>
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="41"/>
+      <c r="A200" s="40"/>
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="41"/>
+      <c r="A201" s="40"/>
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="41"/>
+      <c r="A202" s="40"/>
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="41"/>
+      <c r="A203" s="40"/>
     </row>
     <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="41"/>
+      <c r="A204" s="40"/>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="41"/>
+      <c r="A205" s="40"/>
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="41"/>
+      <c r="A206" s="40"/>
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="41"/>
+      <c r="A207" s="40"/>
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="41"/>
+      <c r="A208" s="40"/>
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="41"/>
+      <c r="A209" s="40"/>
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="41"/>
+      <c r="A210" s="40"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="41"/>
+      <c r="A211" s="40"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="41"/>
+      <c r="A212" s="40"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="41"/>
+      <c r="A213" s="40"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="41"/>
+      <c r="A214" s="40"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="41"/>
+      <c r="A215" s="40"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="41"/>
+      <c r="A216" s="40"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="41"/>
+      <c r="A217" s="40"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="41"/>
+      <c r="A218" s="40"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="41"/>
+      <c r="A219" s="40"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="41"/>
+      <c r="A220" s="40"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="41"/>
+      <c r="A221" s="40"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="41"/>
+      <c r="A222" s="40"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="41"/>
+      <c r="A223" s="40"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="41"/>
+      <c r="A224" s="40"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="41"/>
+      <c r="A225" s="40"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="41"/>
+      <c r="A226" s="40"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="41"/>
+      <c r="A227" s="40"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="41"/>
+      <c r="A228" s="40"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="41"/>
+      <c r="A229" s="40"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="41"/>
+      <c r="A230" s="40"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="41"/>
+      <c r="A231" s="40"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="41"/>
+      <c r="A232" s="40"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="41"/>
+      <c r="A233" s="40"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="41"/>
+      <c r="A234" s="40"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="41"/>
+      <c r="A235" s="40"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="41"/>
+      <c r="A236" s="40"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="41"/>
+      <c r="A237" s="40"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="41"/>
+      <c r="A238" s="40"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="41"/>
+      <c r="A239" s="40"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="41"/>
+      <c r="A240" s="40"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="41"/>
+      <c r="A241" s="40"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="41"/>
+      <c r="A242" s="40"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="41"/>
+      <c r="A243" s="40"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="41"/>
+      <c r="A244" s="40"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="41"/>
+      <c r="A245" s="40"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="41"/>
+      <c r="A246" s="40"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="41"/>
+      <c r="A247" s="40"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="41"/>
+      <c r="A248" s="40"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="41"/>
+      <c r="A249" s="40"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="41"/>
+      <c r="A250" s="40"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="41"/>
+      <c r="A251" s="40"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="41"/>
+      <c r="A252" s="40"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="41"/>
+      <c r="A253" s="40"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="41"/>
+      <c r="A254" s="40"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="41"/>
+      <c r="A255" s="40"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="41"/>
+      <c r="A256" s="40"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="41"/>
+      <c r="A257" s="40"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="41"/>
+      <c r="A258" s="40"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="41"/>
+      <c r="A259" s="40"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="41"/>
+      <c r="A260" s="40"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="41"/>
+      <c r="A261" s="40"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="41"/>
+      <c r="A262" s="40"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="41"/>
+      <c r="A263" s="40"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="41"/>
+      <c r="A264" s="40"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="41"/>
+      <c r="A265" s="40"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="41"/>
+      <c r="A266" s="40"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A267" s="41"/>
+      <c r="A267" s="40"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A268" s="41"/>
+      <c r="A268" s="40"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="41"/>
+      <c r="A269" s="40"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A270" s="41"/>
+      <c r="A270" s="40"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="41"/>
+      <c r="A271" s="40"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="41"/>
+      <c r="A272" s="40"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="41"/>
+      <c r="A273" s="40"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="41"/>
+      <c r="A274" s="40"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="41"/>
+      <c r="A275" s="40"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="41"/>
+      <c r="A276" s="40"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A277" s="41"/>
+      <c r="A277" s="40"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A278" s="41"/>
+      <c r="A278" s="40"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A279" s="41"/>
+      <c r="A279" s="40"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A280" s="41"/>
+      <c r="A280" s="40"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A281" s="41"/>
+      <c r="A281" s="40"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A282" s="41"/>
+      <c r="A282" s="40"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A283" s="41"/>
+      <c r="A283" s="40"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A284" s="41"/>
+      <c r="A284" s="40"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A285" s="41"/>
+      <c r="A285" s="40"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A286" s="41"/>
+      <c r="A286" s="40"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A287" s="41"/>
+      <c r="A287" s="40"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A288" s="41"/>
+      <c r="A288" s="40"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A289" s="41"/>
+      <c r="A289" s="40"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="41"/>
+      <c r="A290" s="40"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A291" s="41"/>
+      <c r="A291" s="40"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A292" s="41"/>
+      <c r="A292" s="40"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A293" s="41"/>
+      <c r="A293" s="40"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A294" s="41"/>
+      <c r="A294" s="40"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="41"/>
+      <c r="A295" s="40"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A296" s="41"/>
+      <c r="A296" s="40"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A297" s="41"/>
+      <c r="A297" s="40"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A298" s="41"/>
+      <c r="A298" s="40"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="41"/>
+      <c r="A299" s="40"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A300" s="41"/>
+      <c r="A300" s="40"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A301" s="41"/>
+      <c r="A301" s="40"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A302" s="41"/>
+      <c r="A302" s="40"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A303" s="41"/>
+      <c r="A303" s="40"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A304" s="41"/>
+      <c r="A304" s="40"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A305" s="41"/>
+      <c r="A305" s="40"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A306" s="41"/>
+      <c r="A306" s="40"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A307" s="41"/>
+      <c r="A307" s="40"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A308" s="41"/>
+      <c r="A308" s="40"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A309" s="41"/>
+      <c r="A309" s="40"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="41"/>
+      <c r="A310" s="40"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="41"/>
+      <c r="A311" s="40"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A312" s="41"/>
+      <c r="A312" s="40"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="41"/>
+      <c r="A313" s="40"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A314" s="41"/>
+      <c r="A314" s="40"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A315" s="41"/>
+      <c r="A315" s="40"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A316" s="41"/>
+      <c r="A316" s="40"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A317" s="41"/>
+      <c r="A317" s="40"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="41"/>
+      <c r="A318" s="40"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A319" s="41"/>
+      <c r="A319" s="40"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A320" s="41"/>
+      <c r="A320" s="40"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A321" s="41"/>
+      <c r="A321" s="40"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="41"/>
+      <c r="A322" s="40"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A323" s="41"/>
+      <c r="A323" s="40"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A324" s="41"/>
+      <c r="A324" s="40"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A325" s="41"/>
+      <c r="A325" s="40"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A326" s="41"/>
+      <c r="A326" s="40"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A327" s="41"/>
+      <c r="A327" s="40"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="41"/>
+      <c r="A328" s="40"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A329" s="41"/>
+      <c r="A329" s="40"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A330" s="41"/>
+      <c r="A330" s="40"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A331" s="41"/>
+      <c r="A331" s="40"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A332" s="41"/>
+      <c r="A332" s="40"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A333" s="41"/>
+      <c r="A333" s="40"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A334" s="41"/>
+      <c r="A334" s="40"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A335" s="41"/>
+      <c r="A335" s="40"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A336" s="41"/>
+      <c r="A336" s="40"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A337" s="41"/>
+      <c r="A337" s="40"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A338" s="41"/>
+      <c r="A338" s="40"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A339" s="41"/>
+      <c r="A339" s="40"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A340" s="41"/>
+      <c r="A340" s="40"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A341" s="41"/>
+      <c r="A341" s="40"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A342" s="41"/>
+      <c r="A342" s="40"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A343" s="41"/>
+      <c r="A343" s="40"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A344" s="41"/>
+      <c r="A344" s="40"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A345" s="41"/>
+      <c r="A345" s="40"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A346" s="41"/>
+      <c r="A346" s="40"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A347" s="41"/>
+      <c r="A347" s="40"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A348" s="41"/>
+      <c r="A348" s="40"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A349" s="41"/>
+      <c r="A349" s="40"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A350" s="41"/>
+      <c r="A350" s="40"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A351" s="41"/>
+      <c r="A351" s="40"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="41"/>
+      <c r="A352" s="40"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A353" s="41"/>
+      <c r="A353" s="40"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A354" s="41"/>
+      <c r="A354" s="40"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A355" s="41"/>
+      <c r="A355" s="40"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A356" s="41"/>
+      <c r="A356" s="40"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A357" s="41"/>
+      <c r="A357" s="40"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A358" s="41"/>
+      <c r="A358" s="40"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A359" s="41"/>
+      <c r="A359" s="40"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A360" s="41"/>
+      <c r="A360" s="40"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A361" s="41"/>
+      <c r="A361" s="40"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A362" s="41"/>
+      <c r="A362" s="40"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A363" s="41"/>
+      <c r="A363" s="40"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A364" s="41"/>
+      <c r="A364" s="40"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A365" s="41"/>
+      <c r="A365" s="40"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A366" s="41"/>
+      <c r="A366" s="40"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A367" s="41"/>
+      <c r="A367" s="40"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A368" s="41"/>
+      <c r="A368" s="40"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A369" s="41"/>
+      <c r="A369" s="40"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A370" s="41"/>
+      <c r="A370" s="40"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A371" s="41"/>
+      <c r="A371" s="40"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A372" s="41"/>
+      <c r="A372" s="40"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A373" s="41"/>
+      <c r="A373" s="40"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A374" s="41"/>
+      <c r="A374" s="40"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A375" s="41"/>
+      <c r="A375" s="40"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A376" s="41"/>
+      <c r="A376" s="40"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A377" s="41"/>
+      <c r="A377" s="40"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A378" s="41"/>
+      <c r="A378" s="40"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A379" s="41"/>
+      <c r="A379" s="40"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A380" s="41"/>
+      <c r="A380" s="40"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A381" s="41"/>
+      <c r="A381" s="40"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A382" s="41"/>
+      <c r="A382" s="40"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A383" s="41"/>
+      <c r="A383" s="40"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A384" s="41"/>
+      <c r="A384" s="40"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A385" s="41"/>
+      <c r="A385" s="40"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A386" s="41"/>
+      <c r="A386" s="40"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A387" s="41"/>
+      <c r="A387" s="40"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A388" s="41"/>
+      <c r="A388" s="40"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A389" s="41"/>
+      <c r="A389" s="40"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A390" s="41"/>
+      <c r="A390" s="40"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A391" s="41"/>
+      <c r="A391" s="40"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A392" s="41"/>
+      <c r="A392" s="40"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A393" s="41"/>
+      <c r="A393" s="40"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A394" s="41"/>
+      <c r="A394" s="40"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A395" s="41"/>
+      <c r="A395" s="40"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A396" s="41"/>
+      <c r="A396" s="40"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A397" s="41"/>
+      <c r="A397" s="40"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A398" s="41"/>
+      <c r="A398" s="40"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A399" s="41"/>
+      <c r="A399" s="40"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A400" s="41"/>
+      <c r="A400" s="40"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A401" s="41"/>
+      <c r="A401" s="40"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A402" s="41"/>
+      <c r="A402" s="40"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A403" s="41"/>
+      <c r="A403" s="40"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A404" s="41"/>
+      <c r="A404" s="40"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A405" s="41"/>
+      <c r="A405" s="40"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A406" s="41"/>
+      <c r="A406" s="40"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A407" s="41"/>
+      <c r="A407" s="40"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A408" s="41"/>
+      <c r="A408" s="40"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A409" s="41"/>
+      <c r="A409" s="40"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A410" s="41"/>
+      <c r="A410" s="40"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A411" s="41"/>
+      <c r="A411" s="40"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A412" s="41"/>
+      <c r="A412" s="40"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A413" s="41"/>
+      <c r="A413" s="40"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A414" s="41"/>
+      <c r="A414" s="40"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A415" s="41"/>
+      <c r="A415" s="40"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A416" s="41"/>
+      <c r="A416" s="40"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A417" s="41"/>
+      <c r="A417" s="40"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A418" s="41"/>
+      <c r="A418" s="40"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A419" s="41"/>
+      <c r="A419" s="40"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A420" s="41"/>
+      <c r="A420" s="40"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A421" s="41"/>
+      <c r="A421" s="40"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A422" s="41"/>
+      <c r="A422" s="40"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A423" s="41"/>
+      <c r="A423" s="40"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A424" s="41"/>
+      <c r="A424" s="40"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A425" s="41"/>
+      <c r="A425" s="40"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A426" s="41"/>
+      <c r="A426" s="40"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A427" s="41"/>
+      <c r="A427" s="40"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A428" s="41"/>
+      <c r="A428" s="40"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A429" s="41"/>
+      <c r="A429" s="40"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A430" s="41"/>
+      <c r="A430" s="40"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A431" s="41"/>
+      <c r="A431" s="40"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A432" s="41"/>
+      <c r="A432" s="40"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A433" s="41"/>
+      <c r="A433" s="40"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A434" s="41"/>
+      <c r="A434" s="40"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A435" s="41"/>
+      <c r="A435" s="40"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A436" s="41"/>
+      <c r="A436" s="40"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A437" s="41"/>
+      <c r="A437" s="40"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A438" s="41"/>
+      <c r="A438" s="40"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A439" s="41"/>
+      <c r="A439" s="40"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A440" s="41"/>
+      <c r="A440" s="40"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A441" s="41"/>
+      <c r="A441" s="40"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A442" s="41"/>
+      <c r="A442" s="40"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A443" s="41"/>
+      <c r="A443" s="40"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A444" s="41"/>
+      <c r="A444" s="40"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A445" s="41"/>
+      <c r="A445" s="40"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A446" s="41"/>
+      <c r="A446" s="40"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A447" s="41"/>
+      <c r="A447" s="40"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A448" s="41"/>
+      <c r="A448" s="40"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A449" s="41"/>
+      <c r="A449" s="40"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A450" s="41"/>
+      <c r="A450" s="40"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A451" s="41"/>
+      <c r="A451" s="40"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A452" s="41"/>
+      <c r="A452" s="40"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A453" s="41"/>
+      <c r="A453" s="40"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A454" s="41"/>
+      <c r="A454" s="40"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A455" s="41"/>
+      <c r="A455" s="40"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A456" s="41"/>
+      <c r="A456" s="40"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A457" s="41"/>
+      <c r="A457" s="40"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A458" s="41"/>
+      <c r="A458" s="40"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A459" s="41"/>
+      <c r="A459" s="40"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A460" s="41"/>
+      <c r="A460" s="40"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A461" s="41"/>
+      <c r="A461" s="40"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A462" s="41"/>
+      <c r="A462" s="40"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A463" s="41"/>
+      <c r="A463" s="40"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A464" s="41"/>
+      <c r="A464" s="40"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A465" s="41"/>
+      <c r="A465" s="40"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A466" s="41"/>
+      <c r="A466" s="40"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A467" s="41"/>
+      <c r="A467" s="40"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A468" s="41"/>
+      <c r="A468" s="40"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A469" s="41"/>
+      <c r="A469" s="40"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A470" s="41"/>
+      <c r="A470" s="40"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A471" s="41"/>
+      <c r="A471" s="40"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A472" s="41"/>
+      <c r="A472" s="40"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A473" s="41"/>
+      <c r="A473" s="40"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A474" s="41"/>
+      <c r="A474" s="40"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A475" s="41"/>
+      <c r="A475" s="40"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A476" s="41"/>
+      <c r="A476" s="40"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A477" s="41"/>
+      <c r="A477" s="40"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A478" s="41"/>
+      <c r="A478" s="40"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A479" s="41"/>
+      <c r="A479" s="40"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A480" s="41"/>
+      <c r="A480" s="40"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A481" s="41"/>
+      <c r="A481" s="40"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A482" s="41"/>
+      <c r="A482" s="40"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A483" s="41"/>
+      <c r="A483" s="40"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A484" s="41"/>
+      <c r="A484" s="40"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A485" s="41"/>
+      <c r="A485" s="40"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A486" s="41"/>
+      <c r="A486" s="40"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A487" s="41"/>
+      <c r="A487" s="40"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A488" s="41"/>
+      <c r="A488" s="40"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A489" s="41"/>
+      <c r="A489" s="40"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A490" s="41"/>
+      <c r="A490" s="40"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A491" s="41"/>
+      <c r="A491" s="40"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A492" s="41"/>
+      <c r="A492" s="40"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A493" s="41"/>
+      <c r="A493" s="40"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A494" s="41"/>
+      <c r="A494" s="40"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A495" s="41"/>
+      <c r="A495" s="40"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A496" s="41"/>
+      <c r="A496" s="40"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A497" s="41"/>
+      <c r="A497" s="40"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A498" s="41"/>
+      <c r="A498" s="40"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A499" s="41"/>
+      <c r="A499" s="40"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A500" s="41"/>
+      <c r="A500" s="40"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A501" s="41"/>
+      <c r="A501" s="40"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A502" s="41"/>
+      <c r="A502" s="40"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A503" s="41"/>
+      <c r="A503" s="40"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A504" s="41"/>
+      <c r="A504" s="40"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A505" s="41"/>
+      <c r="A505" s="40"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A506" s="41"/>
+      <c r="A506" s="40"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A507" s="41"/>
+      <c r="A507" s="40"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A508" s="41"/>
+      <c r="A508" s="40"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A509" s="41"/>
+      <c r="A509" s="40"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A510" s="41"/>
+      <c r="A510" s="40"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A511" s="41"/>
+      <c r="A511" s="40"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A512" s="41"/>
+      <c r="A512" s="40"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A513" s="41"/>
+      <c r="A513" s="40"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A514" s="41"/>
+      <c r="A514" s="40"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A515" s="41"/>
+      <c r="A515" s="40"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A516" s="41"/>
+      <c r="A516" s="40"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A517" s="41"/>
+      <c r="A517" s="40"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A518" s="41"/>
+      <c r="A518" s="40"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A519" s="41"/>
+      <c r="A519" s="40"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A520" s="41"/>
+      <c r="A520" s="40"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A521" s="41"/>
+      <c r="A521" s="40"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A522" s="41"/>
+      <c r="A522" s="40"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A523" s="41"/>
+      <c r="A523" s="40"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A524" s="41"/>
+      <c r="A524" s="40"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A525" s="41"/>
+      <c r="A525" s="40"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A526" s="41"/>
+      <c r="A526" s="40"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A527" s="41"/>
+      <c r="A527" s="40"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A528" s="41"/>
+      <c r="A528" s="40"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A529" s="41"/>
+      <c r="A529" s="40"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A530" s="41"/>
+      <c r="A530" s="40"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A531" s="41"/>
+      <c r="A531" s="40"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A532" s="41"/>
+      <c r="A532" s="40"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A533" s="41"/>
+      <c r="A533" s="40"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A534" s="41"/>
+      <c r="A534" s="40"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A535" s="41"/>
+      <c r="A535" s="40"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A536" s="41"/>
+      <c r="A536" s="40"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A537" s="41"/>
+      <c r="A537" s="40"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A538" s="41"/>
+      <c r="A538" s="40"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A539" s="41"/>
+      <c r="A539" s="40"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A540" s="41"/>
+      <c r="A540" s="40"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A541" s="41"/>
+      <c r="A541" s="40"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A542" s="41"/>
+      <c r="A542" s="40"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A543" s="41"/>
+      <c r="A543" s="40"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A544" s="41"/>
+      <c r="A544" s="40"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A545" s="41"/>
+      <c r="A545" s="40"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A546" s="41"/>
+      <c r="A546" s="40"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A547" s="41"/>
+      <c r="A547" s="40"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A548" s="41"/>
+      <c r="A548" s="40"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A549" s="41"/>
+      <c r="A549" s="40"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A550" s="41"/>
+      <c r="A550" s="40"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A551" s="41"/>
+      <c r="A551" s="40"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A552" s="41"/>
+      <c r="A552" s="40"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A553" s="41"/>
+      <c r="A553" s="40"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A554" s="41"/>
+      <c r="A554" s="40"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A555" s="41"/>
+      <c r="A555" s="40"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A556" s="41"/>
+      <c r="A556" s="40"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A557" s="41"/>
+      <c r="A557" s="40"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A558" s="41"/>
+      <c r="A558" s="40"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A559" s="41"/>
+      <c r="A559" s="40"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A560" s="41"/>
+      <c r="A560" s="40"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A561" s="41"/>
+      <c r="A561" s="40"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A562" s="41"/>
+      <c r="A562" s="40"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A563" s="41"/>
+      <c r="A563" s="40"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A564" s="41"/>
+      <c r="A564" s="40"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A565" s="41"/>
+      <c r="A565" s="40"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A566" s="41"/>
+      <c r="A566" s="40"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A567" s="41"/>
+      <c r="A567" s="40"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A568" s="41"/>
+      <c r="A568" s="40"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A569" s="41"/>
+      <c r="A569" s="40"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A570" s="41"/>
+      <c r="A570" s="40"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A571" s="41"/>
+      <c r="A571" s="40"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A572" s="41"/>
+      <c r="A572" s="40"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A573" s="41"/>
+      <c r="A573" s="40"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A574" s="41"/>
+      <c r="A574" s="40"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A575" s="41"/>
+      <c r="A575" s="40"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A576" s="41"/>
+      <c r="A576" s="40"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A577" s="41"/>
+      <c r="A577" s="40"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A578" s="41"/>
+      <c r="A578" s="40"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A579" s="41"/>
+      <c r="A579" s="40"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A580" s="41"/>
+      <c r="A580" s="40"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A581" s="41"/>
+      <c r="A581" s="40"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A582" s="41"/>
+      <c r="A582" s="40"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A583" s="41"/>
+      <c r="A583" s="40"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A584" s="41"/>
+      <c r="A584" s="40"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A585" s="41"/>
+      <c r="A585" s="40"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A586" s="41"/>
+      <c r="A586" s="40"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A587" s="41"/>
+      <c r="A587" s="40"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A588" s="41"/>
+      <c r="A588" s="40"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A589" s="41"/>
+      <c r="A589" s="40"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A590" s="41"/>
+      <c r="A590" s="40"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A591" s="41"/>
+      <c r="A591" s="40"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A592" s="41"/>
+      <c r="A592" s="40"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A593" s="41"/>
+      <c r="A593" s="40"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A594" s="41"/>
+      <c r="A594" s="40"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A595" s="41"/>
+      <c r="A595" s="40"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A596" s="41"/>
+      <c r="A596" s="40"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A597" s="41"/>
+      <c r="A597" s="40"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A598" s="41"/>
+      <c r="A598" s="40"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A599" s="41"/>
+      <c r="A599" s="40"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A600" s="41"/>
+      <c r="A600" s="40"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A601" s="41"/>
+      <c r="A601" s="40"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A602" s="41"/>
+      <c r="A602" s="40"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A603" s="41"/>
+      <c r="A603" s="40"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A604" s="41"/>
+      <c r="A604" s="40"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A605" s="41"/>
+      <c r="A605" s="40"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A606" s="41"/>
+      <c r="A606" s="40"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A607" s="41"/>
+      <c r="A607" s="40"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A608" s="41"/>
+      <c r="A608" s="40"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A609" s="41"/>
+      <c r="A609" s="40"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A610" s="41"/>
+      <c r="A610" s="40"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A611" s="41"/>
+      <c r="A611" s="40"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A612" s="41"/>
+      <c r="A612" s="40"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A613" s="41"/>
+      <c r="A613" s="40"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A614" s="41"/>
+      <c r="A614" s="40"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A615" s="41"/>
+      <c r="A615" s="40"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A616" s="41"/>
+      <c r="A616" s="40"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A617" s="41"/>
+      <c r="A617" s="40"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A618" s="41"/>
+      <c r="A618" s="40"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A619" s="41"/>
+      <c r="A619" s="40"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A620" s="41"/>
+      <c r="A620" s="40"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A621" s="41"/>
+      <c r="A621" s="40"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A622" s="41"/>
+      <c r="A622" s="40"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A623" s="41"/>
+      <c r="A623" s="40"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A624" s="41"/>
+      <c r="A624" s="40"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A625" s="41"/>
+      <c r="A625" s="40"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A626" s="41"/>
+      <c r="A626" s="40"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A627" s="41"/>
+      <c r="A627" s="40"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A628" s="41"/>
+      <c r="A628" s="40"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A629" s="41"/>
+      <c r="A629" s="40"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A630" s="41"/>
+      <c r="A630" s="40"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A631" s="41"/>
+      <c r="A631" s="40"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A632" s="41"/>
+      <c r="A632" s="40"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A633" s="41"/>
+      <c r="A633" s="40"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A634" s="41"/>
+      <c r="A634" s="40"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A635" s="41"/>
+      <c r="A635" s="40"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A636" s="41"/>
+      <c r="A636" s="40"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A637" s="41"/>
+      <c r="A637" s="40"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A638" s="41"/>
+      <c r="A638" s="40"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A639" s="41"/>
+      <c r="A639" s="40"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A640" s="41"/>
+      <c r="A640" s="40"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A641" s="41"/>
+      <c r="A641" s="40"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A642" s="41"/>
+      <c r="A642" s="40"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A643" s="41"/>
+      <c r="A643" s="40"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A644" s="41"/>
+      <c r="A644" s="40"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A645" s="41"/>
+      <c r="A645" s="40"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A646" s="41"/>
+      <c r="A646" s="40"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A647" s="41"/>
+      <c r="A647" s="40"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A648" s="41"/>
+      <c r="A648" s="40"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A649" s="41"/>
+      <c r="A649" s="40"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A650" s="41"/>
+      <c r="A650" s="40"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A651" s="41"/>
+      <c r="A651" s="40"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A652" s="41"/>
+      <c r="A652" s="40"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A653" s="41"/>
+      <c r="A653" s="40"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A654" s="41"/>
+      <c r="A654" s="40"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A655" s="41"/>
+      <c r="A655" s="40"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A656" s="41"/>
+      <c r="A656" s="40"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A657" s="41"/>
+      <c r="A657" s="40"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A658" s="41"/>
+      <c r="A658" s="40"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A659" s="41"/>
+      <c r="A659" s="40"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A660" s="41"/>
+      <c r="A660" s="40"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A661" s="41"/>
+      <c r="A661" s="40"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A662" s="41"/>
+      <c r="A662" s="40"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A663" s="41"/>
+      <c r="A663" s="40"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A664" s="41"/>
+      <c r="A664" s="40"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A665" s="41"/>
+      <c r="A665" s="40"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A666" s="41"/>
+      <c r="A666" s="40"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A667" s="41"/>
+      <c r="A667" s="40"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A668" s="41"/>
+      <c r="A668" s="40"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A669" s="41"/>
+      <c r="A669" s="40"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A670" s="41"/>
+      <c r="A670" s="40"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A671" s="41"/>
+      <c r="A671" s="40"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A672" s="41"/>
+      <c r="A672" s="40"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A673" s="41"/>
+      <c r="A673" s="40"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A674" s="41"/>
+      <c r="A674" s="40"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A675" s="41"/>
+      <c r="A675" s="40"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A676" s="41"/>
+      <c r="A676" s="40"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A677" s="41"/>
+      <c r="A677" s="40"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A678" s="41"/>
+      <c r="A678" s="40"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A679" s="41"/>
+      <c r="A679" s="40"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A680" s="41"/>
+      <c r="A680" s="40"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A681" s="41"/>
+      <c r="A681" s="40"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A682" s="41"/>
+      <c r="A682" s="40"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A683" s="41"/>
+      <c r="A683" s="40"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A684" s="41"/>
+      <c r="A684" s="40"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A685" s="41"/>
+      <c r="A685" s="40"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A686" s="41"/>
+      <c r="A686" s="40"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A687" s="41"/>
+      <c r="A687" s="40"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A688" s="41"/>
+      <c r="A688" s="40"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A689" s="41"/>
+      <c r="A689" s="40"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A690" s="41"/>
+      <c r="A690" s="40"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A691" s="41"/>
+      <c r="A691" s="40"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A692" s="41"/>
+      <c r="A692" s="40"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A693" s="41"/>
+      <c r="A693" s="40"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A694" s="41"/>
+      <c r="A694" s="40"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A695" s="41"/>
+      <c r="A695" s="40"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A696" s="41"/>
+      <c r="A696" s="40"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A697" s="41"/>
+      <c r="A697" s="40"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A698" s="41"/>
+      <c r="A698" s="40"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A699" s="41"/>
+      <c r="A699" s="40"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A700" s="41"/>
+      <c r="A700" s="40"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A701" s="41"/>
+      <c r="A701" s="40"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A702" s="41"/>
+      <c r="A702" s="40"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A703" s="41"/>
+      <c r="A703" s="40"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A704" s="41"/>
+      <c r="A704" s="40"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A705" s="41"/>
+      <c r="A705" s="40"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A706" s="41"/>
+      <c r="A706" s="40"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A707" s="41"/>
+      <c r="A707" s="40"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A708" s="41"/>
+      <c r="A708" s="40"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A709" s="41"/>
+      <c r="A709" s="40"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A710" s="41"/>
+      <c r="A710" s="40"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A711" s="41"/>
+      <c r="A711" s="40"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A712" s="41"/>
+      <c r="A712" s="40"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A713" s="41"/>
+      <c r="A713" s="40"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A714" s="41"/>
+      <c r="A714" s="40"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A715" s="41"/>
+      <c r="A715" s="40"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A716" s="41"/>
+      <c r="A716" s="40"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A717" s="41"/>
+      <c r="A717" s="40"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A718" s="41"/>
+      <c r="A718" s="40"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A719" s="41"/>
+      <c r="A719" s="40"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A720" s="41"/>
+      <c r="A720" s="40"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A721" s="41"/>
+      <c r="A721" s="40"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A722" s="41"/>
+      <c r="A722" s="40"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A723" s="41"/>
+      <c r="A723" s="40"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A724" s="41"/>
+      <c r="A724" s="40"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A725" s="41"/>
+      <c r="A725" s="40"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A726" s="41"/>
+      <c r="A726" s="40"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A727" s="41"/>
+      <c r="A727" s="40"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A728" s="41"/>
+      <c r="A728" s="40"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A729" s="41"/>
+      <c r="A729" s="40"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A730" s="41"/>
+      <c r="A730" s="40"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A731" s="41"/>
+      <c r="A731" s="40"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A732" s="41"/>
+      <c r="A732" s="40"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A733" s="41"/>
+      <c r="A733" s="40"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A734" s="41"/>
+      <c r="A734" s="40"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A735" s="41"/>
+      <c r="A735" s="40"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A736" s="41"/>
+      <c r="A736" s="40"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A737" s="41"/>
+      <c r="A737" s="40"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A738" s="41"/>
+      <c r="A738" s="40"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A739" s="41"/>
+      <c r="A739" s="40"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A740" s="41"/>
+      <c r="A740" s="40"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A741" s="41"/>
+      <c r="A741" s="40"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A742" s="41"/>
+      <c r="A742" s="40"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A743" s="41"/>
+      <c r="A743" s="40"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A744" s="41"/>
+      <c r="A744" s="40"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A745" s="41"/>
+      <c r="A745" s="40"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A746" s="41"/>
+      <c r="A746" s="40"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A747" s="41"/>
+      <c r="A747" s="40"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A748" s="41"/>
+      <c r="A748" s="40"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A749" s="41"/>
+      <c r="A749" s="40"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A750" s="41"/>
+      <c r="A750" s="40"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A751" s="41"/>
+      <c r="A751" s="40"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A752" s="41"/>
+      <c r="A752" s="40"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A753" s="41"/>
+      <c r="A753" s="40"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A754" s="41"/>
+      <c r="A754" s="40"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A755" s="41"/>
+      <c r="A755" s="40"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A756" s="41"/>
+      <c r="A756" s="40"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A757" s="41"/>
+      <c r="A757" s="40"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A758" s="41"/>
+      <c r="A758" s="40"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A759" s="41"/>
+      <c r="A759" s="40"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A760" s="41"/>
+      <c r="A760" s="40"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A761" s="41"/>
+      <c r="A761" s="40"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A762" s="41"/>
+      <c r="A762" s="40"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A763" s="41"/>
+      <c r="A763" s="40"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A764" s="41"/>
+      <c r="A764" s="40"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A765" s="41"/>
+      <c r="A765" s="40"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A766" s="41"/>
+      <c r="A766" s="40"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A767" s="41"/>
+      <c r="A767" s="40"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A768" s="41"/>
+      <c r="A768" s="40"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A769" s="41"/>
+      <c r="A769" s="40"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A770" s="41"/>
+      <c r="A770" s="40"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A771" s="41"/>
+      <c r="A771" s="40"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A772" s="41"/>
+      <c r="A772" s="40"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A773" s="41"/>
+      <c r="A773" s="40"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A774" s="41"/>
+      <c r="A774" s="40"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A775" s="41"/>
+      <c r="A775" s="40"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A776" s="41"/>
+      <c r="A776" s="40"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A777" s="41"/>
+      <c r="A777" s="40"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A778" s="41"/>
+      <c r="A778" s="40"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A779" s="41"/>
+      <c r="A779" s="40"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A780" s="41"/>
+      <c r="A780" s="40"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A781" s="41"/>
+      <c r="A781" s="40"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A782" s="41"/>
+      <c r="A782" s="40"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A783" s="41"/>
+      <c r="A783" s="40"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A784" s="41"/>
+      <c r="A784" s="40"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A785" s="41"/>
+      <c r="A785" s="40"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A786" s="41"/>
+      <c r="A786" s="40"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A787" s="41"/>
+      <c r="A787" s="40"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A788" s="41"/>
+      <c r="A788" s="40"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A789" s="41"/>
+      <c r="A789" s="40"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A790" s="41"/>
+      <c r="A790" s="40"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A791" s="41"/>
+      <c r="A791" s="40"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A792" s="41"/>
+      <c r="A792" s="40"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A793" s="41"/>
+      <c r="A793" s="40"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A794" s="41"/>
+      <c r="A794" s="40"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A795" s="41"/>
+      <c r="A795" s="40"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A796" s="41"/>
+      <c r="A796" s="40"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A797" s="41"/>
+      <c r="A797" s="40"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A798" s="41"/>
+      <c r="A798" s="40"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A799" s="41"/>
+      <c r="A799" s="40"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A800" s="41"/>
+      <c r="A800" s="40"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A801" s="41"/>
+      <c r="A801" s="40"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A802" s="41"/>
+      <c r="A802" s="40"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A803" s="41"/>
+      <c r="A803" s="40"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A804" s="41"/>
+      <c r="A804" s="40"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A805" s="41"/>
+      <c r="A805" s="40"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A806" s="41"/>
+      <c r="A806" s="40"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A807" s="41"/>
+      <c r="A807" s="40"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A808" s="41"/>
+      <c r="A808" s="40"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A809" s="41"/>
+      <c r="A809" s="40"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A810" s="41"/>
+      <c r="A810" s="40"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A811" s="41"/>
+      <c r="A811" s="40"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A812" s="41"/>
+      <c r="A812" s="40"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A813" s="41"/>
+      <c r="A813" s="40"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A814" s="41"/>
+      <c r="A814" s="40"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A815" s="41"/>
+      <c r="A815" s="40"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A816" s="41"/>
+      <c r="A816" s="40"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A817" s="41"/>
+      <c r="A817" s="40"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A818" s="41"/>
+      <c r="A818" s="40"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A819" s="41"/>
+      <c r="A819" s="40"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A820" s="41"/>
+      <c r="A820" s="40"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A821" s="41"/>
+      <c r="A821" s="40"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A822" s="41"/>
+      <c r="A822" s="40"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A823" s="41"/>
+      <c r="A823" s="40"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A824" s="41"/>
+      <c r="A824" s="40"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A825" s="41"/>
+      <c r="A825" s="40"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A826" s="41"/>
+      <c r="A826" s="40"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A827" s="41"/>
+      <c r="A827" s="40"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A828" s="41"/>
+      <c r="A828" s="40"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A829" s="41"/>
+      <c r="A829" s="40"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A830" s="41"/>
+      <c r="A830" s="40"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A831" s="41"/>
+      <c r="A831" s="40"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A832" s="41"/>
+      <c r="A832" s="40"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A833" s="41"/>
+      <c r="A833" s="40"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A834" s="41"/>
+      <c r="A834" s="40"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A835" s="41"/>
+      <c r="A835" s="40"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A836" s="41"/>
+      <c r="A836" s="40"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A837" s="41"/>
+      <c r="A837" s="40"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A838" s="41"/>
+      <c r="A838" s="40"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A839" s="41"/>
+      <c r="A839" s="40"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A840" s="41"/>
+      <c r="A840" s="40"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A841" s="41"/>
+      <c r="A841" s="40"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A842" s="41"/>
+      <c r="A842" s="40"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A843" s="41"/>
+      <c r="A843" s="40"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A844" s="41"/>
+      <c r="A844" s="40"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A845" s="41"/>
+      <c r="A845" s="40"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A846" s="41"/>
+      <c r="A846" s="40"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A847" s="41"/>
+      <c r="A847" s="40"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A848" s="41"/>
+      <c r="A848" s="40"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A849" s="41"/>
+      <c r="A849" s="40"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A850" s="41"/>
+      <c r="A850" s="40"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A851" s="41"/>
+      <c r="A851" s="40"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A852" s="41"/>
+      <c r="A852" s="40"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A853" s="41"/>
+      <c r="A853" s="40"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A854" s="41"/>
+      <c r="A854" s="40"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A855" s="41"/>
+      <c r="A855" s="40"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A856" s="41"/>
+      <c r="A856" s="40"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A857" s="41"/>
+      <c r="A857" s="40"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A858" s="41"/>
+      <c r="A858" s="40"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A859" s="41"/>
+      <c r="A859" s="40"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A860" s="41"/>
+      <c r="A860" s="40"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A861" s="41"/>
+      <c r="A861" s="40"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A862" s="41"/>
+      <c r="A862" s="40"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A863" s="41"/>
+      <c r="A863" s="40"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A864" s="41"/>
+      <c r="A864" s="40"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A865" s="41"/>
+      <c r="A865" s="40"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A866" s="41"/>
+      <c r="A866" s="40"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A867" s="41"/>
+      <c r="A867" s="40"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A868" s="41"/>
+      <c r="A868" s="40"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A869" s="41"/>
+      <c r="A869" s="40"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A870" s="41"/>
+      <c r="A870" s="40"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A871" s="41"/>
+      <c r="A871" s="40"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A872" s="41"/>
+      <c r="A872" s="40"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A873" s="41"/>
+      <c r="A873" s="40"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A874" s="41"/>
+      <c r="A874" s="40"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A875" s="41"/>
+      <c r="A875" s="40"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A876" s="41"/>
+      <c r="A876" s="40"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A877" s="41"/>
+      <c r="A877" s="40"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A878" s="41"/>
+      <c r="A878" s="40"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A879" s="41"/>
+      <c r="A879" s="40"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A880" s="41"/>
+      <c r="A880" s="40"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A881" s="41"/>
+      <c r="A881" s="40"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A882" s="41"/>
+      <c r="A882" s="40"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A883" s="41"/>
+      <c r="A883" s="40"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A884" s="41"/>
+      <c r="A884" s="40"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A885" s="41"/>
+      <c r="A885" s="40"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A886" s="41"/>
+      <c r="A886" s="40"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A887" s="41"/>
+      <c r="A887" s="40"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A888" s="41"/>
+      <c r="A888" s="40"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A889" s="41"/>
+      <c r="A889" s="40"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A890" s="41"/>
+      <c r="A890" s="40"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A891" s="41"/>
+      <c r="A891" s="40"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A892" s="41"/>
+      <c r="A892" s="40"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A893" s="41"/>
+      <c r="A893" s="40"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A894" s="41"/>
+      <c r="A894" s="40"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A895" s="41"/>
+      <c r="A895" s="40"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A896" s="41"/>
+      <c r="A896" s="40"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A897" s="41"/>
+      <c r="A897" s="40"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A898" s="41"/>
+      <c r="A898" s="40"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A899" s="41"/>
+      <c r="A899" s="40"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A900" s="41"/>
+      <c r="A900" s="40"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A901" s="41"/>
+      <c r="A901" s="40"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A902" s="41"/>
+      <c r="A902" s="40"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A903" s="41"/>
+      <c r="A903" s="40"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A904" s="41"/>
+      <c r="A904" s="40"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A905" s="41"/>
+      <c r="A905" s="40"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A906" s="41"/>
+      <c r="A906" s="40"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A907" s="41"/>
+      <c r="A907" s="40"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A908" s="41"/>
+      <c r="A908" s="40"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A909" s="41"/>
+      <c r="A909" s="40"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A910" s="41"/>
+      <c r="A910" s="40"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A911" s="41"/>
+      <c r="A911" s="40"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A912" s="41"/>
+      <c r="A912" s="40"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A913" s="41"/>
+      <c r="A913" s="40"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A914" s="41"/>
+      <c r="A914" s="40"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A915" s="41"/>
+      <c r="A915" s="40"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A916" s="41"/>
+      <c r="A916" s="40"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A917" s="41"/>
+      <c r="A917" s="40"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A918" s="41"/>
+      <c r="A918" s="40"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A919" s="41"/>
+      <c r="A919" s="40"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A920" s="41"/>
+      <c r="A920" s="40"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A921" s="41"/>
+      <c r="A921" s="40"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A922" s="41"/>
+      <c r="A922" s="40"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A923" s="41"/>
+      <c r="A923" s="40"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A924" s="41"/>
+      <c r="A924" s="40"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A925" s="41"/>
+      <c r="A925" s="40"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A926" s="41"/>
+      <c r="A926" s="40"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A927" s="41"/>
+      <c r="A927" s="40"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A928" s="41"/>
+      <c r="A928" s="40"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A929" s="41"/>
+      <c r="A929" s="40"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A930" s="41"/>
+      <c r="A930" s="40"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A931" s="41"/>
+      <c r="A931" s="40"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A932" s="41"/>
+      <c r="A932" s="40"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A933" s="41"/>
+      <c r="A933" s="40"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A934" s="41"/>
+      <c r="A934" s="40"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A935" s="41"/>
+      <c r="A935" s="40"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A936" s="41"/>
+      <c r="A936" s="40"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A937" s="41"/>
+      <c r="A937" s="40"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A938" s="41"/>
+      <c r="A938" s="40"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A939" s="41"/>
+      <c r="A939" s="40"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A940" s="41"/>
+      <c r="A940" s="40"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A941" s="41"/>
+      <c r="A941" s="40"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A942" s="41"/>
+      <c r="A942" s="40"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A943" s="41"/>
+      <c r="A943" s="40"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A944" s="41"/>
+      <c r="A944" s="40"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A945" s="41"/>
+      <c r="A945" s="40"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A946" s="41"/>
+      <c r="A946" s="40"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A947" s="41"/>
+      <c r="A947" s="40"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A948" s="41"/>
+      <c r="A948" s="40"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A949" s="41"/>
+      <c r="A949" s="40"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A950" s="41"/>
+      <c r="A950" s="40"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A951" s="41"/>
+      <c r="A951" s="40"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A952" s="41"/>
+      <c r="A952" s="40"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A953" s="41"/>
+      <c r="A953" s="40"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A954" s="41"/>
+      <c r="A954" s="40"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A955" s="41"/>
+      <c r="A955" s="40"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A956" s="41"/>
+      <c r="A956" s="40"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A957" s="41"/>
+      <c r="A957" s="40"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A958" s="41"/>
+      <c r="A958" s="40"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A959" s="41"/>
+      <c r="A959" s="40"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A960" s="41"/>
+      <c r="A960" s="40"/>
     </row>
     <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="41"/>
+      <c r="A961" s="40"/>
     </row>
     <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="41"/>
+      <c r="A962" s="40"/>
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="41"/>
+      <c r="A963" s="40"/>
     </row>
     <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="41"/>
+      <c r="A964" s="40"/>
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="41"/>
+      <c r="A965" s="40"/>
     </row>
     <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="41"/>
+      <c r="A966" s="40"/>
     </row>
     <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="41"/>
+      <c r="A967" s="40"/>
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="41"/>
+      <c r="A968" s="40"/>
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="41"/>
+      <c r="A969" s="40"/>
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="41"/>
+      <c r="A970" s="40"/>
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="41"/>
+      <c r="A971" s="40"/>
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="41"/>
+      <c r="A972" s="40"/>
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="41"/>
+      <c r="A973" s="40"/>
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="41"/>
+      <c r="A974" s="40"/>
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="41"/>
+      <c r="A975" s="40"/>
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="41"/>
+      <c r="A976" s="40"/>
     </row>
     <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="41"/>
+      <c r="A977" s="40"/>
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="41"/>
+      <c r="A978" s="40"/>
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="41"/>
+      <c r="A979" s="40"/>
     </row>
     <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="41"/>
+      <c r="A980" s="40"/>
     </row>
     <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="41"/>
+      <c r="A981" s="40"/>
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="41"/>
+      <c r="A982" s="40"/>
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="41"/>
+      <c r="A983" s="40"/>
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="41"/>
+      <c r="A984" s="40"/>
     </row>
     <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="41"/>
+      <c r="A985" s="40"/>
     </row>
     <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="41"/>
+      <c r="A986" s="40"/>
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="41"/>
+      <c r="A987" s="40"/>
     </row>
     <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="41"/>
+      <c r="A988" s="40"/>
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="41"/>
+      <c r="A989" s="40"/>
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="41"/>
+      <c r="A990" s="40"/>
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="41"/>
+      <c r="A991" s="40"/>
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="41"/>
+      <c r="A992" s="40"/>
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="41"/>
+      <c r="A993" s="40"/>
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="41"/>
+      <c r="A994" s="40"/>
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="41"/>
+      <c r="A995" s="40"/>
     </row>
     <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="41"/>
+      <c r="A996" s="40"/>
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="41"/>
+      <c r="A997" s="40"/>
     </row>
     <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="41"/>
+      <c r="A998" s="40"/>
     </row>
     <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="41"/>
+      <c r="A999" s="40"/>
     </row>
     <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="41"/>
+      <c r="A1000" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10"/>
@@ -20712,7 +20720,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.15"/>
@@ -20720,32 +20728,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#KWELXX/KWEL/CADUAMB/9/report-checklist.xlsx
+++ b/GATEWAY/A1#111#KWELXX/KWEL/CADUAMB/9/report-checklist.xlsx
@@ -1571,13 +1571,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-12T18:26:36.0000000+00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e563f3be3e37dcaade6a78cc490f2f19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.aba3a1813c24c93cf77c3622cbbdffe37bc523d686ce8c0f902d82a61fbaf5ec.6a7105cc40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-11-13T16:12:02.0000000+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a9fd6c15c1c107713bc0db17c9b9c705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.aba3a1813c24c93cf77c3622cbbdffe37bc523d686ce8c0f902d82a61fbaf5ec.2dce21f9b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1744,13 +1744,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-12T18:39:43.0000000+00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dab2493d736ce8707806da7fb1677c73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.1212378fa2ece7be882592738760df591495d973ecf0a3d667dc469eaff2915c.dfe519d18c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-11-13T16:24:55.0000000+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">529e711ef69ea6a1a1f1dca87a8f26f7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.1212378fa2ece7be882592738760df591495d973ecf0a3d667dc469eaff2915c.31a9faf2c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -4821,11 +4821,11 @@
   <dimension ref="A1:Z752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F185" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A188" activeCellId="0" sqref="A188"/>
-      <selection pane="bottomRight" activeCell="I188" activeCellId="0" sqref="I188"/>
+      <selection pane="bottomLeft" activeCell="A185" activeCellId="0" sqref="A185"/>
+      <selection pane="bottomRight" activeCell="G188" activeCellId="0" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11374,7 +11374,7 @@
         <v>399</v>
       </c>
       <c r="F166" s="31" t="n">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="G166" s="38" t="s">
         <v>400</v>
@@ -12234,7 +12234,7 @@
         <v>449</v>
       </c>
       <c r="F188" s="31" t="n">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="G188" s="38" t="s">
         <v>450</v>

--- a/GATEWAY/A1#111#KWELXX/KWEL/CADUAMB/9/report-checklist.xlsx
+++ b/GATEWAY/A1#111#KWELXX/KWEL/CADUAMB/9/report-checklist.xlsx
@@ -1571,13 +1571,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-13T16:12:02.0000000+00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a9fd6c15c1c107713bc0db17c9b9c705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.aba3a1813c24c93cf77c3622cbbdffe37bc523d686ce8c0f902d82a61fbaf5ec.2dce21f9b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-11-21T18:17:46.0000000+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c501ef46a01b83116e7fc63b33a4e7f6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.aba3a1813c24c93cf77c3622cbbdffe37bc523d686ce8c0f902d82a61fbaf5ec.2bfaafd800^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1744,13 +1744,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-13T16:24:55.0000000+00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">529e711ef69ea6a1a1f1dca87a8f26f7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.1212378fa2ece7be882592738760df591495d973ecf0a3d667dc469eaff2915c.31a9faf2c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-11-21T18:20:20.0000000+00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">af667bf8ab965e68a5089138e3848cc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.1212378fa2ece7be882592738760df591495d973ecf0a3d667dc469eaff2915c.f19fa477ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -2673,7 +2673,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="1" width="8.86"/>
@@ -3747,7 +3747,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="194.16"/>
@@ -4821,14 +4821,14 @@
   <dimension ref="A1:Z752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F130" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A185" activeCellId="0" sqref="A185"/>
-      <selection pane="bottomRight" activeCell="G188" activeCellId="0" sqref="G188"/>
+      <selection pane="bottomLeft" activeCell="A130" activeCellId="0" sqref="A130"/>
+      <selection pane="bottomRight" activeCell="H166" activeCellId="0" sqref="H166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.86"/>
@@ -11374,7 +11374,7 @@
         <v>399</v>
       </c>
       <c r="F166" s="31" t="n">
-        <v>45974</v>
+        <v>45982</v>
       </c>
       <c r="G166" s="38" t="s">
         <v>400</v>
@@ -12234,7 +12234,7 @@
         <v>449</v>
       </c>
       <c r="F188" s="31" t="n">
-        <v>45974</v>
+        <v>45982</v>
       </c>
       <c r="G188" s="38" t="s">
         <v>450</v>
@@ -16495,7 +16495,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="1" width="8.71"/>
   </cols>
@@ -17556,7 +17556,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.86"/>
@@ -20720,7 +20720,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.15"/>

--- a/GATEWAY/A1#111#KWELXX/KWEL/CADUAMB/9/report-checklist.xlsx
+++ b/GATEWAY/A1#111#KWELXX/KWEL/CADUAMB/9/report-checklist.xlsx
@@ -4821,11 +4821,11 @@
   <dimension ref="A1:Z752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A130" activeCellId="0" sqref="A130"/>
-      <selection pane="bottomRight" activeCell="H166" activeCellId="0" sqref="H166"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5308,7 +5308,7 @@
         <v>65</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="32" t="s">
         <v>66</v>
@@ -5369,7 +5369,7 @@
         <v>65</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q15" s="32" t="s">
         <v>66</v>
@@ -5652,7 +5652,7 @@
         <v>85</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="32" t="s">
         <v>66</v>
@@ -5713,7 +5713,7 @@
         <v>85</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q23" s="32" t="s">
         <v>66</v>
